--- a/Test_Report/excel_report/日常冒烟测试点.xlsx
+++ b/Test_Report/excel_report/日常冒烟测试点.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20" yWindow="520" windowWidth="33600" windowHeight="19240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="双屏机接口冒烟" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -187,6 +187,13 @@
       <sz val="10"/>
     </font>
     <font>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <color rgb="002B9E54"/>
     </font>
     <font>
@@ -304,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -460,9 +467,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,11 +476,11 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -486,22 +490,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -884,8 +888,8 @@
   </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I20" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelCol="0"/>
@@ -907,8 +911,8 @@
     <col width="15.33203125" bestFit="1" customWidth="1" style="8" min="16" max="16"/>
     <col width="17" customWidth="1" style="8" min="17" max="17"/>
     <col width="11.83203125" customWidth="1" style="8" min="18" max="18"/>
-    <col width="10.83203125" customWidth="1" style="8" min="19" max="81"/>
-    <col width="10.83203125" customWidth="1" style="8" min="82" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="8" min="19" max="83"/>
+    <col width="10.83203125" customWidth="1" style="8" min="84" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" s="17">
@@ -917,13 +921,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="59" t="inlineStr">
+      <c r="B1" s="58" t="inlineStr">
         <is>
           <t>双屏机接口冒烟测试</t>
         </is>
       </c>
-      <c r="C1" s="60" t="n"/>
-      <c r="D1" s="60" t="n"/>
+      <c r="C1" s="59" t="n"/>
+      <c r="D1" s="59" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="16" t="n"/>
@@ -949,9 +953,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="62" t="n"/>
-      <c r="D2" s="62" t="n"/>
+      <c r="B2" s="60" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="16" t="n"/>
@@ -1112,23 +1116,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N4" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': {'id': '1421', 'admin_name': 'TestAuto', 'real_name': '自动化测试账号-测试环境', 'admin_type': '2', 'mobile': '15672755599', 'head_img': '', 'qr_img': '', 'introduce': '', 'last_login_time': '1607326508', 'create_time': '1606974578', 'update_time': '1607326508', 'role_list': [{'id': '598', 'type': '2', 'merchant_type': '1001', 'merchant_id': '10001', 'name': '单站-管理员', 'parent_id': '0', 'description': '权限说明：拥有油站下的全部数据查看权限及功能修改权限', 'status': '1', 'sort_num': '1', 'left_key': '0', 'level': '0', 'icon_url': 'role-card-station-management', 'default_id': '41', 'create_time': '1605681900', 'menu_list': [{'menu_id': '194', 'menu_type': '5', 'parent_id': '144', 'menu_name': 'OS', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '195', 'menu_type': '5', 'parent_id': '194', 'menu_name': '数据', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '196', 'menu_type': '5', 'parent_id': '194', 'menu_name': '收银', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '197', 'menu_type': '5', 'parent_id': '194', 'menu_name': '订单', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '198', 'menu_type': '5', 'parent_id': '194', 'menu_name': '班结', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '199', 'menu_type': '5', 'parent_id': '194', 'menu_name': '油品', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '200', 'menu_type': '5', 'parent_id': '194', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '201', 'menu_type': '5', 'parent_id': '194', 'menu_name': '设置', 'menu_path': '', 'vue_path': '', 'is_show': '1'}]}], 'merchant_info': {'merchant_id': '10001', 'merchant_type': '1001', 'company_id': '10001', 'company_name': '智慧加油集团', 'full_name': '智慧第一加油站智慧第一加油站智慧第一加油站智慧第一加油站11', 'group_id': '5', 'merchant_name': '智慧第一加油站（零管专用）', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/10/12/17/334ec0abb599668f6ba1bb67c1de.png', 'banner_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/10/12/17/334ec0abb599668f6ba1bb67c1de.png', 'contact_name': 'ying', 'contact_tel': '18617121378', 'province_id': '19', 'city_id': '289', 'region_id': '3038', 'status': '1', 'open_status': '1', 'address': '北京西城区', 'longitude': '113.3217910', 'latitude': '23.6184120', 'distance': 0, 'business_hours': '00:00:00 - 23:59:59', 'user_id': '10005', 'create_time': '1533806679', 'online_time': '11110', 'update_time': '1607326773', 'other': 'null', 'all_app_id': ['fb1de4489b67b8cb', 'wx6c6693a2df6265b8', 'wx73a8de5287159207', '2019112069300474'], 'mini_app_id': 'wx73a8de5287159207', 'qrcode_url': [{'type': 1, 'qrcode_url': 'http://mmbiz.qpic.cn/mmbiz_jpg/bqZlAHxBlo8gH5xzicnJmibhQnACiaMvHvY7wpWjlo2EAWKfpTVKhkRE7svQtiaoZB8Pial2RXbGqZGRxu10cY41IBA/0'}, {'type': 2, 'qrcode_url': 'http://mmbiz.qpic.cn/mmbiz_jpg/LWyOkPJVI8ibZwVSsb0n2ga6kFpwmBjISJiaw3RDAJd19iakNREVv2VQvfSQHMjMQvic6jLF9nDcOn0FHEI4Lg1AeA/0'}], 'group': {'id': '1', 'group_name': '鹰眼集团', 'company_id': '1', 'parent_id': '0', 'root_id': '1', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191014/15/6682c9a78cfb431e759c817d7710.png', 'description': '', 'contact_name': ''}}, 'token': '231856250CD48948C7FEF898668E5474', 'merchant_status': '1', 'invoice': {'id': '28', 'merchant_id': '10001', 'legal_person_name': '张三', 'valid_day': '70', 'entrance': '1,2,3', 'ticket_type': '1', 'amount_type': '2', 'paper_stock': '0', 'card_id': 'pkOfe58sK_w-V7MST5B9hhf0O5A8', 'is_register': '0', 'recharge_product': '10#车用柴油', 'license_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20190711/19/83f0da35200a2d20851b4181069c.png', 's_pappid': '', 'create_time': '1605514186', 'update_time': '1605582520', 'invoice_balance': '1'}, 'pay_url': 'https://api.shylwlkj.com'}, 'request_id': '7620c46f8917c24d24b8cc4751e48a58'}</t>
-        </is>
-      </c>
-      <c r="O4" s="65" t="inlineStr">
-        <is>
-          <t>0.427</t>
-        </is>
-      </c>
-      <c r="P4" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q4" s="63" t="inlineStr"/>
-      <c r="R4" s="63" t="inlineStr">
+      <c r="N4" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': {'id': '1421', 'admin_name': 'TestAuto', 'real_name': '自动化测试账号-测试环境', 'admin_type': '2', 'mobile': '15672755599', 'head_img': '', 'qr_img': '', 'introduce': '', 'last_login_time': '1607396026', 'create_time': '1606974578', 'update_time': '1607396026', 'role_list': [{'id': '598', 'type': '2', 'merchant_type': '1001', 'merchant_id': '10001', 'name': '单站-管理员', 'parent_id': '0', 'description': '权限说明：拥有油站下的全部数据查看权限及功能修改权限', 'status': '1', 'sort_num': '1', 'left_key': '0', 'level': '0', 'icon_url': 'role-card-station-management', 'default_id': '41', 'create_time': '1605681900', 'menu_list': [{'menu_id': '194', 'menu_type': '5', 'parent_id': '144', 'menu_name': 'OS', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '195', 'menu_type': '5', 'parent_id': '194', 'menu_name': '数据', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '196', 'menu_type': '5', 'parent_id': '194', 'menu_name': '收银', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '197', 'menu_type': '5', 'parent_id': '194', 'menu_name': '订单', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '198', 'menu_type': '5', 'parent_id': '194', 'menu_name': '班结', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '199', 'menu_type': '5', 'parent_id': '194', 'menu_name': '油品', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '200', 'menu_type': '5', 'parent_id': '194', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '201', 'menu_type': '5', 'parent_id': '194', 'menu_name': '设置', 'menu_path': '', 'vue_path': '', 'is_show': '1'}]}], 'handle_password': 'b08b487bd16300519a3342b67de00aba', 'merchant_info': {'merchant_id': '10001', 'merchant_type': '1001', 'company_id': '10001', 'company_name': '智慧加油集团', 'full_name': '智慧第一加油站智慧第一加油站智慧第一加油站智慧第一加油站11', 'group_id': '5', 'merchant_name': '智慧第一加油站（零管专用）', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/10/12/17/334ec0abb599668f6ba1bb67c1de.png', 'banner_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/10/12/17/334ec0abb599668f6ba1bb67c1de.png', 'contact_name': 'ying', 'contact_tel': '18617121378', 'province_id': '19', 'city_id': '289', 'region_id': '3038', 'status': '1', 'open_status': '1', 'address': '北京西城区', 'longitude': '113.3217910', 'latitude': '23.6184120', 'distance': 0, 'business_hours': '00:00:00 - 23:59:59', 'user_id': '10005', 'create_time': '1533806679', 'online_time': '11110', 'update_time': '1607326773', 'other': 'null', 'all_app_id': ['fb1de4489b67b8cb', 'wx6c6693a2df6265b8', 'wx73a8de5287159207', '2019112069300474'], 'mini_app_id': 'wx73a8de5287159207', 'qrcode_url': [{'type': 1, 'qrcode_url': 'http://mmbiz.qpic.cn/mmbiz_jpg/bqZlAHxBlo8gH5xzicnJmibhQnACiaMvHvY7wpWjlo2EAWKfpTVKhkRE7svQtiaoZB8Pial2RXbGqZGRxu10cY41IBA/0'}, {'type': 2, 'qrcode_url': 'http://mmbiz.qpic.cn/mmbiz_jpg/LWyOkPJVI8ibZwVSsb0n2ga6kFpwmBjISJiaw3RDAJd19iakNREVv2VQvfSQHMjMQvic6jLF9nDcOn0FHEI4Lg1AeA/0'}], 'group': {'id': '1', 'group_name': '鹰眼集团', 'company_id': '1', 'parent_id': '0', 'root_id': '1', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191014/15/6682c9a78cfb431e759c817d7710.png', 'description': '', 'contact_name': ''}}, 'token': '00F821BA6C853BCDE6F10AC66C25F1F0', 'merchant_status': '1', 'invoice': {'id': '28', 'merchant_id': '10001', 'legal_person_name': '张三', 'valid_day': '70', 'entrance': '1,2,3', 'ticket_type': '1', 'amount_type': '2', 'paper_stock': '0', 'card_id': 'pkOfe58sK_w-V7MST5B9hhf0O5A8', 'is_register': '0', 'recharge_product': '10#车用柴油', 'license_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20190711/19/83f0da35200a2d20851b4181069c.png', 's_pappid': '', 'create_time': '1605514186', 'update_time': '1605582520', 'invoice_balance': '1'}, 'pay_url': 'https://api.shylwlkj.com'}, 'request_id': '3d9df41d5ea2c7275d973be593249b3f'}</t>
+        </is>
+      </c>
+      <c r="O4" s="64" t="inlineStr">
+        <is>
+          <t>0.414</t>
+        </is>
+      </c>
+      <c r="P4" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q4" s="62" t="inlineStr"/>
+      <c r="R4" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1184,23 +1188,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N5" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8342736', 'order_type': '16', 'order_code': '16202012078787552295', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '100', 'order_amount': '100', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '99', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607327878', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607327878', 'create_time': '1607327878', 'recommand_id': 0, 'items': [{'item_id': '8343399', 'order_id': '8342736', 'goods_type': '40', 'category_id': '0', 'goods_id': '0', 'goods_name': '', 'goods_sn': '', 'goods_number': '0.000000', 'market_price': '0', 'goods_price': '0', 'actual_price': '0', 'contract_price': '0', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '0', 'energy_number': '', 'gun_type': '0', 'gun_id': '0', 'gun_number': '0', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8188185'}], 'payment_info': [{'id': '8010159', 'order_id': '8010159', 'order_code': '16202012078787552295', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012078787552295', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607327878', 'notify_time': '1607327878', 'platform': '4100', 'other': ''}]}], 'request_id': 'c21ccba100f8ed63581493154044f54d'}</t>
-        </is>
-      </c>
-      <c r="O5" s="65" t="inlineStr">
-        <is>
-          <t>0.560</t>
-        </is>
-      </c>
-      <c r="P5" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q5" s="63" t="inlineStr"/>
-      <c r="R5" s="63" t="inlineStr">
+      <c r="N5" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343864', 'order_type': '16', 'order_code': '16202012083224838806', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '100', 'order_amount': '100', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '99', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406322', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406322', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344527', 'order_id': '8343864', 'goods_type': '40', 'category_id': '0', 'goods_id': '0', 'goods_name': '', 'goods_sn': '', 'goods_number': '0.000000', 'market_price': '0', 'goods_price': '0', 'actual_price': '0', 'contract_price': '0', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '0', 'energy_number': '', 'gun_type': '0', 'gun_id': '0', 'gun_number': '0', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189297'}], 'payment_info': [{'id': '8011279', 'order_id': '8011279', 'order_code': '16202012083224838806', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083224838806', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406322', 'notify_time': '1607406322', 'platform': '4100', 'other': ''}]}], 'request_id': '59d2eb29339219957f580b049f846d17'}</t>
+        </is>
+      </c>
+      <c r="O5" s="64" t="inlineStr">
+        <is>
+          <t>0.497</t>
+        </is>
+      </c>
+      <c r="P5" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q5" s="62" t="inlineStr"/>
+      <c r="R5" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1255,23 +1259,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N6" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': {'total': 75, 'list': [{'type': 1, 'push_command': 65004, 'status': 65004, 'goods_name': '-1', 'energy_number': '-1', 'merchant_id': 10001, 'merchant_type': 1001, 'gun_num': 0, 'volume': 0, 'create_time': 1607054440}, {'id': 4247, 'settlement_id': 0, 'fuel_order_id': 0, 'order_sn': '201207140444614957', 'box_id': 'T229206U40168', 'order_code': '', 'user_id': 0, 'user_coupon_id': 0, 'merchant_id': 10001, 'merchant_type': 1001, 'price': 520, 'gun_num': 1, 'pump_code_start': 2235371, 'pump_code_end': 2235390, 'pump_added_value': 19, 'mdc_ttc': 10009, 'goods_name': '98#车用汽油', 'energy_number': '98', 'energy_id': 2005, 'amount': 100, 'volume': 19, 'order_type': 1, 'card_type': 0, 'card_no': '0', 'is_combine': 1, 'lock_source': 0, 'status': 1, 'create_time': 1607321083, 'first_record_time': '2020-12-07 14:04:44', 'update_time': 1607327432, 'update_date': '2020-12-07 15:50:32', 'is_delete': 0, 'online_pay_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;m=10001&amp;a=pay', 'box_order': 4247, 'push_command': '65001', 'type': 2}]}, 'request_id': '21d4c593bb7b8e0c561ef71e9ba1d94e'}</t>
-        </is>
-      </c>
-      <c r="O6" s="65" t="inlineStr">
-        <is>
-          <t>0.259</t>
-        </is>
-      </c>
-      <c r="P6" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q6" s="63" t="inlineStr"/>
-      <c r="R6" s="63" t="inlineStr">
+      <c r="N6" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': {'total': 335, 'list': [{'type': 1, 'push_command': 65004, 'status': 65004, 'goods_name': '-1', 'energy_number': '-1', 'merchant_id': 10001, 'merchant_type': 1001, 'gun_num': 0, 'volume': 0, 'create_time': 1607054440}, {'id': 5502, 'settlement_id': 0, 'fuel_order_id': 0, 'order_sn': '201207180304839977', 'box_id': 'T229206U40168', 'order_code': '', 'user_id': 0, 'user_coupon_id': 0, 'merchant_id': 10001, 'merchant_type': 1001, 'price': 520, 'gun_num': 15, 'pump_code_start': 2435479, 'pump_code_end': 2438662, 'pump_added_value': 3183, 'mdc_ttc': 10578, 'goods_name': '10#车用柴油', 'energy_number': '10', 'energy_id': 1601, 'amount': 16556, 'volume': 3183, 'order_type': 1, 'card_type': 0, 'card_no': '0', 'is_combine': 1, 'lock_source': 5, 'status': 7, 'create_time': 1607335384, 'first_record_time': '2020-12-07 18:03:04', 'update_time': 1607396060, 'update_date': '2020-12-08 10:54:20', 'is_delete': 0, 'online_pay_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;m=10001&amp;a=pay', 'box_order': 5502, 'push_command': '65001', 'type': 2}]}, 'request_id': 'a05cff9ba285cc645f04db1d92c3018b'}</t>
+        </is>
+      </c>
+      <c r="O6" s="64" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="P6" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q6" s="62" t="inlineStr"/>
+      <c r="R6" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1331,23 +1335,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N7" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8342737', 'order_type': '16', 'order_code': '16202012078805495865', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '100', 'order_amount': '100', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '99', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607327880', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607327880', 'create_time': '1607327880', 'recommand_id': 0, 'items': [{'item_id': '8343400', 'order_id': '8342737', 'goods_type': '10', 'category_id': '1', 'goods_id': '2005', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.190000', 'market_price': '19000', 'goods_price': '19000', 'actual_price': '19000', 'contract_price': '19000', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '2945', 'gun_number': '1', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8188186'}], 'payment_info': [{'id': '8010160', 'order_id': '8010160', 'order_code': '16202012078805495865', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012078805495865', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607327880', 'notify_time': '1607327880', 'platform': '4100', 'other': ''}]}], 'request_id': '8778fb3d7de1d5e5d522f695b31d92c9'}</t>
-        </is>
-      </c>
-      <c r="O7" s="65" t="inlineStr">
-        <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="P7" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q7" s="63" t="inlineStr"/>
-      <c r="R7" s="63" t="inlineStr">
+      <c r="N7" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343865', 'order_type': '16', 'order_code': '16202012083242601405', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '16556', 'order_amount': '16556', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '16555', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406324', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406324', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344528', 'order_id': '8343865', 'goods_type': '10', 'category_id': '1', 'goods_id': '1601', 'goods_name': '10#车用柴油', 'goods_sn': '', 'goods_number': '31.830000', 'market_price': '20000', 'goods_price': '20000', 'actual_price': '20000', 'contract_price': '20000', 'subtotal': '16556', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '10', 'gun_type': '0', 'gun_id': '2986', 'gun_number': '15', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189298'}], 'payment_info': [{'id': '8011280', 'order_id': '8011280', 'order_code': '16202012083242601405', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083242601405', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406324', 'notify_time': '1607406324', 'platform': '4100', 'other': ''}]}], 'request_id': '427d7f69117e77d0eac50db7473d6820'}</t>
+        </is>
+      </c>
+      <c r="O7" s="64" t="inlineStr">
+        <is>
+          <t>0.589</t>
+        </is>
+      </c>
+      <c r="P7" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q7" s="62" t="inlineStr"/>
+      <c r="R7" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1407,23 +1411,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N8" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8342738', 'order_type': '16', 'order_code': '16202012078826546907', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '1100', 'order_amount': '1100', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '1099', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607327882', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607327882', 'create_time': '1607327882', 'recommand_id': 0, 'items': [{'item_id': '8343401', 'order_id': '8342738', 'goods_type': '10', 'category_id': '1', 'goods_id': '2005', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '2.110000', 'market_price': '19000', 'goods_price': '19000', 'actual_price': '19000', 'contract_price': '19000', 'subtotal': '1100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '2945', 'gun_number': '1', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8188187'}], 'payment_info': [{'id': '8010161', 'order_id': '8010161', 'order_code': '16202012078826546907', 'payment_id': '45', 'channel_id': '45', 'card_type': '0', 'card_number': '', 'trade_no': '16202012078826546907', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607327882', 'notify_time': '1607327882', 'platform': '4100', 'other': ''}]}], 'request_id': '803ff437d1bf00d03137a3df09827161'}</t>
-        </is>
-      </c>
-      <c r="O8" s="65" t="inlineStr">
-        <is>
-          <t>0.670</t>
-        </is>
-      </c>
-      <c r="P8" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q8" s="63" t="inlineStr"/>
-      <c r="R8" s="63" t="inlineStr">
+      <c r="N8" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343866', 'order_type': '16', 'order_code': '16202012083262281469', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '7768', 'order_amount': '7768', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '7767', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406326', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406326', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344529', 'order_id': '8343866', 'goods_type': '10', 'category_id': '1', 'goods_id': '2003', 'goods_name': '92#车用汽油', 'goods_sn': '', 'goods_number': '14.930000', 'market_price': '33200', 'goods_price': '33200', 'actual_price': '33200', 'contract_price': '33200', 'subtotal': '7768', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '92', 'gun_type': '0', 'gun_id': '299', 'gun_number': '5', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189299'}], 'payment_info': [{'id': '8011281', 'order_id': '8011281', 'order_code': '16202012083262281469', 'payment_id': '45', 'channel_id': '45', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083262281469', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406326', 'notify_time': '1607406326', 'platform': '4100', 'other': ''}]}], 'request_id': '7579d70e8fb4f704e7e773bbb6237ffc'}</t>
+        </is>
+      </c>
+      <c r="O8" s="64" t="inlineStr">
+        <is>
+          <t>0.595</t>
+        </is>
+      </c>
+      <c r="P8" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q8" s="62" t="inlineStr"/>
+      <c r="R8" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1483,23 +1487,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N9" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8342739', 'order_type': '16', 'order_code': '16202012078846968696', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '500', 'order_amount': '500', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '499', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607327884', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607327884', 'create_time': '1607327884', 'recommand_id': 0, 'items': [{'item_id': '8343402', 'order_id': '8342739', 'goods_type': '10', 'category_id': '1', 'goods_id': '2005', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.960000', 'market_price': '19000', 'goods_price': '19000', 'actual_price': '19000', 'contract_price': '19000', 'subtotal': '500', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '2945', 'gun_number': '1', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8188188'}], 'payment_info': [{'id': '8010162', 'order_id': '8010162', 'order_code': '16202012078846968696', 'payment_id': '41', 'channel_id': '41', 'card_type': '0', 'card_number': '', 'trade_no': '16202012078846968696', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607327884', 'notify_time': '1607327884', 'platform': '4100', 'other': ''}]}], 'request_id': '146f5459241a52911343626b49c656e8'}</t>
-        </is>
-      </c>
-      <c r="O9" s="65" t="inlineStr">
-        <is>
-          <t>0.664</t>
-        </is>
-      </c>
-      <c r="P9" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q9" s="63" t="inlineStr"/>
-      <c r="R9" s="63" t="inlineStr">
+      <c r="N9" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343867', 'order_type': '16', 'order_code': '16202012083282525905', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '13234', 'order_amount': '13234', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '13233', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406328', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406328', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344530', 'order_id': '8343867', 'goods_type': '10', 'category_id': '2', 'goods_id': '1406', 'goods_name': '-50#车用柴油', 'goods_sn': '', 'goods_number': '25.450000', 'market_price': '29000', 'goods_price': '29000', 'actual_price': '29000', 'contract_price': '29000', 'subtotal': '13234', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '2', 'energy_number': '-50', 'gun_type': '0', 'gun_id': '2947', 'gun_number': '3', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189300'}], 'payment_info': [{'id': '8011282', 'order_id': '8011282', 'order_code': '16202012083282525905', 'payment_id': '41', 'channel_id': '41', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083282525905', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406328', 'notify_time': '1607406328', 'platform': '4100', 'other': ''}]}], 'request_id': '5722d7ceac2e53cad3f5351ffc0eb0dc'}</t>
+        </is>
+      </c>
+      <c r="O9" s="64" t="inlineStr">
+        <is>
+          <t>0.673</t>
+        </is>
+      </c>
+      <c r="P9" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q9" s="62" t="inlineStr"/>
+      <c r="R9" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1559,23 +1563,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N10" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8342740', 'order_type': '16', 'order_code': '16202012078868413268', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '400', 'order_amount': '400', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '399', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607327886', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607327886', 'create_time': '1607327886', 'recommand_id': 0, 'items': [{'item_id': '8343403', 'order_id': '8342740', 'goods_type': '10', 'category_id': '1', 'goods_id': '2005', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.770000', 'market_price': '19000', 'goods_price': '19000', 'actual_price': '19000', 'contract_price': '19000', 'subtotal': '400', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '2945', 'gun_number': '1', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8188189'}], 'payment_info': [{'id': '8010163', 'order_id': '8010163', 'order_code': '16202012078868413268', 'payment_id': '42', 'channel_id': '42', 'card_type': '0', 'card_number': '', 'trade_no': '16202012078868413268', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607327886', 'notify_time': '1607327886', 'platform': '4100', 'other': ''}]}], 'request_id': '20787d49c50d77f4c015da71c1107c87'}</t>
-        </is>
-      </c>
-      <c r="O10" s="65" t="inlineStr">
-        <is>
-          <t>0.729</t>
-        </is>
-      </c>
-      <c r="P10" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q10" s="63" t="inlineStr"/>
-      <c r="R10" s="63" t="inlineStr">
+      <c r="N10" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343868', 'order_type': '16', 'order_code': '16202012083302491428', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '14924', 'order_amount': '14924', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '14923', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406330', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406330', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344531', 'order_id': '8343868', 'goods_type': '10', 'category_id': '3', 'goods_id': '2026', 'goods_name': 'CNG', 'goods_sn': '', 'goods_number': '28.700000', 'market_price': '34500', 'goods_price': '34500', 'actual_price': '34500', 'contract_price': '34500', 'subtotal': '14924', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '3', 'energy_number': 'CNG', 'gun_type': '0', 'gun_id': '2952', 'gun_number': '14', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189301'}], 'payment_info': [{'id': '8011283', 'order_id': '8011283', 'order_code': '16202012083302491428', 'payment_id': '42', 'channel_id': '42', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083302491428', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406330', 'notify_time': '1607406330', 'platform': '4100', 'other': ''}]}], 'request_id': '8133d73b67085abe32474c53d2c6fd0b'}</t>
+        </is>
+      </c>
+      <c r="O10" s="64" t="inlineStr">
+        <is>
+          <t>0.758</t>
+        </is>
+      </c>
+      <c r="P10" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q10" s="62" t="inlineStr"/>
+      <c r="R10" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1635,23 +1639,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N11" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8342741', 'order_type': '16', 'order_code': '16202012078888144104', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '300', 'order_amount': '300', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '299', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607327888', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607327888', 'create_time': '1607327888', 'recommand_id': 0, 'items': [{'item_id': '8343404', 'order_id': '8342741', 'goods_type': '10', 'category_id': '1', 'goods_id': '2005', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.580000', 'market_price': '19000', 'goods_price': '19000', 'actual_price': '19000', 'contract_price': '19000', 'subtotal': '300', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '2945', 'gun_number': '1', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8188190'}], 'payment_info': [{'id': '8010164', 'order_id': '8010164', 'order_code': '16202012078888144104', 'payment_id': '43', 'channel_id': '43', 'card_type': '0', 'card_number': '', 'trade_no': '16202012078888144104', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607327888', 'notify_time': '1607327888', 'platform': '4100', 'other': ''}]}], 'request_id': 'e0deb8c015fcd0233ffde143edc4e2ba'}</t>
-        </is>
-      </c>
-      <c r="O11" s="65" t="inlineStr">
-        <is>
-          <t>0.600</t>
-        </is>
-      </c>
-      <c r="P11" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q11" s="63" t="inlineStr"/>
-      <c r="R11" s="63" t="inlineStr">
+      <c r="N11" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343869', 'order_type': '16', 'order_code': '16202012083325214410', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '7264', 'order_amount': '7264', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '7263', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406332', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406332', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344532', 'order_id': '8343869', 'goods_type': '10', 'category_id': '1', 'goods_id': '2002', 'goods_name': '97#车用汽油', 'goods_sn': '', 'goods_number': '13.960000', 'market_price': '39000', 'goods_price': '39000', 'actual_price': '39000', 'contract_price': '39000', 'subtotal': '7264', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '97', 'gun_type': '0', 'gun_id': '302', 'gun_number': '8', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189302'}], 'payment_info': [{'id': '8011284', 'order_id': '8011284', 'order_code': '16202012083325214410', 'payment_id': '43', 'channel_id': '43', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083325214410', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406332', 'notify_time': '1607406332', 'platform': '4100', 'other': ''}]}], 'request_id': 'b685c771b73951f3f7482ed6b993f5c1'}</t>
+        </is>
+      </c>
+      <c r="O11" s="64" t="inlineStr">
+        <is>
+          <t>0.612</t>
+        </is>
+      </c>
+      <c r="P11" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q11" s="62" t="inlineStr"/>
+      <c r="R11" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1711,23 +1715,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N12" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8342742', 'order_type': '16', 'order_code': '16202012078907964744', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '200', 'order_amount': '200', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '199', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607327890', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607327890', 'create_time': '1607327890', 'recommand_id': 0, 'items': [{'item_id': '8343405', 'order_id': '8342742', 'goods_type': '10', 'category_id': '1', 'goods_id': '2005', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.380000', 'market_price': '19000', 'goods_price': '19000', 'actual_price': '19000', 'contract_price': '19000', 'subtotal': '200', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '2945', 'gun_number': '1', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8188191'}], 'payment_info': [{'id': '8010165', 'order_id': '8010165', 'order_code': '16202012078907964744', 'payment_id': '44', 'channel_id': '44', 'card_type': '0', 'card_number': '', 'trade_no': '16202012078907964744', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607327890', 'notify_time': '1607327890', 'platform': '4100', 'other': ''}]}], 'request_id': 'ae815bf616aa88909e1856c705297143'}</t>
-        </is>
-      </c>
-      <c r="O12" s="65" t="inlineStr">
-        <is>
-          <t>0.677</t>
-        </is>
-      </c>
-      <c r="P12" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q12" s="63" t="inlineStr"/>
-      <c r="R12" s="63" t="inlineStr">
+      <c r="N12" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343870', 'order_type': '16', 'order_code': '16202012083345936253', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '23795', 'order_amount': '23795', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '23794', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406334', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406334', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344533', 'order_id': '8343870', 'goods_type': '10', 'category_id': '6', 'goods_id': '2025', 'goods_name': 'LNG', 'goods_sn': '', 'goods_number': '45.750000', 'market_price': '53500', 'goods_price': '53500', 'actual_price': '53500', 'contract_price': '53500', 'subtotal': '23795', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '6', 'energy_number': 'LNG', 'gun_type': '0', 'gun_id': '2955', 'gun_number': '16', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189303'}], 'payment_info': [{'id': '8011285', 'order_id': '8011285', 'order_code': '16202012083345936253', 'payment_id': '44', 'channel_id': '44', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083345936253', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406334', 'notify_time': '1607406334', 'platform': '4100', 'other': ''}]}], 'request_id': 'a89721724b8723c0920a3ce59b6c7ecb'}</t>
+        </is>
+      </c>
+      <c r="O12" s="64" t="inlineStr">
+        <is>
+          <t>0.898</t>
+        </is>
+      </c>
+      <c r="P12" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q12" s="62" t="inlineStr"/>
+      <c r="R12" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1783,23 +1787,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N13" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8342743', 'order_type': '16', 'order_code': '16202012078925844043', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '10', 'order_amount': '10', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '9', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607327892', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607327892', 'create_time': '1607327892', 'recommand_id': 0, 'items': [{'item_id': '8343406', 'order_id': '8342743', 'goods_type': '40', 'category_id': '0', 'goods_id': '0', 'goods_name': '', 'goods_sn': '', 'goods_number': '0.000000', 'market_price': '0', 'goods_price': '0', 'actual_price': '0', 'contract_price': '0', 'subtotal': '10', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '0', 'energy_number': '', 'gun_type': '0', 'gun_id': '0', 'gun_number': '0', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8188192'}], 'payment_info': [{'id': '8010166', 'order_id': '8010166', 'order_code': '16202012078925844043', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012078925844043', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '10', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607327892', 'notify_time': '1607327892', 'platform': '4100', 'other': ''}]}], 'request_id': '89e3987629558b3597e60d604e2c04b9'}</t>
-        </is>
-      </c>
-      <c r="O13" s="65" t="inlineStr">
-        <is>
-          <t>0.536</t>
-        </is>
-      </c>
-      <c r="P13" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q13" s="63" t="inlineStr"/>
-      <c r="R13" s="63" t="inlineStr">
+      <c r="N13" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343871', 'order_type': '16', 'order_code': '16202012083366738158', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '10', 'order_amount': '10', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '9', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406336', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406336', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344534', 'order_id': '8343871', 'goods_type': '40', 'category_id': '0', 'goods_id': '0', 'goods_name': '', 'goods_sn': '', 'goods_number': '0.000000', 'market_price': '0', 'goods_price': '0', 'actual_price': '0', 'contract_price': '0', 'subtotal': '10', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '0', 'energy_number': '', 'gun_type': '0', 'gun_id': '0', 'gun_number': '0', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189304'}], 'payment_info': [{'id': '8011286', 'order_id': '8011286', 'order_code': '16202012083366738158', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083366738158', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '10', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406336', 'notify_time': '1607406336', 'platform': '4100', 'other': ''}]}], 'request_id': '10a20ca02adbea15e4c81ee4ea0892d1'}</t>
+        </is>
+      </c>
+      <c r="O13" s="64" t="inlineStr">
+        <is>
+          <t>0.579</t>
+        </is>
+      </c>
+      <c r="P13" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q13" s="62" t="inlineStr"/>
+      <c r="R13" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1859,23 +1863,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N14" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '7c1f32704eb335b32d3c87f4c5401fc3'}</t>
-        </is>
-      </c>
-      <c r="O14" s="65" t="inlineStr">
-        <is>
-          <t>0.105</t>
-        </is>
-      </c>
-      <c r="P14" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q14" s="63" t="inlineStr"/>
-      <c r="R14" s="63" t="inlineStr">
+      <c r="N14" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': 'af0fa15fd9712fcd6c17621cedef3bec'}</t>
+        </is>
+      </c>
+      <c r="O14" s="64" t="inlineStr">
+        <is>
+          <t>0.130</t>
+        </is>
+      </c>
+      <c r="P14" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q14" s="62" t="inlineStr"/>
+      <c r="R14" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1935,23 +1939,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N15" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': 'f797b7181a495e270dff62b631bbda6d'}</t>
-        </is>
-      </c>
-      <c r="O15" s="65" t="inlineStr">
-        <is>
-          <t>0.127</t>
-        </is>
-      </c>
-      <c r="P15" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q15" s="63" t="inlineStr"/>
-      <c r="R15" s="63" t="inlineStr">
+      <c r="N15" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '67f231d7337591045b488f2c3a45feb5'}</t>
+        </is>
+      </c>
+      <c r="O15" s="64" t="inlineStr">
+        <is>
+          <t>0.108</t>
+        </is>
+      </c>
+      <c r="P15" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q15" s="62" t="inlineStr"/>
+      <c r="R15" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2011,23 +2015,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N16" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '25b6148023b404cffebbdbf837af3448'}</t>
-        </is>
-      </c>
-      <c r="O16" s="65" t="inlineStr">
-        <is>
-          <t>0.128</t>
-        </is>
-      </c>
-      <c r="P16" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q16" s="63" t="inlineStr"/>
-      <c r="R16" s="63" t="inlineStr">
+      <c r="N16" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': 'ac4260d70651db340b18d820c9b40bfb'}</t>
+        </is>
+      </c>
+      <c r="O16" s="64" t="inlineStr">
+        <is>
+          <t>0.107</t>
+        </is>
+      </c>
+      <c r="P16" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q16" s="62" t="inlineStr"/>
+      <c r="R16" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2087,23 +2091,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N17" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '92ccf2454b21ce791e91679244a50046'}</t>
-        </is>
-      </c>
-      <c r="O17" s="65" t="inlineStr">
-        <is>
-          <t>0.132</t>
-        </is>
-      </c>
-      <c r="P17" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q17" s="63" t="inlineStr"/>
-      <c r="R17" s="63" t="inlineStr">
+      <c r="N17" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '2433d1ecf7322c68c0aa6b82a994733a'}</t>
+        </is>
+      </c>
+      <c r="O17" s="64" t="inlineStr">
+        <is>
+          <t>0.167</t>
+        </is>
+      </c>
+      <c r="P17" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q17" s="62" t="inlineStr"/>
+      <c r="R17" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2163,23 +2167,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N18" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '2e2a6cce2982a73016839d153917d384'}</t>
-        </is>
-      </c>
-      <c r="O18" s="65" t="inlineStr">
-        <is>
-          <t>0.114</t>
-        </is>
-      </c>
-      <c r="P18" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q18" s="63" t="inlineStr"/>
-      <c r="R18" s="63" t="inlineStr">
+      <c r="N18" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': 'ce5f7ef12d01cb28859aee04f7f95228'}</t>
+        </is>
+      </c>
+      <c r="O18" s="64" t="inlineStr">
+        <is>
+          <t>0.112</t>
+        </is>
+      </c>
+      <c r="P18" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q18" s="62" t="inlineStr"/>
+      <c r="R18" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2239,23 +2243,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N19" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '2f68df7122fcce7c63383a07d6fb0cf1'}</t>
-        </is>
-      </c>
-      <c r="O19" s="65" t="inlineStr">
-        <is>
-          <t>0.108</t>
-        </is>
-      </c>
-      <c r="P19" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q19" s="63" t="inlineStr"/>
-      <c r="R19" s="63" t="inlineStr">
+      <c r="N19" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '41a526aaef78547989d1673c512c486d'}</t>
+        </is>
+      </c>
+      <c r="O19" s="64" t="inlineStr">
+        <is>
+          <t>0.275</t>
+        </is>
+      </c>
+      <c r="P19" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q19" s="62" t="inlineStr"/>
+      <c r="R19" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2311,23 +2315,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N20" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': [{'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607327895', 'pay_time': '1607327895', 'order_time': '1607327895', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '1', 'discount': 99, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012078955967413', 'master_order_code': '16202012078955967413', 'order_id': '8342744', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012078955967413&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '1', 'goods_number': '0.19', 'market_price': '19000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '2005', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '8343407', 'order_id': '8342744', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '2005', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.19', 'market_price': '19000', 'goods_price': '19000', 'actual_price': '19000', 'contract_price': '19000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '2945', 'gun_name': '', 'gun_number': '1', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607327890', 'pay_time': '1607327890', 'order_time': '1607327890', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['客户IC卡'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '200', 'order_amount': '200', 'pay_money': '1', 'discount': 199, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012078907964744', 'master_order_code': '16202012078907964744', 'order_id': '8342742', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012078907964744&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '1', 'goods_number': '0.38', 'market_price': '19000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '2005', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '8343405', 'order_id': '8342742', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '2005', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.38', 'market_price': '19000', 'goods_price': '19000', 'actual_price': '19000', 'contract_price': '19000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '200', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '2945', 'gun_name': '', 'gun_number': '1', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607327888', 'pay_time': '1607327888', 'order_time': '1607327888', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['挂账'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '300', 'order_amount': '300', 'pay_money': '1', 'discount': 299, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012078888144104', 'master_order_code': '16202012078888144104', 'order_id': '8342741', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012078888144104&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '1', 'goods_number': '0.58', 'market_price': '19000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '2005', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '8343404', 'order_id': '8342741', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '2005', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.58', 'market_price': '19000', 'goods_price': '19000', 'actual_price': '19000', 'contract_price': '19000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '300', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '2945', 'gun_name': '', 'gun_number': '1', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607327886', 'pay_time': '1607327886', 'order_time': '1607327886', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['滴滴加油'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '400', 'order_amount': '400', 'pay_money': '1', 'discount': 399, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012078868413268', 'master_order_code': '16202012078868413268', 'order_id': '8342740', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012078868413268&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '1', 'goods_number': '0.77', 'market_price': '19000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '2005', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '8343403', 'order_id': '8342740', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '2005', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.77', 'market_price': '19000', 'goods_price': '19000', 'actual_price': '19000', 'contract_price': '19000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '400', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '2945', 'gun_name': '', 'gun_number': '1', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607327884', 'pay_time': '1607327884', 'order_time': '1607327884', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['货车帮'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '500', 'order_amount': '500', 'pay_money': '1', 'discount': 499, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012078846968696', 'master_order_code': '16202012078846968696', 'order_id': '8342739', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012078846968696&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '1', 'goods_number': '0.96', 'market_price': '19000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '2005', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '8343402', 'order_id': '8342739', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '2005', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.96', 'market_price': '19000', 'goods_price': '19000', 'actual_price': '19000', 'contract_price': '19000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '500', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '2945', 'gun_name': '', 'gun_number': '1', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607327882', 'pay_time': '1607327882', 'order_time': '1607327882', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['第三方银联'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '1100', 'order_amount': '1100', 'pay_money': '1', 'discount': 1099, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012078826546907', 'master_order_code': '16202012078826546907', 'order_id': '8342738', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012078826546907&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '1', 'goods_number': '2.11', 'market_price': '19000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '2005', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '8343401', 'order_id': '8342738', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '2005', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '2.11', 'market_price': '19000', 'goods_price': '19000', 'actual_price': '19000', 'contract_price': '19000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '1100', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '2945', 'gun_name': '', 'gun_number': '1', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607327880', 'pay_time': '1607327880', 'order_time': '1607327880', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '1', 'discount': 99, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012078805495865', 'master_order_code': '16202012078805495865', 'order_id': '8342737', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012078805495865&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '1', 'goods_number': '0.19', 'market_price': '19000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '2005', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '8343400', 'order_id': '8342737', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '2005', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.19', 'market_price': '19000', 'goods_price': '19000', 'actual_price': '19000', 'contract_price': '19000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '2945', 'gun_name': '', 'gun_number': '1', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607326658', 'pay_time': '1607326658', 'order_time': '1607326658', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '4113', 'order_amount': '4113', 'pay_money': '1', 'discount': 4112, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012076581622331', 'master_order_code': '16202012076581622331', 'order_id': '8342726', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012076581622331&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '8', 'goods_number': '7.90', 'market_price': '39000', 'energy_number': '97', 'goods_name': '97#车用汽油', 'goods_id': '2002', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '8343389', 'order_id': '8342726', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '2002', 'goods_name': '97#车用汽油', 'goods_sn': '', 'goods_number': '7.90', 'market_price': '39000', 'goods_price': '39000', 'actual_price': '39000', 'contract_price': '39000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '4113', 'is_gift': '0', 'energy_number': '97', 'energy_type': '1', 'gun_id': '302', 'gun_name': '', 'gun_number': '8', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607326609', 'pay_time': '1607326609', 'order_time': '1607326609', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '7113', 'order_amount': '7113', 'pay_money': '1', 'discount': 7112, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012076094254113', 'master_order_code': '16202012076094254113', 'order_id': '8342725', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012076094254113&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '14', 'goods_number': '13.67', 'market_price': '34500', 'energy_number': 'CNG', 'goods_name': 'CNG', 'goods_id': '2026', 'goods_type': '10', 'category_id': '3', 'car_no': '', 'items': [{'item_id': '8343388', 'order_id': '8342725', 'goods_type': '10', 'category_id': '3', 'product_id': '0', 'goods_id': '2026', 'goods_name': 'CNG', 'goods_sn': '', 'goods_number': '13.67', 'market_price': '34500', 'goods_price': '34500', 'actual_price': '34500', 'contract_price': '34500', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '7113', 'is_gift': '0', 'energy_number': 'CNG', 'energy_type': '3', 'gun_id': '2952', 'gun_name': '', 'gun_number': '14', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607326535', 'pay_time': '1607326535', 'order_time': '1607326535', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['货车帮'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '29265', 'order_amount': '29265', 'pay_money': '1', 'discount': 29264, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012075354158587', 'master_order_code': '16202012075354158587', 'order_id': '8342723', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012075354158587&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '13', 'goods_number': '56.27', 'market_price': '19000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '2005', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '8343386', 'order_id': '8342723', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '2005', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '56.27', 'market_price': '19000', 'goods_price': '19000', 'actual_price': '19000', 'contract_price': '19000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '29265', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '2951', 'gun_name': '', 'gun_number': '13', 'car_no': ''}]}], 'request_id': 'c6ec76661649acc14a605a37f22f621b'}</t>
-        </is>
-      </c>
-      <c r="O20" s="65" t="inlineStr">
-        <is>
-          <t>0.477</t>
-        </is>
-      </c>
-      <c r="P20" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q20" s="63" t="inlineStr"/>
-      <c r="R20" s="63" t="inlineStr">
+      <c r="N20" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': [{'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607406340', 'pay_time': '1607406340', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '31548', 'order_amount': '31548', 'pay_money': '1', 'discount': 31547, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012083400375227', 'master_order_code': '16202012083400375227', 'order_id': '8343872', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012083400375227&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '11', 'goods_number': '60.66', 'market_price': '45800', 'energy_number': '1', 'goods_name': '0#车用柴油', 'goods_id': '1402', 'goods_type': '10', 'category_id': '2', 'car_no': '', 'items': [{'item_id': '8344535', 'order_id': '8343872', 'goods_type': '10', 'category_id': '2', 'product_id': '0', 'goods_id': '1402', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '60.66', 'market_price': '45800', 'goods_price': '45800', 'actual_price': '45800', 'contract_price': '45800', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '31548', 'is_gift': '0', 'energy_number': '1', 'energy_type': '2', 'gun_id': '2950', 'gun_name': '', 'gun_number': '11', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607406334', 'pay_time': '1607406334', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['客户IC卡'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '23795', 'order_amount': '23795', 'pay_money': '1', 'discount': 23794, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012083345936253', 'master_order_code': '16202012083345936253', 'order_id': '8343870', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012083345936253&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '16', 'goods_number': '45.75', 'market_price': '53500', 'energy_number': 'LNG', 'goods_name': 'LNG', 'goods_id': '2025', 'goods_type': '10', 'category_id': '6', 'car_no': '', 'items': [{'item_id': '8344533', 'order_id': '8343870', 'goods_type': '10', 'category_id': '6', 'product_id': '0', 'goods_id': '2025', 'goods_name': 'LNG', 'goods_sn': '', 'goods_number': '45.75', 'market_price': '53500', 'goods_price': '53500', 'actual_price': '53500', 'contract_price': '53500', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '23795', 'is_gift': '0', 'energy_number': 'LNG', 'energy_type': '6', 'gun_id': '2955', 'gun_name': '', 'gun_number': '16', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607406332', 'pay_time': '1607406332', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['挂账'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '7264', 'order_amount': '7264', 'pay_money': '1', 'discount': 7263, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012083325214410', 'master_order_code': '16202012083325214410', 'order_id': '8343869', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012083325214410&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '8', 'goods_number': '13.96', 'market_price': '39000', 'energy_number': '97', 'goods_name': '97#车用汽油', 'goods_id': '2002', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '8344532', 'order_id': '8343869', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '2002', 'goods_name': '97#车用汽油', 'goods_sn': '', 'goods_number': '13.96', 'market_price': '39000', 'goods_price': '39000', 'actual_price': '39000', 'contract_price': '39000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '7264', 'is_gift': '0', 'energy_number': '97', 'energy_type': '1', 'gun_id': '302', 'gun_name': '', 'gun_number': '8', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607406330', 'pay_time': '1607406330', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['滴滴加油'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '14924', 'order_amount': '14924', 'pay_money': '1', 'discount': 14923, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012083302491428', 'master_order_code': '16202012083302491428', 'order_id': '8343868', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012083302491428&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '14', 'goods_number': '28.70', 'market_price': '34500', 'energy_number': 'CNG', 'goods_name': 'CNG', 'goods_id': '2026', 'goods_type': '10', 'category_id': '3', 'car_no': '', 'items': [{'item_id': '8344531', 'order_id': '8343868', 'goods_type': '10', 'category_id': '3', 'product_id': '0', 'goods_id': '2026', 'goods_name': 'CNG', 'goods_sn': '', 'goods_number': '28.70', 'market_price': '34500', 'goods_price': '34500', 'actual_price': '34500', 'contract_price': '34500', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '14924', 'is_gift': '0', 'energy_number': 'CNG', 'energy_type': '3', 'gun_id': '2952', 'gun_name': '', 'gun_number': '14', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607406328', 'pay_time': '1607406328', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['货车帮'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '13234', 'order_amount': '13234', 'pay_money': '1', 'discount': 13233, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012083282525905', 'master_order_code': '16202012083282525905', 'order_id': '8343867', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012083282525905&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '3', 'goods_number': '25.45', 'market_price': '29000', 'energy_number': '-50', 'goods_name': '-50#车用柴油', 'goods_id': '1406', 'goods_type': '10', 'category_id': '2', 'car_no': '', 'items': [{'item_id': '8344530', 'order_id': '8343867', 'goods_type': '10', 'category_id': '2', 'product_id': '0', 'goods_id': '1406', 'goods_name': '-50#车用柴油', 'goods_sn': '', 'goods_number': '25.45', 'market_price': '29000', 'goods_price': '29000', 'actual_price': '29000', 'contract_price': '29000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '13234', 'is_gift': '0', 'energy_number': '-50', 'energy_type': '2', 'gun_id': '2947', 'gun_name': '', 'gun_number': '3', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607406326', 'pay_time': '1607406326', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['第三方银联'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '7768', 'order_amount': '7768', 'pay_money': '1', 'discount': 7767, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012083262281469', 'master_order_code': '16202012083262281469', 'order_id': '8343866', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012083262281469&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '5', 'goods_number': '14.93', 'market_price': '33200', 'energy_number': '92', 'goods_name': '92#车用汽油', 'goods_id': '2003', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '8344529', 'order_id': '8343866', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '2003', 'goods_name': '92#车用汽油', 'goods_sn': '', 'goods_number': '14.93', 'market_price': '33200', 'goods_price': '33200', 'actual_price': '33200', 'contract_price': '33200', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '7768', 'is_gift': '0', 'energy_number': '92', 'energy_type': '1', 'gun_id': '299', 'gun_name': '', 'gun_number': '5', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607406324', 'pay_time': '1607406324', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '16556', 'order_amount': '16556', 'pay_money': '1', 'discount': 16555, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012083242601405', 'master_order_code': '16202012083242601405', 'order_id': '8343865', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012083242601405&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '15', 'goods_number': '31.83', 'market_price': '20000', 'energy_number': '10', 'goods_name': '10#车用柴油', 'goods_id': '1601', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '8344528', 'order_id': '8343865', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '1601', 'goods_name': '10#车用柴油', 'goods_sn': '', 'goods_number': '31.83', 'market_price': '20000', 'goods_price': '20000', 'actual_price': '20000', 'contract_price': '20000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '16556', 'is_gift': '0', 'energy_number': '10', 'energy_type': '1', 'gun_id': '2986', 'gun_name': '', 'gun_number': '15', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607396053', 'pay_time': '1607396053', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['货车帮'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '18621', 'order_amount': '18621', 'pay_money': '1', 'discount': 18620, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012080534626314', 'master_order_code': '16202012080534626314', 'order_id': '8343846', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012080534626314&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '6', 'goods_number': '35.80', 'market_price': '33200', 'energy_number': '92', 'goods_name': '92#车用汽油', 'goods_id': '2003', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '8344509', 'order_id': '8343846', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '2003', 'goods_name': '92#车用汽油', 'goods_sn': '', 'goods_number': '35.80', 'market_price': '33200', 'goods_price': '33200', 'actual_price': '33200', 'contract_price': '33200', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '18621', 'is_gift': '0', 'energy_number': '92', 'energy_type': '1', 'gun_id': '2965', 'gun_name': '', 'gun_number': '6', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607396043', 'pay_time': '1607396043', 'order_time': '1607395827', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '1100', 'order_amount': '1100', 'pay_money': '1', 'discount': 1099, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012080435303796', 'master_order_code': '16202012080435303796', 'order_id': '8343843', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012080435303796&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '2', 'goods_number': '2.12', 'market_price': '45800', 'energy_number': '1', 'goods_name': '0#车用柴油', 'goods_id': '1402', 'goods_type': '10', 'category_id': '2', 'car_no': '', 'items': [{'item_id': '8344506', 'order_id': '8343843', 'goods_type': '10', 'category_id': '2', 'product_id': '0', 'goods_id': '1402', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '2.12', 'market_price': '45800', 'goods_price': '45800', 'actual_price': '45800', 'contract_price': '45800', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '1100', 'is_gift': '0', 'energy_number': '1', 'energy_type': '2', 'gun_id': '2946', 'gun_name': '', 'gun_number': '2', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607396039', 'pay_time': '1607396039', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['客户IC卡'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '2200', 'order_amount': '2200', 'pay_money': '1', 'discount': 2199, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012080392306141', 'master_order_code': '16202012080392306141', 'order_id': '8343841', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012080392306141&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '2', 'goods_number': '4.23', 'market_price': '45800', 'energy_number': '1', 'goods_name': '0#车用柴油', 'goods_id': '1402', 'goods_type': '10', 'category_id': '2', 'car_no': '', 'items': [{'item_id': '8344504', 'order_id': '8343841', 'goods_type': '10', 'category_id': '2', 'product_id': '0', 'goods_id': '1402', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '4.23', 'market_price': '45800', 'goods_price': '45800', 'actual_price': '45800', 'contract_price': '45800', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '2200', 'is_gift': '0', 'energy_number': '1', 'energy_type': '2', 'gun_id': '2946', 'gun_name': '', 'gun_number': '2', 'car_no': ''}]}], 'request_id': '95f0da81687748f02e490201873e3f4f'}</t>
+        </is>
+      </c>
+      <c r="O20" s="64" t="inlineStr">
+        <is>
+          <t>0.696</t>
+        </is>
+      </c>
+      <c r="P20" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q20" s="62" t="inlineStr"/>
+      <c r="R20" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2387,23 +2391,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N21" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': {'order_id': '8342744', 'order_type': '16', 'order_code': '16202012078955967413', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '3020', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '100', 'order_amount': '100', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '99', 'remark': '', 'has_refund': '1', 'refund_fee': '1', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607327895', 'cancel_time': '0', 'refund_time': '1607327898', 'update_time': '1607327898', 'create_time': '1607327895', 'recommand_id': 0, 'items': [{'item_id': '8343407', 'order_id': '8342744', 'goods_type': '10', 'category_id': '1', 'goods_id': '2005', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.190000', 'market_price': '19000', 'goods_price': '19000', 'actual_price': '19000', 'contract_price': '19000', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '2945', 'gun_number': '1', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8188193'}], 'payment_info': [{'id': '8010167', 'order_id': '8010167', 'order_code': '16202012078955967413', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012078955967413', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607327895', 'notify_time': '1607327895', 'platform': '4100', 'other': ''}], 'refund_info': [{'refund_id': '3289', 'refund_type': '11', 'refund_no': '11202012078987996788', 'out_refund_no': '', 'refund_fee': '1', 'reason': '双屏机接口冒烟测试-退款', 'remark': 'TestAuto双屏机申请退款', 'refund_status': '16', 'platform': '0', 'operator_name': 'TestAuto', 'update_time': '1607327898', 'create_time': '1607327898'}]}, 'request_id': '12a2ee9b76659eeff61587984040b786'}</t>
-        </is>
-      </c>
-      <c r="O21" s="65" t="inlineStr">
-        <is>
-          <t>0.429</t>
-        </is>
-      </c>
-      <c r="P21" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q21" s="63" t="inlineStr"/>
-      <c r="R21" s="63" t="inlineStr">
+      <c r="N21" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': {'order_id': '8343872', 'order_type': '16', 'order_code': '16202012083400375227', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '3020', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '31548', 'order_amount': '31548', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '31547', 'remark': '', 'has_refund': '1', 'refund_fee': '1', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406340', 'cancel_time': '0', 'refund_time': '1607406343', 'update_time': '1607406343', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344535', 'order_id': '8343872', 'goods_type': '10', 'category_id': '2', 'goods_id': '1402', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '60.660000', 'market_price': '45800', 'goods_price': '45800', 'actual_price': '45800', 'contract_price': '45800', 'subtotal': '31548', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '2', 'energy_number': '1', 'gun_type': '0', 'gun_id': '2950', 'gun_number': '11', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189305'}], 'payment_info': [{'id': '8011287', 'order_id': '8011287', 'order_code': '16202012083400375227', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083400375227', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406340', 'notify_time': '1607406340', 'platform': '4100', 'other': ''}], 'refund_info': [{'refund_id': '3310', 'refund_type': '11', 'refund_no': '11202012083438732867', 'out_refund_no': '', 'refund_fee': '1', 'reason': '双屏机接口冒烟测试-退款', 'remark': 'TestAuto双屏机申请退款', 'refund_status': '16', 'platform': '0', 'operator_name': 'TestAuto', 'update_time': '1607406343', 'create_time': '1607406343'}]}, 'request_id': '8cbd9aef024b6ea2b03a600ea6d219d8'}</t>
+        </is>
+      </c>
+      <c r="O21" s="64" t="inlineStr">
+        <is>
+          <t>0.384</t>
+        </is>
+      </c>
+      <c r="P21" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q21" s="62" t="inlineStr"/>
+      <c r="R21" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2458,23 +2462,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N22" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'password': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'bind_uid': '67605', 'email': '', 'card_id': '0', 'user_auth_id': '67094', 'auth_type_id': '2', 'app_id': 'wx73a8de5287159207', 'open_id': 'oW7by5LziMh21Uh0cDkM2HmTB8qI', 'master_id': 'ooSm91UB61zF7aMrm5Y-5L26EwVA', 'vip_info': {'id': '15122', 'uid': '67611', 'level_id': '1', 'type': '1', 'expire_time': '1609591964', 'wx_card_id': '0', 'wx_card_code': '0', 'is_active': '1', 'is_delete': '0', 'create_time': '2020-12-03 20:52:44', 'station_id': '0', 'appid': 'wx73a8de5287159207', 'merchant_id': '1', 'merchant_type': '1003', 'source': '6', 'is_first': '0', 'update_date': '2020-12-03 20:52:44', 'is_bind': '1', 'min_growth_value': '0', 'max_growth_value': '249', 'level_name': '铜卡会员', 'discount': {'400': 0.2, '401': 0.2, '402': 0.2, '403': 0.2, '1401': 0.2, '1402': 0.2, '1403': 0.2, '1404': 0.2, '1405': 0.2, '1406': 0.2, '1444': 0.2, '1501': 0.2, '1502': 0.2, '1503': 0.2, '1504': 0.2, '1505': 0.2, '1506': 0.2, '1601': 0.2, '1602': 0.2, '1603': 0.2, '1604': 0.2, '1605': 0.2, '1606': 0.2, '2001': 0.2, '2002': 0.2, '2003': 0.2, '2004': 0.2, '2005': 0.2, '2006': 0.2, '2007': 0.2, '2009': 0.2, '2013': 0.2, '2022': 0.2, '2024': 0.2, '2025': 0.2, '2026': 0.2}, 'growth_value': '0', 'real_level_id': '20001', 'discount_type': 1}, 'point_info': {'user_id': 67611, 'merchant_id': 10001, 'merchant_type': 1001, 'remain_points': 0, 'issue_points': 0, 'consume_points': 0}, 'car': None, 'card_password': True, 'bind_nl_user': {'user_id': '67605', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'password': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'bind_uid': '67605', 'email': '', 'card_id': '0', 'user_auth_id': '67088', 'auth_type_id': '4', 'app_id': 'fb1de4489b67b8cb', 'open_id': '', 'master_id': ''}, 'bind_ali_user': None}, 'request_id': 'cbd17c8a8e3d77ba28d991fe8628e622'}</t>
-        </is>
-      </c>
-      <c r="O22" s="65" t="inlineStr">
-        <is>
-          <t>0.299</t>
-        </is>
-      </c>
-      <c r="P22" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q22" s="63" t="inlineStr"/>
-      <c r="R22" s="63" t="inlineStr">
+      <c r="N22" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'password': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'bind_uid': '67605', 'email': '', 'card_id': '0', 'user_auth_id': '67094', 'auth_type_id': '2', 'app_id': 'wx73a8de5287159207', 'open_id': 'oW7by5LziMh21Uh0cDkM2HmTB8qI', 'master_id': 'ooSm91UB61zF7aMrm5Y-5L26EwVA', 'vip_info': {'id': '15122', 'uid': '67611', 'level_id': '1', 'type': '1', 'expire_time': '1609591964', 'wx_card_id': '0', 'wx_card_code': '0', 'is_active': '1', 'is_delete': '0', 'create_time': '2020-12-03 20:52:44', 'station_id': '0', 'appid': 'wx73a8de5287159207', 'merchant_id': '1', 'merchant_type': '1003', 'source': '6', 'is_first': '0', 'update_date': '2020-12-03 20:52:44', 'is_bind': '1', 'min_growth_value': '0', 'max_growth_value': '249', 'level_name': '铜卡会员', 'discount': {'400': 0.2, '401': 0.2, '402': 0.2, '403': 0.2, '1401': 0.2, '1402': 0.2, '1403': 0.2, '1404': 0.2, '1405': 0.2, '1406': 0.2, '1444': 0.2, '1501': 0.2, '1502': 0.2, '1503': 0.2, '1504': 0.2, '1505': 0.2, '1506': 0.2, '1601': 0.2, '1602': 0.2, '1603': 0.2, '1604': 0.2, '1605': 0.2, '1606': 0.2, '2001': 0.2, '2002': 0.2, '2003': 0.2, '2004': 0.2, '2005': 0.2, '2006': 0.2, '2007': 0.2, '2009': 0.2, '2013': 0.2, '2022': 0.2, '2024': 0.2, '2025': 0.2, '2026': 0.2}, 'growth_value': '0', 'real_level_id': '20001', 'discount_type': 1}, 'point_info': {'id': '19313', 'user_id': '67611', 'merchant_id': '10001', 'remain_points': '586', 'issue_points': '586', 'consume_points': '0', 'create_time': '1607392739', 'update_time': '1607395557', 'merchant_type': '1001', 'update_date': '2020-12-08 10:45:57'}, 'car': None, 'card_password': True, 'bind_nl_user': {'user_id': '67605', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'password': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'bind_uid': '67605', 'email': '', 'card_id': '0', 'user_auth_id': '67088', 'auth_type_id': '4', 'app_id': 'fb1de4489b67b8cb', 'open_id': '', 'master_id': ''}, 'bind_ali_user': None}, 'request_id': '2c10e949d63aa21df0889e817dbbb730'}</t>
+        </is>
+      </c>
+      <c r="O22" s="64" t="inlineStr">
+        <is>
+          <t>0.288</t>
+        </is>
+      </c>
+      <c r="P22" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q22" s="62" t="inlineStr"/>
+      <c r="R22" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2530,23 +2534,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N23" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': [{'id': '510', 'merchant_type': '1001', 'merchant_id': '10001', 'name': 'pos云端看', 'type': 3, 'card_type': '1', 'style_type': '3', 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '2025', 'energy_number': 'LNG'}, {'energy_id': '2026', 'energy_number': 'CNG'}, {'energy_id': '2013', 'energy_number': '99'}, {'energy_id': '2005', 'energy_number': '98'}, {'energy_id': '2002', 'energy_number': '97'}, {'energy_id': '2004', 'energy_number': '95'}, {'energy_id': '2007', 'energy_number': '95'}, {'energy_id': '2001', 'energy_number': '93'}, {'energy_id': '2003', 'energy_number': '92'}, {'energy_id': '2022', 'energy_number': '12'}, {'energy_id': '1601', 'energy_number': '10'}, {'energy_id': '1402', 'energy_number': '1'}, {'energy_id': '1502', 'energy_number': '0'}, {'energy_id': '1602', 'energy_number': '0'}, {'energy_id': '1606', 'energy_number': '-50'}, {'energy_id': '1406', 'energy_number': '-50'}, {'energy_id': '1506', 'energy_number': '-50'}, {'energy_id': '1405', 'energy_number': '-35'}, {'energy_id': '1505', 'energy_number': '-35'}, {'energy_id': '1605', 'energy_number': '-35'}, {'energy_id': '1404', 'energy_number': '-20'}, {'energy_id': '1504', 'energy_number': '-20'}, {'energy_id': '1604', 'energy_number': '-20'}, {'energy_id': '1503', 'energy_number': '-10'}, {'energy_id': '1603', 'energy_number': '-10'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '1000', 'min': '100'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '100', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '300', 'discount': '3', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '500', 'discount': '5', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1603072743', 'update_time': '1606821455', 'status': '0', 'is_del': '0', 'update_date': '2020-11-25 09:58:07', 'customer_id': '0', 'type_name': '混合卡', 'user_card': {'id': '1820', 'card_id': '510', 'code': '2012039041212556', 'user_id': '67605', 'union_id': '', 'left_amount': 500, 'gift_amount': 15, 'create_time': '1606990412', 'update_time': '1607326533', 'status': '0', 'cancel_account_by': '0', 'cancel_account_time': '0', 'is_del': '0', 'update_date': '2020-12-07 15:35:39', 'balance_type': '0', 'amount': 0, 'quota': 0, 'mount': 0, 'cars': []}, 'merchant_ids': ['10001'], 'self': 1}], 'request_id': '61ccafadc02ce06242c737dec59e2d1c'}</t>
-        </is>
-      </c>
-      <c r="O23" s="65" t="inlineStr">
-        <is>
-          <t>0.238</t>
-        </is>
-      </c>
-      <c r="P23" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q23" s="63" t="inlineStr"/>
-      <c r="R23" s="63" t="inlineStr">
+      <c r="N23" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': [{'id': '510', 'merchant_type': '1001', 'merchant_id': '10001', 'name': 'pos云端看', 'type': 3, 'card_type': '1', 'style_type': '3', 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '2025', 'energy_number': 'LNG'}, {'energy_id': '2026', 'energy_number': 'CNG'}, {'energy_id': '2013', 'energy_number': '99'}, {'energy_id': '2005', 'energy_number': '98'}, {'energy_id': '2002', 'energy_number': '97'}, {'energy_id': '2004', 'energy_number': '95'}, {'energy_id': '2007', 'energy_number': '95'}, {'energy_id': '2001', 'energy_number': '93'}, {'energy_id': '2003', 'energy_number': '92'}, {'energy_id': '2022', 'energy_number': '12'}, {'energy_id': '1601', 'energy_number': '10'}, {'energy_id': '1402', 'energy_number': '1'}, {'energy_id': '1502', 'energy_number': '0'}, {'energy_id': '1602', 'energy_number': '0'}, {'energy_id': '1606', 'energy_number': '-50'}, {'energy_id': '1406', 'energy_number': '-50'}, {'energy_id': '1506', 'energy_number': '-50'}, {'energy_id': '1405', 'energy_number': '-35'}, {'energy_id': '1505', 'energy_number': '-35'}, {'energy_id': '1605', 'energy_number': '-35'}, {'energy_id': '1404', 'energy_number': '-20'}, {'energy_id': '1504', 'energy_number': '-20'}, {'energy_id': '1604', 'energy_number': '-20'}, {'energy_id': '1503', 'energy_number': '-10'}, {'energy_id': '1603', 'energy_number': '-10'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '1000', 'min': '100'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '100', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '300', 'discount': '3', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '500', 'discount': '5', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1603072743', 'update_time': '1606821455', 'status': '0', 'is_del': '0', 'update_date': '2020-11-25 09:58:07', 'customer_id': '0', 'type_name': '混合卡', 'user_card': {'id': '1820', 'card_id': '510', 'code': '2012039041212556', 'user_id': '67605', 'union_id': '', 'left_amount': 500, 'gift_amount': 15, 'create_time': '1606990412', 'update_time': '1607396051', 'status': '0', 'cancel_account_by': '0', 'cancel_account_time': '0', 'is_del': '0', 'update_date': '2020-12-08 10:54:17', 'balance_type': '0', 'amount': 0, 'quota': 0, 'mount': 0, 'cars': []}, 'merchant_ids': ['10001'], 'self': 1}], 'request_id': '5f0afc21c425dfd2eef6c0d7d135dd89'}</t>
+        </is>
+      </c>
+      <c r="O23" s="64" t="inlineStr">
+        <is>
+          <t>0.211</t>
+        </is>
+      </c>
+      <c r="P23" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q23" s="62" t="inlineStr"/>
+      <c r="R23" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2602,23 +2606,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N24" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': '操作成功', 'reason': '', 'data': {'order_type': 50, 'order_code': '50202012079010629932', 'order_code_reversal': '23992601097021020205', 'is_master': 1, 'suborder_num': 0, 'is_suborder': 1, 'related_order': '', 'user_id': 67611, 'mobile': '15672655599', 'company_id': 0, 'merchant_type': 1001, 'merchant_id': 10001, 'user_level_id': 0, 'user_level_type': 0, 'user_level_name': '', 'user_identity_type': 0, 'user_identity_id': 0, 'invoice_title': '', 'order_status': 1010, 'cancel_status': 0, 'pay_status': 1, 'shipping_status': 0, 'goods_amount': 51500, 'order_amount': 51500, 'pay_money': 0, 'balance': 0, 'credit': 0, 'credit_fee': 0, 'coupon_fee': 0, 'platform_coupon_fee': 0, 'bonus_fee': 0, 'discount': 1500, 'surplus': 50000, 'remark': '加油卡充值', 'has_refund': 0, 'refund_fee': 0, 'pay_time': 1607327901, 'platform': 4100, 'admin_id': 0, 'update_time': 1607327901, 'create_time': 1607327901, 'order_id': '8342746', 'items': [{'goods_type': 50, 'goods_id': 0, 'category_id': 50, 'goods_name': '加油卡充值', 'goods_number': 1, 'market_price': 51500, 'goods_price': '50000'}]}}</t>
-        </is>
-      </c>
-      <c r="O24" s="65" t="inlineStr">
-        <is>
-          <t>0.529</t>
-        </is>
-      </c>
-      <c r="P24" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q24" s="63" t="inlineStr"/>
-      <c r="R24" s="63" t="inlineStr">
+      <c r="N24" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': '操作成功', 'reason': '', 'data': {'order_type': 50, 'order_code': '50202012083461814345', 'order_code_reversal': '54341816438021020205', 'is_master': 1, 'suborder_num': 0, 'is_suborder': 1, 'related_order': '', 'user_id': 67611, 'mobile': '15672655599', 'company_id': 0, 'merchant_type': 1001, 'merchant_id': 10001, 'user_level_id': 0, 'user_level_type': 0, 'user_level_name': '', 'user_identity_type': 0, 'user_identity_id': 0, 'invoice_title': '', 'order_status': 1010, 'cancel_status': 0, 'pay_status': 1, 'shipping_status': 0, 'goods_amount': 51500, 'order_amount': 51500, 'pay_money': 0, 'balance': 0, 'credit': 0, 'credit_fee': 0, 'coupon_fee': 0, 'platform_coupon_fee': 0, 'bonus_fee': 0, 'discount': 1500, 'surplus': 50000, 'remark': '加油卡充值', 'has_refund': 0, 'refund_fee': 0, 'pay_time': 1607406346, 'platform': 4100, 'admin_id': 0, 'update_time': 1607406346, 'create_time': 1607406346, 'order_id': '8343873', 'items': [{'goods_type': 50, 'goods_id': 0, 'category_id': 50, 'goods_name': '加油卡充值', 'goods_number': 1, 'market_price': 51500, 'goods_price': '50000'}]}}</t>
+        </is>
+      </c>
+      <c r="O24" s="64" t="inlineStr">
+        <is>
+          <t>0.511</t>
+        </is>
+      </c>
+      <c r="P24" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q24" s="62" t="inlineStr"/>
+      <c r="R24" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2674,23 +2678,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N25" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8342746', 'order_type': '50', 'order_code': '50202012079010629932', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '67611', 'mobile': '15672655599', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '1500', 'remark': '加油卡充值', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607327901', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607327902', 'create_time': '1607327901', 'recommand_id': 0, 'items': [{'item_id': '8343409', 'order_id': '8342746', 'goods_type': '50', 'category_id': '50', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'subtotal': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0'}], 'payment_info': [{'id': '8010169', 'order_id': '8010169', 'order_code': '50202012079010629932', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '50202012079010629932', 'out_trade_no': '', 'total_fee': '50000', 'pay_fee': '50000', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607327901', 'notify_time': '1607327901', 'platform': '4100', 'other': ''}]}], 'request_id': 'a67e3f973e2c8554c0b33f3f08aec5e4'}</t>
+      <c r="N25" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343873', 'order_type': '50', 'order_code': '50202012083461814345', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '67611', 'mobile': '15672655599', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '1500', 'remark': '加油卡充值', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406347', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406347', 'create_time': '1607406346', 'recommand_id': 0, 'items': [{'item_id': '8344536', 'order_id': '8343873', 'goods_type': '50', 'category_id': '50', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'subtotal': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0'}], 'payment_info': [{'id': '8011288', 'order_id': '8011288', 'order_code': '50202012083461814345', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '50202012083461814345', 'out_trade_no': '', 'total_fee': '50000', 'pay_fee': '50000', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406347', 'notify_time': '1607406347', 'platform': '4100', 'other': ''}]}], 'request_id': '3c4f50b287754c3afb49b52bf11a4b9a'}</t>
         </is>
       </c>
       <c r="O25" s="65" t="inlineStr">
         <is>
-          <t>0.854</t>
-        </is>
-      </c>
-      <c r="P25" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q25" s="63" t="inlineStr"/>
-      <c r="R25" s="63" t="inlineStr">
+          <t>1.184</t>
+        </is>
+      </c>
+      <c r="P25" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q25" s="62" t="inlineStr"/>
+      <c r="R25" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2750,23 +2754,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N26" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8342747', 'order_type': '16', 'order_code': '16202012079030986506', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '100', 'order_amount': '100', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '99', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607327903', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607327903', 'create_time': '1607327903', 'recommand_id': 0, 'items': [{'item_id': '8343410', 'order_id': '8342747', 'goods_type': '10', 'category_id': '1', 'goods_id': '2005', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.190000', 'market_price': '19000', 'goods_price': '19000', 'actual_price': '19000', 'contract_price': '19000', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '2945', 'gun_number': '1', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8188195'}], 'payment_info': [{'id': '8010170', 'order_id': '8010170', 'order_code': '16202012079030986506', 'payment_id': '41', 'channel_id': '41', 'card_type': '0', 'card_number': '', 'trade_no': '16202012079030986506', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607327903', 'notify_time': '1607327903', 'platform': '4100', 'other': ''}]}], 'request_id': '39d173d961add0b9b7b0d5421af2e3ba'}</t>
-        </is>
-      </c>
-      <c r="O26" s="65" t="inlineStr">
-        <is>
-          <t>0.638</t>
-        </is>
-      </c>
-      <c r="P26" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q26" s="63" t="inlineStr"/>
-      <c r="R26" s="63" t="inlineStr">
+      <c r="N26" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343874', 'order_type': '16', 'order_code': '16202012083485961264', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '31548', 'order_amount': '31548', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '31547', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406348', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406348', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344537', 'order_id': '8343874', 'goods_type': '10', 'category_id': '2', 'goods_id': '1402', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '60.660000', 'market_price': '45800', 'goods_price': '45800', 'actual_price': '45800', 'contract_price': '45800', 'subtotal': '31548', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '2', 'energy_number': '1', 'gun_type': '0', 'gun_id': '2950', 'gun_number': '11', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189306'}], 'payment_info': [{'id': '8011289', 'order_id': '8011289', 'order_code': '16202012083485961264', 'payment_id': '41', 'channel_id': '41', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083485961264', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406348', 'notify_time': '1607406348', 'platform': '4100', 'other': ''}]}], 'request_id': '09e5ca4ba42faf5084eba29c3b2c6fa4'}</t>
+        </is>
+      </c>
+      <c r="O26" s="64" t="inlineStr">
+        <is>
+          <t>0.580</t>
+        </is>
+      </c>
+      <c r="P26" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q26" s="62" t="inlineStr"/>
+      <c r="R26" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2822,23 +2826,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N27" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': [{'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607327901', 'pay_time': '1607327901', 'order_time': '1607327901', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '50202012079010629932', 'master_order_code': '50202012079010629932', 'order_id': '8342746', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012079010629932&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8343409', 'order_id': '8342746', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607326533', 'pay_time': '1607326533', 'order_time': '1607326532', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012075329864923', 'master_order_code': '50202012075329864923', 'order_id': '8342722', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012075329864923&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8343385', 'order_id': '8342722', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607326449', 'pay_time': '1607326449', 'order_time': '1607326448', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012074486064180', 'master_order_code': '50202012074486064180', 'order_id': '8342713', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012074486064180&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8343376', 'order_id': '8342713', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607326202', 'pay_time': '1607326202', 'order_time': '1607326201', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012072016002933', 'master_order_code': '50202012072016002933', 'order_id': '8342701', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012072016002933&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8343364', 'order_id': '8342701', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607325950', 'pay_time': '1607325950', 'order_time': '1607325949', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012079497733082', 'master_order_code': '50202012079497733082', 'order_id': '8342687', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012079497733082&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8343350', 'order_id': '8342687', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607325526', 'pay_time': '1607325526', 'order_time': '1607325525', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012075250546544', 'master_order_code': '50202012075250546544', 'order_id': '8342672', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012075250546544&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8343335', 'order_id': '8342672', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}], 'request_id': 'b9b6992517e34e66e3aa8a4ebc08cfa3'}</t>
-        </is>
-      </c>
-      <c r="O27" s="65" t="inlineStr">
-        <is>
-          <t>0.364</t>
-        </is>
-      </c>
-      <c r="P27" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q27" s="63" t="inlineStr"/>
-      <c r="R27" s="63" t="inlineStr">
+      <c r="N27" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': [{'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607406347', 'pay_time': '1607406347', 'order_time': '1607406346', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '50202012083461814345', 'master_order_code': '50202012083461814345', 'order_id': '8343873', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012083461814345&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8344536', 'order_id': '8343873', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607396051', 'pay_time': '1607396051', 'order_time': '1607396051', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012080511033843', 'master_order_code': '50202012080511033843', 'order_id': '8343845', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012080511033843&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8344508', 'order_id': '8343845', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607394537', 'pay_time': '1607394537', 'order_time': '1607394536', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012085366141141', 'master_order_code': '50202012085366141141', 'order_id': '8343810', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012085366141141&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8344473', 'order_id': '8343810', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607393781', 'pay_time': '1607393781', 'order_time': '1607393781', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012087811294864', 'master_order_code': '50202012087811294864', 'order_id': '8343797', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012087811294864&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8344460', 'order_id': '8343797', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607393724', 'pay_time': '1607393724', 'order_time': '1607393724', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012087240565406', 'master_order_code': '50202012087240565406', 'order_id': '8343793', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012087240565406&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8344456', 'order_id': '8343793', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607393249', 'pay_time': '1607393249', 'order_time': '1607393248', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012082484875658', 'master_order_code': '50202012082484875658', 'order_id': '8343775', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012082484875658&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8344438', 'order_id': '8343775', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607393130', 'pay_time': '1607393130', 'order_time': '1607393130', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012081300557879', 'master_order_code': '50202012081300557879', 'order_id': '8343763', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012081300557879&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8344426', 'order_id': '8343763', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}], 'request_id': '11d90ee32159eb1463432e7a9f7a2580'}</t>
+        </is>
+      </c>
+      <c r="O27" s="64" t="inlineStr">
+        <is>
+          <t>0.448</t>
+        </is>
+      </c>
+      <c r="P27" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q27" s="62" t="inlineStr"/>
+      <c r="R27" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2898,23 +2902,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N28" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': {'order_id': '8342746', 'order_type': '50', 'order_code': '50202012079010629932', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '67611', 'mobile': '15672655599', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '3020', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '1500', 'remark': '加油卡充值', 'has_refund': '1', 'refund_fee': '50000', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607327901', 'cancel_time': '0', 'refund_time': '1607327907', 'update_time': '1607327907', 'create_time': '1607327901', 'recommand_id': 0, 'items': [{'item_id': '8343409', 'order_id': '8342746', 'goods_type': '50', 'category_id': '50', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'subtotal': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0'}], 'payment_info': [{'id': '8010169', 'order_id': '8010169', 'order_code': '50202012079010629932', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '50202012079010629932', 'out_trade_no': '', 'total_fee': '50000', 'pay_fee': '50000', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607327901', 'notify_time': '1607327901', 'platform': '4100', 'other': ''}], 'refund_info': [{'refund_id': '3290', 'refund_type': '11', 'refund_no': '11202012079071322538', 'out_refund_no': '', 'refund_fee': '50000', 'reason': '双屏机接口冒烟测试-退款', 'remark': 'TestAuto双屏机申请退款', 'refund_status': '16', 'platform': '0', 'operator_name': 'TestAuto', 'update_time': '1607327907', 'create_time': '1607327907'}]}, 'request_id': 'ff172aa04cc9d50746af05505fdac37f'}</t>
-        </is>
-      </c>
-      <c r="O28" s="65" t="inlineStr">
-        <is>
-          <t>0.733</t>
-        </is>
-      </c>
-      <c r="P28" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q28" s="63" t="inlineStr"/>
-      <c r="R28" s="63" t="inlineStr">
+      <c r="N28" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': {'order_id': '8343873', 'order_type': '50', 'order_code': '50202012083461814345', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '67611', 'mobile': '15672655599', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '3020', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '1500', 'remark': '加油卡充值', 'has_refund': '1', 'refund_fee': '50000', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406347', 'cancel_time': '0', 'refund_time': '1607406352', 'update_time': '1607406352', 'create_time': '1607406346', 'recommand_id': 0, 'items': [{'item_id': '8344536', 'order_id': '8343873', 'goods_type': '50', 'category_id': '50', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'subtotal': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0'}], 'payment_info': [{'id': '8011288', 'order_id': '8011288', 'order_code': '50202012083461814345', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '50202012083461814345', 'out_trade_no': '', 'total_fee': '50000', 'pay_fee': '50000', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406347', 'notify_time': '1607406347', 'platform': '4100', 'other': ''}], 'refund_info': [{'refund_id': '3311', 'refund_type': '11', 'refund_no': '11202012083525746206', 'out_refund_no': '', 'refund_fee': '50000', 'reason': '双屏机接口冒烟测试-退款', 'remark': 'TestAuto双屏机申请退款', 'refund_status': '16', 'platform': '0', 'operator_name': 'TestAuto', 'update_time': '1607406352', 'create_time': '1607406352'}]}, 'request_id': 'f0c7dc68f498850904325cc392fa3a9b'}</t>
+        </is>
+      </c>
+      <c r="O28" s="64" t="inlineStr">
+        <is>
+          <t>0.766</t>
+        </is>
+      </c>
+      <c r="P28" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q28" s="62" t="inlineStr"/>
+      <c r="R28" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2974,23 +2978,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N29" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': {'order_id': 4385}, 'request_id': 'b88061434f79a81c1627a2eefc414a0e'}</t>
-        </is>
-      </c>
-      <c r="O29" s="65" t="inlineStr">
-        <is>
-          <t>0.175</t>
-        </is>
-      </c>
-      <c r="P29" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q29" s="63" t="inlineStr"/>
-      <c r="R29" s="63" t="inlineStr">
+      <c r="N29" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': {'order_id': 5494}, 'request_id': '92938c71c202110fc9882084f55a98be'}</t>
+        </is>
+      </c>
+      <c r="O29" s="64" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="P29" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q29" s="62" t="inlineStr"/>
+      <c r="R29" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -3050,23 +3054,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N30" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': {'order_id': 4384}, 'request_id': 'dbf0ad9ed3e65b01ed4e9cc354b04716'}</t>
-        </is>
-      </c>
-      <c r="O30" s="65" t="inlineStr">
-        <is>
-          <t>0.282</t>
-        </is>
-      </c>
-      <c r="P30" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q30" s="63" t="inlineStr"/>
-      <c r="R30" s="63" t="inlineStr">
+      <c r="N30" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': {'order_id': 5493}, 'request_id': 'ee68dd3ef90ce7f90d22b3c71b2339b9'}</t>
+        </is>
+      </c>
+      <c r="O30" s="64" t="inlineStr">
+        <is>
+          <t>0.145</t>
+        </is>
+      </c>
+      <c r="P30" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q30" s="62" t="inlineStr"/>
+      <c r="R30" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -3126,23 +3130,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N31" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'Success', 'data': {'lock_status': False}, 'request_id': '4aaa764355042b1068bc6b4f606911bd'}</t>
-        </is>
-      </c>
-      <c r="O31" s="65" t="inlineStr">
-        <is>
-          <t>0.125</t>
-        </is>
-      </c>
-      <c r="P31" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q31" s="63" t="inlineStr"/>
-      <c r="R31" s="63" t="inlineStr">
+      <c r="N31" s="63" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'Success', 'data': {'lock_status': False}, 'request_id': 'e3a7cbec2ff1e32b693c2648c1b1b0a7'}</t>
+        </is>
+      </c>
+      <c r="O31" s="64" t="inlineStr">
+        <is>
+          <t>0.103</t>
+        </is>
+      </c>
+      <c r="P31" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q31" s="62" t="inlineStr"/>
+      <c r="R31" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -3198,23 +3202,23 @@
           <t>500</t>
         </is>
       </c>
-      <c r="N32" s="68" t="inlineStr">
-        <is>
-          <t>{'status': 500, 'info': '该订单正在小程序支付中，请确认后重试', 'reason': 500, 'request_id': '9c6a8c9adde069a92060c1e7648c19ea'}</t>
-        </is>
-      </c>
-      <c r="O32" s="65" t="inlineStr">
-        <is>
-          <t>0.241</t>
-        </is>
-      </c>
-      <c r="P32" s="67" t="inlineStr">
+      <c r="N32" s="67" t="inlineStr">
+        <is>
+          <t>{'status': 500, 'info': '该订单正在小程序支付中，请确认后重试', 'reason': 500, 'request_id': '82eb7bfcb78d23d8be6dad8316e1074d'}</t>
+        </is>
+      </c>
+      <c r="O32" s="64" t="inlineStr">
+        <is>
+          <t>0.086</t>
+        </is>
+      </c>
+      <c r="P32" s="66" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="Q32" s="63" t="inlineStr"/>
-      <c r="R32" s="63" t="inlineStr">
+      <c r="Q32" s="62" t="inlineStr"/>
+      <c r="R32" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -3270,23 +3274,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N33" s="64" t="inlineStr">
-        <is>
-          <t>{'info': 'Success', 'status': 200, 'data': None, 'request_id': '0aabeae5eebffb22f82bcda300373a5a'}</t>
-        </is>
-      </c>
-      <c r="O33" s="65" t="inlineStr">
-        <is>
-          <t>0.115</t>
-        </is>
-      </c>
-      <c r="P33" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q33" s="63" t="inlineStr"/>
-      <c r="R33" s="63" t="inlineStr">
+      <c r="N33" s="63" t="inlineStr">
+        <is>
+          <t>{'info': 'Success', 'status': 200, 'data': None, 'request_id': '7c31b326050980b9424d181789761118'}</t>
+        </is>
+      </c>
+      <c r="O33" s="64" t="inlineStr">
+        <is>
+          <t>0.108</t>
+        </is>
+      </c>
+      <c r="P33" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q33" s="62" t="inlineStr"/>
+      <c r="R33" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -3354,8 +3358,8 @@
     <col width="15.33203125" bestFit="1" customWidth="1" style="8" min="16" max="16"/>
     <col width="17" customWidth="1" style="8" min="17" max="17"/>
     <col width="11.83203125" customWidth="1" style="8" min="18" max="18"/>
-    <col width="10.83203125" customWidth="1" style="8" min="19" max="81"/>
-    <col width="10.83203125" customWidth="1" style="8" min="82" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="8" min="19" max="83"/>
+    <col width="10.83203125" customWidth="1" style="8" min="84" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" s="17">
@@ -3364,13 +3368,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="59" t="inlineStr">
+      <c r="B1" s="58" t="inlineStr">
         <is>
           <t>双屏机接口冒烟测试</t>
         </is>
       </c>
-      <c r="C1" s="60" t="n"/>
-      <c r="D1" s="60" t="n"/>
+      <c r="C1" s="59" t="n"/>
+      <c r="D1" s="59" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="16" t="n"/>
@@ -3392,9 +3396,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="62" t="n"/>
-      <c r="D2" s="62" t="n"/>
+      <c r="B2" s="60" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="16" t="n"/>
@@ -3821,13 +3825,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="59" t="inlineStr">
+      <c r="B1" s="58" t="inlineStr">
         <is>
           <t>POS机接口冒烟测试</t>
         </is>
       </c>
-      <c r="C1" s="60" t="n"/>
-      <c r="D1" s="60" t="n"/>
+      <c r="C1" s="59" t="n"/>
+      <c r="D1" s="59" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="16" t="n"/>
@@ -3849,9 +3853,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="62" t="n"/>
-      <c r="D2" s="62" t="n"/>
+      <c r="B2" s="60" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="16" t="n"/>
@@ -4580,8 +4584,8 @@
     <col width="15" bestFit="1" customWidth="1" style="17" min="16" max="16"/>
     <col width="10.6640625" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
     <col width="6.83203125" bestFit="1" customWidth="1" style="17" min="18" max="18"/>
-    <col width="10.83203125" customWidth="1" style="8" min="19" max="21"/>
-    <col width="10.83203125" customWidth="1" style="8" min="22" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="8" min="19" max="23"/>
+    <col width="10.83203125" customWidth="1" style="8" min="24" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" s="17">
@@ -4590,13 +4594,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="59" t="inlineStr">
+      <c r="B1" s="58" t="inlineStr">
         <is>
           <t>POS机接口冒烟测试</t>
         </is>
       </c>
-      <c r="C1" s="60" t="n"/>
-      <c r="D1" s="60" t="n"/>
+      <c r="C1" s="59" t="n"/>
+      <c r="D1" s="59" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="16" t="n"/>
@@ -4618,9 +4622,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="62" t="n"/>
-      <c r="D2" s="62" t="n"/>
+      <c r="B2" s="60" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="16" t="n"/>
@@ -4862,7 +4866,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelCol="0"/>
@@ -4884,8 +4888,8 @@
     <col width="15" bestFit="1" customWidth="1" style="17" min="16" max="16"/>
     <col width="10.6640625" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
     <col width="6.83203125" bestFit="1" customWidth="1" style="17" min="18" max="18"/>
-    <col width="10.83203125" customWidth="1" style="8" min="19" max="35"/>
-    <col width="10.83203125" customWidth="1" style="8" min="36" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="8" min="19" max="37"/>
+    <col width="10.83203125" customWidth="1" style="8" min="38" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" s="17">
@@ -4894,13 +4898,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="59" t="inlineStr">
+      <c r="B1" s="58" t="inlineStr">
         <is>
           <t>商户后台接口冒烟测试</t>
         </is>
       </c>
-      <c r="C1" s="60" t="n"/>
-      <c r="D1" s="60" t="n"/>
+      <c r="C1" s="59" t="n"/>
+      <c r="D1" s="59" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="16" t="n"/>
@@ -4922,9 +4926,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="62" t="n"/>
-      <c r="D2" s="62" t="n"/>
+      <c r="B2" s="60" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="16" t="n"/>
@@ -6276,8 +6280,8 @@
     <col width="15" bestFit="1" customWidth="1" style="17" min="16" max="16"/>
     <col width="10.6640625" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
     <col width="6.83203125" bestFit="1" customWidth="1" style="17" min="18" max="18"/>
-    <col width="10.83203125" customWidth="1" style="8" min="19" max="35"/>
-    <col width="10.83203125" customWidth="1" style="8" min="36" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="8" min="19" max="37"/>
+    <col width="10.83203125" customWidth="1" style="8" min="38" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" s="17">
@@ -6286,13 +6290,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="59" t="inlineStr">
+      <c r="B1" s="58" t="inlineStr">
         <is>
           <t>商户后台接口冒烟测试</t>
         </is>
       </c>
-      <c r="C1" s="60" t="n"/>
-      <c r="D1" s="60" t="n"/>
+      <c r="C1" s="59" t="n"/>
+      <c r="D1" s="59" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="16" t="n"/>
@@ -6314,9 +6318,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="62" t="n"/>
-      <c r="D2" s="62" t="n"/>
+      <c r="B2" s="60" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="16" t="n"/>

--- a/Test_Report/excel_report/日常冒烟测试点.xlsx
+++ b/Test_Report/excel_report/日常冒烟测试点.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19240" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="双屏机接口冒烟" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="POS机接口冒烟2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="商户后台接口冒烟" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="商户后台接口冒烟2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="商户后台接口冒烟3" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -22,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="31">
+  <fonts count="23">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -89,54 +90,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <color rgb="FF2B9E54"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF2B9E54"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FFFF4588"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF2B9E54"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF2B9E54"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
     <font>
@@ -311,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -401,38 +354,44 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -443,53 +402,14 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -499,22 +419,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -897,7 +814,7 @@
   </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -920,8 +837,8 @@
     <col width="15.33203125" bestFit="1" customWidth="1" style="8" min="16" max="16"/>
     <col width="17" customWidth="1" style="8" min="17" max="17"/>
     <col width="11.83203125" customWidth="1" style="8" min="18" max="18"/>
-    <col width="10.83203125" customWidth="1" style="8" min="19" max="87"/>
-    <col width="10.83203125" customWidth="1" style="8" min="88" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="8" min="19" max="88"/>
+    <col width="10.83203125" customWidth="1" style="8" min="89" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" s="17">
@@ -930,13 +847,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="61" t="inlineStr">
+      <c r="B1" s="50" t="inlineStr">
         <is>
           <t>双屏机接口冒烟测试</t>
         </is>
       </c>
-      <c r="C1" s="62" t="n"/>
-      <c r="D1" s="62" t="n"/>
+      <c r="C1" s="51" t="n"/>
+      <c r="D1" s="51" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="16" t="n"/>
@@ -962,9 +879,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="63" t="n"/>
-      <c r="C2" s="64" t="n"/>
-      <c r="D2" s="64" t="n"/>
+      <c r="B2" s="52" t="n"/>
+      <c r="C2" s="53" t="n"/>
+      <c r="D2" s="53" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="16" t="n"/>
@@ -1125,23 +1042,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N4" s="66" t="inlineStr">
+      <c r="N4" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': {'id': '9228', 'admin_name': 'TestAuto', 'real_name': '自动化测试账号-线上环境', 'admin_type': '2', 'mobile': '15672955599', 'last_login_time': '1608308825', 'create_time': '1606974814', 'update_time': '1608308825', 'role_list': [{'id': '41', 'type': '2', 'merchant_type': '1001', 'merchant_id': '0', 'name': '管理员', 'parent_id': '0', 'description': '权限说明：拥有油站下的全部数据查看权限及功能修改权限', 'status': '1', 'sort_num': '1', 'left_key': '0', 'level': '0', 'icon_url': 'role-card-station-management', 'default_id': '0', 'create_time': '1564058868', 'menu_list': [{'menu_id': '194', 'menu_type': '5', 'parent_id': '144', 'menu_name': 'OS', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '195', 'menu_type': '5', 'parent_id': '194', 'menu_name': '数据', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '196', 'menu_type': '5', 'parent_id': '194', 'menu_name': '收银', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '197', 'menu_type': '5', 'parent_id': '194', 'menu_name': '订单', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '198', 'menu_type': '5', 'parent_id': '194', 'menu_name': '班结', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '199', 'menu_type': '5', 'parent_id': '194', 'menu_name': '油品', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '200', 'menu_type': '5', 'parent_id': '194', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '201', 'menu_type': '5', 'parent_id': '194', 'menu_name': '设置', 'menu_path': '', 'vue_path': '', 'is_show': '1'}]}], 'handle_password': 'b08b487bd16300519a3342b67de00aba', 'head_img': '', 'merchant_info': {'merchant_id': '10002', 'merchant_type': '1001', 'company_id': '1', 'company_name': '总集团', 'full_name': '深圳南山第二加油站', 'group_id': '14', 'merchant_name': '南山第二加油站（零管专用）', 'logo_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/12/01/15/cd1e725ae75150479111a0987049.jpg', 'banner_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/12/01/15/cd1e725ae75150479111a0987049.jpg', 'contact_name': '黄先生', 'contact_tel': '13812342783', 'province_id': '1', 'city_id': '59457', 'region_id': '41', 'status': '1', 'open_status': '1', 'address': '北京市北京市朝阳区机场路', 'longitude': '116.6027900', 'latitude': '40.0803200', 'distance': 0, 'business_hours': '00:00:00 - 23:59:59', 'user_id': '0', 'create_time': '0', 'online_time': '1589531263', 'update_time': '1608306321', 'other': 'null', 'all_app_id': ['fb1de4489b67b8cb', 'wx6c6693a2df6265b8', 'wx73a8de5287159207', '2019112069300474'], 'mini_app_id': 'wx73a8de5287159207', 'qrcode_url': [{'type': 1, 'qrcode_url': 'http://mmbiz.qpic.cn/mmbiz_jpg/bqZlAHxBlo9ibwkwp3onLD7IcSbHRrXrWuGl0adp8ohhpOSFibV9vuicsnrtKT39RUBCmCgte067SK5ME12unk6tA/0'}, {'type': 2, 'qrcode_url': 'http://mmbiz.qpic.cn/mmbiz_jpg/LWyOkPJVI8ibZwVSsb0n2ga6kFpwmBjISJiaw3RDAJd19iakNREVv2VQvfSQHMjMQvic6jLF9nDcOn0FHEI4Lg1AeA/0'}], 'group': {'id': '1', 'group_name': '第一集团', 'company_id': '0', 'parent_id': '0', 'root_id': '1', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/01/04/01/f5f236d540da065c6557d399a259.jpg', 'description': '', 'contact_name': ''}}, 'token': '0A69423283C6E2F3CD61AB8D34FAE995', 'merchant_status': '1', 'invoice': {'id': '2', 'merchant_id': '10002', 'legal_person_name': '222', 'valid_day': '1', 'entrance': '1,2,3', 'ticket_type': '1,2', 'amount_type': '2', 'paper_stock': '0', 'card_id': 'pkOfe59l8E90UPoq1KwJs5Jx39o0', 'is_register': '0', 'recharge_product': '国VI LNG', 'license_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/01/14/15/3c035e84012939695ddec7aedbb7.jpeg', 's_pappid': '', 'create_time': '1578986348', 'update_time': '1606716640'}, 'pay_url': 'https://api.shylwlkj.com'}, 'request_id': '8995ef621596e34477387cd5f6d6991f'}</t>
         </is>
       </c>
-      <c r="O4" s="67" t="inlineStr">
+      <c r="O4" s="46" t="inlineStr">
         <is>
           <t>0.634</t>
         </is>
       </c>
-      <c r="P4" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q4" s="65" t="inlineStr"/>
-      <c r="R4" s="65" t="inlineStr">
+      <c r="P4" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q4" s="44" t="n"/>
+      <c r="R4" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1197,23 +1114,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N5" s="66" t="inlineStr">
+      <c r="N5" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '20854472', 'order_type': '16', 'order_code': '16202012194256074344', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1608313425', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1608313425', 'create_time': '1608313425', 'recommand_id': 0, 'items': [{'item_id': '20854566', 'order_id': '20854472', 'goods_type': '40', 'category_id': '0', 'goods_id': '0', 'goods_name': '', 'goods_sn': '', 'goods_number': '0.000000', 'market_price': '0', 'goods_price': '0', 'actual_price': '0', 'contract_price': '0', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': '', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '0', 'energy_number': '', 'gun_type': '0', 'gun_id': '0', 'gun_number': '0', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '20468381'}], 'payment_info': [{'id': '19979221', 'order_id': '19979221', 'order_code': '16202012194256074344', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012194256074344', 'out_trade_no': '', 'total_fee': '100', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1608313425', 'notify_time': '1608313425', 'platform': '4100', 'other': ''}]}], 'request_id': 'ac915bb34c806cff404778d5bbce66d5'}</t>
         </is>
       </c>
-      <c r="O5" s="67" t="inlineStr">
+      <c r="O5" s="46" t="inlineStr">
         <is>
           <t>0.742</t>
         </is>
       </c>
-      <c r="P5" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q5" s="65" t="inlineStr"/>
-      <c r="R5" s="65" t="inlineStr">
+      <c r="P5" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q5" s="44" t="n"/>
+      <c r="R5" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1268,23 +1185,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N6" s="66" t="inlineStr">
+      <c r="N6" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': {'total': 39, 'list': [{'id': 342832, 'settlement_id': 2020120401, 'fuel_order_id': 7462753400918016, 'order_sn': '201219014301567759', 'box_id': 'T202193T40058', 'order_code': '', 'user_id': 0, 'user_coupon_id': 0, 'merchant_id': 10002, 'merchant_type': 1001, 'price': 520, 'gun_num': 3, 'pump_code_start': 399, 'pump_code_end': 418, 'pump_added_value': 19, 'mdc_ttc': 22, 'goods_name': '98#车用汽油', 'energy_number': '98', 'energy_id': 3, 'amount': 100, 'volume': 19, 'order_type': 1, 'card_type': 0, 'card_no': '0', 'is_combine': 1, 'lock_source': 0, 'status': 1, 'create_time': 1608313379, 'first_record_time': '2020-12-19 01:43:01', 'update_time': 1608313379, 'update_date': '2020-12-19 01:43:01', 'is_delete': 0, 'online_pay_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;m=10002&amp;a=pay', 'box_order': 342832, 'push_command': '65001', 'type': 2}]}, 'request_id': 'f747bf4ffede2f5eb1c283cb6b6829e6'}</t>
         </is>
       </c>
-      <c r="O6" s="67" t="inlineStr">
+      <c r="O6" s="46" t="inlineStr">
         <is>
           <t>0.336</t>
         </is>
       </c>
-      <c r="P6" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q6" s="65" t="inlineStr"/>
-      <c r="R6" s="65" t="inlineStr">
+      <c r="P6" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q6" s="44" t="n"/>
+      <c r="R6" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1344,23 +1261,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N7" s="66" t="inlineStr">
+      <c r="N7" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '20854473', 'order_type': '16', 'order_code': '16202012194279228947', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1608313427', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1608313428', 'create_time': '1608313427', 'recommand_id': 0, 'items': [{'item_id': '20854567', 'order_id': '20854473', 'goods_type': '10', 'category_id': '1', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.190000', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': '', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '1516', 'gun_number': '3', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '20468382'}], 'payment_info': [{'id': '19979223', 'order_id': '19979223', 'order_code': '16202012194279228947', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012194279228947', 'out_trade_no': '', 'total_fee': '100', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1608313427', 'notify_time': '1608313427', 'platform': '4100', 'other': ''}]}], 'request_id': 'e06cc85a2ff97e17100bfc9b9616bfe3'}</t>
         </is>
       </c>
-      <c r="O7" s="67" t="inlineStr">
+      <c r="O7" s="46" t="inlineStr">
         <is>
           <t>0.778</t>
         </is>
       </c>
-      <c r="P7" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q7" s="65" t="inlineStr"/>
-      <c r="R7" s="65" t="inlineStr">
+      <c r="P7" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q7" s="44" t="n"/>
+      <c r="R7" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1420,23 +1337,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N8" s="66" t="inlineStr">
+      <c r="N8" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '20854474', 'order_type': '16', 'order_code': '16202012194302868598', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1608313430', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1608313430', 'create_time': '1608313430', 'recommand_id': 0, 'items': [{'item_id': '20854568', 'order_id': '20854474', 'goods_type': '10', 'category_id': '1', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.190000', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': '', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '1516', 'gun_number': '3', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '20468383'}], 'payment_info': [{'id': '19979227', 'order_id': '19979227', 'order_code': '16202012194302868598', 'payment_id': '45', 'channel_id': '45', 'card_type': '0', 'card_number': '', 'trade_no': '16202012194302868598', 'out_trade_no': '', 'total_fee': '100', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1608313430', 'notify_time': '1608313430', 'platform': '4100', 'other': ''}]}], 'request_id': '625cbe5a0c7e4e5b16263b8ee74bde04'}</t>
         </is>
       </c>
-      <c r="O8" s="67" t="inlineStr">
+      <c r="O8" s="46" t="inlineStr">
         <is>
           <t>0.779</t>
         </is>
       </c>
-      <c r="P8" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q8" s="65" t="inlineStr"/>
-      <c r="R8" s="65" t="inlineStr">
+      <c r="P8" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q8" s="44" t="n"/>
+      <c r="R8" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1496,23 +1413,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N9" s="66" t="inlineStr">
+      <c r="N9" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '20854476', 'order_type': '16', 'order_code': '16202012194326925707', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1608313432', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1608313432', 'create_time': '1608313432', 'recommand_id': 0, 'items': [{'item_id': '20854570', 'order_id': '20854476', 'goods_type': '10', 'category_id': '1', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.190000', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': '', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '1516', 'gun_number': '3', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '20468385'}], 'payment_info': [{'id': '19979229', 'order_id': '19979229', 'order_code': '16202012194326925707', 'payment_id': '41', 'channel_id': '41', 'card_type': '0', 'card_number': '', 'trade_no': '16202012194326925707', 'out_trade_no': '', 'total_fee': '100', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1608313432', 'notify_time': '1608313432', 'platform': '4100', 'other': ''}]}], 'request_id': 'b175fdd146bf4c59bbdb0d90209c841b'}</t>
         </is>
       </c>
-      <c r="O9" s="67" t="inlineStr">
+      <c r="O9" s="46" t="inlineStr">
         <is>
           <t>0.810</t>
         </is>
       </c>
-      <c r="P9" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q9" s="65" t="inlineStr"/>
-      <c r="R9" s="65" t="inlineStr">
+      <c r="P9" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q9" s="44" t="n"/>
+      <c r="R9" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1572,23 +1489,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N10" s="66" t="inlineStr">
+      <c r="N10" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '20854477', 'order_type': '16', 'order_code': '16202012194350859027', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1608313435', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1608313435', 'create_time': '1608313435', 'recommand_id': 0, 'items': [{'item_id': '20854571', 'order_id': '20854477', 'goods_type': '10', 'category_id': '2', 'goods_id': '4', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '0.190000', 'market_price': '31900', 'goods_price': '31900', 'actual_price': '31900', 'contract_price': '31900', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': '', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '2', 'energy_number': '0', 'gun_type': '0', 'gun_id': '429', 'gun_number': '2', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '20468386'}], 'payment_info': [{'id': '19979230', 'order_id': '19979230', 'order_code': '16202012194350859027', 'payment_id': '42', 'channel_id': '42', 'card_type': '0', 'card_number': '', 'trade_no': '16202012194350859027', 'out_trade_no': '', 'total_fee': '100', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1608313435', 'notify_time': '1608313435', 'platform': '4100', 'other': ''}]}], 'request_id': 'a05e0d4706010e8093ebf4bb3d10900d'}</t>
         </is>
       </c>
-      <c r="O10" s="67" t="inlineStr">
+      <c r="O10" s="46" t="inlineStr">
         <is>
           <t>0.785</t>
         </is>
       </c>
-      <c r="P10" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q10" s="65" t="inlineStr"/>
-      <c r="R10" s="65" t="inlineStr">
+      <c r="P10" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q10" s="44" t="n"/>
+      <c r="R10" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1648,23 +1565,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N11" s="66" t="inlineStr">
+      <c r="N11" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '20854479', 'order_type': '16', 'order_code': '16202012194374546531', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1608313437', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1608313437', 'create_time': '1608313437', 'recommand_id': 0, 'items': [{'item_id': '20854573', 'order_id': '20854479', 'goods_type': '10', 'category_id': '2', 'goods_id': '4', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '0.190000', 'market_price': '31900', 'goods_price': '31900', 'actual_price': '31900', 'contract_price': '31900', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': '', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '2', 'energy_number': '0', 'gun_type': '0', 'gun_id': '429', 'gun_number': '2', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '20468388'}], 'payment_info': [{'id': '19979232', 'order_id': '19979232', 'order_code': '16202012194374546531', 'payment_id': '43', 'channel_id': '43', 'card_type': '0', 'card_number': '', 'trade_no': '16202012194374546531', 'out_trade_no': '', 'total_fee': '100', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1608313437', 'notify_time': '1608313437', 'platform': '4100', 'other': ''}]}], 'request_id': '12e23f6ef3b6bb3230b44c97c6575ceb'}</t>
         </is>
       </c>
-      <c r="O11" s="67" t="inlineStr">
+      <c r="O11" s="46" t="inlineStr">
         <is>
           <t>0.754</t>
         </is>
       </c>
-      <c r="P11" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q11" s="65" t="inlineStr"/>
-      <c r="R11" s="65" t="inlineStr">
+      <c r="P11" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q11" s="44" t="n"/>
+      <c r="R11" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1724,23 +1641,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N12" s="66" t="inlineStr">
+      <c r="N12" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '20854480', 'order_type': '16', 'order_code': '16202012194398721047', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1608313439', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1608313439', 'create_time': '1608313439', 'recommand_id': 0, 'items': [{'item_id': '20854574', 'order_id': '20854480', 'goods_type': '10', 'category_id': '2', 'goods_id': '4', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '0.190000', 'market_price': '31900', 'goods_price': '31900', 'actual_price': '31900', 'contract_price': '31900', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': '', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '2', 'energy_number': '0', 'gun_type': '0', 'gun_id': '429', 'gun_number': '2', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '20468389'}], 'payment_info': [{'id': '19979233', 'order_id': '19979233', 'order_code': '16202012194398721047', 'payment_id': '44', 'channel_id': '44', 'card_type': '0', 'card_number': '', 'trade_no': '16202012194398721047', 'out_trade_no': '', 'total_fee': '100', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1608313439', 'notify_time': '1608313439', 'platform': '4100', 'other': ''}]}], 'request_id': 'b0ead7f04df0e123dc2425ad0b29aad0'}</t>
         </is>
       </c>
-      <c r="O12" s="67" t="inlineStr">
+      <c r="O12" s="46" t="inlineStr">
         <is>
           <t>0.808</t>
         </is>
       </c>
-      <c r="P12" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q12" s="65" t="inlineStr"/>
-      <c r="R12" s="65" t="inlineStr">
+      <c r="P12" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q12" s="44" t="n"/>
+      <c r="R12" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1796,23 +1713,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N13" s="66" t="inlineStr">
+      <c r="N13" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '20854482', 'order_type': '16', 'order_code': '16202012194420112912', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '10', 'order_amount': '10', 'pay_money': '10', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1608313442', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1608313442', 'create_time': '1608313442', 'recommand_id': 0, 'items': [{'item_id': '20854576', 'order_id': '20854482', 'goods_type': '40', 'category_id': '0', 'goods_id': '0', 'goods_name': '', 'goods_sn': '', 'goods_number': '0.000000', 'market_price': '0', 'goods_price': '0', 'actual_price': '0', 'contract_price': '0', 'subtotal': '10', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': '', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '0', 'energy_number': '', 'gun_type': '0', 'gun_id': '0', 'gun_number': '0', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '20468391'}], 'payment_info': [{'id': '19979235', 'order_id': '19979235', 'order_code': '16202012194420112912', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012194420112912', 'out_trade_no': '', 'total_fee': '10', 'pay_fee': '10', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1608313442', 'notify_time': '1608313442', 'platform': '4100', 'other': ''}]}], 'request_id': 'a0432d531ae3408ce2326d0a794c636e'}</t>
         </is>
       </c>
-      <c r="O13" s="67" t="inlineStr">
+      <c r="O13" s="46" t="inlineStr">
         <is>
           <t>0.749</t>
         </is>
       </c>
-      <c r="P13" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q13" s="65" t="inlineStr"/>
-      <c r="R13" s="65" t="inlineStr">
+      <c r="P13" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q13" s="44" t="n"/>
+      <c r="R13" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1872,23 +1789,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N14" s="66" t="inlineStr">
+      <c r="N14" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': 'b77a62e8683617172b6814a83ec6eea2'}</t>
         </is>
       </c>
-      <c r="O14" s="67" t="inlineStr">
+      <c r="O14" s="46" t="inlineStr">
         <is>
           <t>0.347</t>
         </is>
       </c>
-      <c r="P14" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q14" s="65" t="inlineStr"/>
-      <c r="R14" s="65" t="inlineStr">
+      <c r="P14" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q14" s="44" t="n"/>
+      <c r="R14" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1948,23 +1865,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N15" s="66" t="inlineStr">
+      <c r="N15" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '1cf55ed1e1b5485b547647bf6ff5a74d'}</t>
         </is>
       </c>
-      <c r="O15" s="67" t="inlineStr">
+      <c r="O15" s="46" t="inlineStr">
         <is>
           <t>0.486</t>
         </is>
       </c>
-      <c r="P15" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q15" s="65" t="inlineStr"/>
-      <c r="R15" s="65" t="inlineStr">
+      <c r="P15" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q15" s="44" t="n"/>
+      <c r="R15" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2024,23 +1941,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N16" s="66" t="inlineStr">
+      <c r="N16" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': 'a991c0758640716b05e36a0ca2e25902'}</t>
         </is>
       </c>
-      <c r="O16" s="67" t="inlineStr">
+      <c r="O16" s="46" t="inlineStr">
         <is>
           <t>0.294</t>
         </is>
       </c>
-      <c r="P16" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q16" s="65" t="inlineStr"/>
-      <c r="R16" s="65" t="inlineStr">
+      <c r="P16" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q16" s="44" t="n"/>
+      <c r="R16" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2100,23 +2017,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N17" s="66" t="inlineStr">
+      <c r="N17" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '9d567f6f3817ead1ec0b2735abbd91de'}</t>
         </is>
       </c>
-      <c r="O17" s="67" t="inlineStr">
+      <c r="O17" s="46" t="inlineStr">
         <is>
           <t>0.398</t>
         </is>
       </c>
-      <c r="P17" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q17" s="65" t="inlineStr"/>
-      <c r="R17" s="65" t="inlineStr">
+      <c r="P17" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q17" s="44" t="n"/>
+      <c r="R17" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2176,23 +2093,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N18" s="66" t="inlineStr">
+      <c r="N18" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '420cce0181e51998b1f4c64092b8774d'}</t>
         </is>
       </c>
-      <c r="O18" s="67" t="inlineStr">
+      <c r="O18" s="46" t="inlineStr">
         <is>
           <t>0.295</t>
         </is>
       </c>
-      <c r="P18" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q18" s="65" t="inlineStr"/>
-      <c r="R18" s="65" t="inlineStr">
+      <c r="P18" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q18" s="44" t="n"/>
+      <c r="R18" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2252,23 +2169,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N19" s="66" t="inlineStr">
+      <c r="N19" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': 'afa3084a02147e1a837b8aa088127d75'}</t>
         </is>
       </c>
-      <c r="O19" s="67" t="inlineStr">
+      <c r="O19" s="46" t="inlineStr">
         <is>
           <t>0.294</t>
         </is>
       </c>
-      <c r="P19" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q19" s="65" t="inlineStr"/>
-      <c r="R19" s="65" t="inlineStr">
+      <c r="P19" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q19" s="44" t="n"/>
+      <c r="R19" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2324,23 +2241,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N20" s="66" t="inlineStr">
+      <c r="N20" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1608313449', 'pay_time': '1608313449', 'order_time': '1608313449', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['滴滴加油'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012194494024557', 'master_order_code': '16202012194494024557', 'order_id': '20854488', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012194494024557&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '2', 'goods_number': '0.19', 'market_price': '31900', 'energy_number': '0', 'goods_name': '0#车用柴油', 'goods_id': '4', 'goods_type': '10', 'category_id': '2', 'car_no': '', 'items': [{'item_id': '20854582', 'order_id': '20854488', 'goods_type': '10', 'category_id': '2', 'product_id': '0', 'goods_id': '4', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '0.19', 'market_price': '31900', 'goods_price': '31900', 'actual_price': '31900', 'contract_price': '31900', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '0', 'energy_type': '2', 'gun_id': '429', 'gun_name': '', 'gun_number': '2', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1608313445', 'pay_time': '1608313445', 'order_time': '1608313445', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012194453555350', 'master_order_code': '16202012194453555350', 'order_id': '20854485', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012194453555350&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '2', 'goods_number': '0.19', 'market_price': '31900', 'energy_number': '0', 'goods_name': '0#车用柴油', 'goods_id': '4', 'goods_type': '10', 'category_id': '2', 'car_no': '', 'items': [{'item_id': '20854579', 'order_id': '20854485', 'goods_type': '10', 'category_id': '2', 'product_id': '0', 'goods_id': '4', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '0.19', 'market_price': '31900', 'goods_price': '31900', 'actual_price': '31900', 'contract_price': '31900', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '0', 'energy_type': '2', 'gun_id': '429', 'gun_name': '', 'gun_number': '2', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1608313439', 'pay_time': '1608313439', 'order_time': '1608313439', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['客户IC卡'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012194398721047', 'master_order_code': '16202012194398721047', 'order_id': '20854480', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012194398721047&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '2', 'goods_number': '0.19', 'market_price': '31900', 'energy_number': '0', 'goods_name': '0#车用柴油', 'goods_id': '4', 'goods_type': '10', 'category_id': '2', 'car_no': '', 'items': [{'item_id': '20854574', 'order_id': '20854480', 'goods_type': '10', 'category_id': '2', 'product_id': '0', 'goods_id': '4', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '0.19', 'market_price': '31900', 'goods_price': '31900', 'actual_price': '31900', 'contract_price': '31900', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '0', 'energy_type': '2', 'gun_id': '429', 'gun_name': '', 'gun_number': '2', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1608313437', 'pay_time': '1608313437', 'order_time': '1608313437', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['挂账'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012194374546531', 'master_order_code': '16202012194374546531', 'order_id': '20854479', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012194374546531&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '2', 'goods_number': '0.19', 'market_price': '31900', 'energy_number': '0', 'goods_name': '0#车用柴油', 'goods_id': '4', 'goods_type': '10', 'category_id': '2', 'car_no': '', 'items': [{'item_id': '20854573', 'order_id': '20854479', 'goods_type': '10', 'category_id': '2', 'product_id': '0', 'goods_id': '4', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '0.19', 'market_price': '31900', 'goods_price': '31900', 'actual_price': '31900', 'contract_price': '31900', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '0', 'energy_type': '2', 'gun_id': '429', 'gun_name': '', 'gun_number': '2', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1608313435', 'pay_time': '1608313435', 'order_time': '1608313435', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['滴滴加油'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012194350859027', 'master_order_code': '16202012194350859027', 'order_id': '20854477', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012194350859027&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '2', 'goods_number': '0.19', 'market_price': '31900', 'energy_number': '0', 'goods_name': '0#车用柴油', 'goods_id': '4', 'goods_type': '10', 'category_id': '2', 'car_no': '', 'items': [{'item_id': '20854571', 'order_id': '20854477', 'goods_type': '10', 'category_id': '2', 'product_id': '0', 'goods_id': '4', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '0.19', 'market_price': '31900', 'goods_price': '31900', 'actual_price': '31900', 'contract_price': '31900', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '0', 'energy_type': '2', 'gun_id': '429', 'gun_name': '', 'gun_number': '2', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1608313432', 'pay_time': '1608313432', 'order_time': '1608313432', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['货车帮'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012194326925707', 'master_order_code': '16202012194326925707', 'order_id': '20854476', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012194326925707&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '3', 'goods_number': '0.19', 'market_price': '70000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '3', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '20854570', 'order_id': '20854476', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.19', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '1516', 'gun_name': '', 'gun_number': '3', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1608313430', 'pay_time': '1608313430', 'order_time': '1608313430', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['第三方银联'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012194302868598', 'master_order_code': '16202012194302868598', 'order_id': '20854474', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012194302868598&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '3', 'goods_number': '0.19', 'market_price': '70000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '3', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '20854568', 'order_id': '20854474', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.19', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '1516', 'gun_name': '', 'gun_number': '3', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1608313427', 'pay_time': '1608313427', 'order_time': '1608313427', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012194279228947', 'master_order_code': '16202012194279228947', 'order_id': '20854473', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012194279228947&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '3', 'goods_number': '0.19', 'market_price': '70000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '3', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '20854567', 'order_id': '20854473', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.19', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '1516', 'gun_name': '', 'gun_number': '3', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1608313211', 'pay_time': '1608313211', 'order_time': '1608313211', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012192213552901', 'master_order_code': '16202012192213552901', 'order_id': '20854418', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012192213552901&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '4', 'goods_number': '0.19', 'market_price': '70000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '3', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '20854512', 'order_id': '20854418', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.19', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '1517', 'gun_name': '', 'gun_number': '4', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1608313199', 'pay_time': '1608313199', 'order_time': '1608313199', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012191994814677', 'master_order_code': '16202012191994814677', 'order_id': '20854410', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012191994814677&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '3', 'goods_number': '0.19', 'market_price': '70000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '3', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '20854504', 'order_id': '20854410', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.19', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '1516', 'gun_name': '', 'gun_number': '3', 'car_no': ''}]}], 'request_id': 'dd239f7ab10815e403c9cac27aec94f3'}</t>
         </is>
       </c>
-      <c r="O20" s="67" t="inlineStr">
+      <c r="O20" s="46" t="inlineStr">
         <is>
           <t>0.663</t>
         </is>
       </c>
-      <c r="P20" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q20" s="65" t="inlineStr"/>
-      <c r="R20" s="65" t="inlineStr">
+      <c r="P20" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q20" s="44" t="n"/>
+      <c r="R20" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2400,23 +2317,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N21" s="66" t="inlineStr">
+      <c r="N21" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': {'order_id': '20854488', 'order_type': '16', 'order_code': '16202012194494024557', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '3020', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '1', 'refund_fee': '100', 'platform': '4100', 'admin_id': '0', 'pay_time': '1608313449', 'cancel_time': '0', 'refund_time': '1608313452', 'update_time': '1608313452', 'create_time': '1608313449', 'recommand_id': 0, 'items': [{'item_id': '20854582', 'order_id': '20854488', 'goods_type': '10', 'category_id': '2', 'goods_id': '4', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '0.190000', 'market_price': '31900', 'goods_price': '31900', 'actual_price': '31900', 'contract_price': '31900', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': '', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '2', 'energy_number': '0', 'gun_type': '0', 'gun_id': '429', 'gun_number': '2', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '20468396'}], 'payment_info': [{'id': '19979239', 'order_id': '19979239', 'order_code': '16202012194494024557', 'payment_id': '42', 'channel_id': '42', 'card_type': '0', 'card_number': '', 'trade_no': '16202012194494024557', 'out_trade_no': '', 'total_fee': '100', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1608313449', 'notify_time': '1608313449', 'platform': '4100', 'other': ''}], 'refund_info': [{'refund_id': '27106', 'refund_type': '11', 'refund_no': '11202012194520806670', 'out_refund_no': '', 'refund_fee': '100', 'reason': '双屏机接口冒烟测试-退款', 'remark': 'TestAuto双屏机申请退款', 'refund_status': '16', 'platform': '0', 'operator_name': 'TestAuto', 'update_time': '1608313452', 'create_time': '1608313452'}]}, 'request_id': 'd36caf32612015b44453463e1f3ccddb'}</t>
         </is>
       </c>
-      <c r="O21" s="67" t="inlineStr">
+      <c r="O21" s="46" t="inlineStr">
         <is>
           <t>0.552</t>
         </is>
       </c>
-      <c r="P21" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q21" s="65" t="inlineStr"/>
-      <c r="R21" s="65" t="inlineStr">
+      <c r="P21" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q21" s="44" t="n"/>
+      <c r="R21" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2471,23 +2388,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N22" s="66" t="inlineStr">
+      <c r="N22" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': {'user_id': '1691198', 'user_name': '', 'full_name': '谢', 'nickname': '、杭', 'img_url': 'https://thirdwx.qlogo.cn/mmopen/vi_32/77xQM5WFqKjXaNsCUk3hnWyZsRTRwTE5CLYrxsNz4k0snWILEn8WfjW0lWCpVqMhrt0ib6rzliaibiaCF2hTpLG3uw/132', 'password': '', 'gender': '1', 'mobile': '15672655599', 'status': '1', 'bind_uid': '366128', 'email': '', 'card_id': '0', 'user_auth_id': '1690861', 'auth_type_id': '2', 'app_id': 'wx73a8de5287159207', 'open_id': 'oW7by5LziMh21Uh0cDkM2HmTB8qI', 'master_id': 'ooSm91UB61zF7aMrm5Y-5L26EwVA', 'bind_ali_user': {'user_id': '366128', 'user_name': '', 'full_name': '', 'nickname': '杭', 'img_url': 'https://tfs.alipayobjects.com/images/partner/T1v_hmXkVgXXXXXXXX', 'password': '', 'gender': '1', 'mobile': '15672655599', 'status': '1', 'bind_uid': '366128', 'email': '', 'card_id': '0', 'user_auth_id': '365883', 'auth_type_id': '3', 'app_id': '2019112069300474', 'open_id': '2088902558355112', 'master_id': '2088902558355112', 'vip_info': None, 'point_info': {'id': '806533', 'user_id': '366128', 'merchant_id': '10002', 'remain_points': '144', 'issue_points': '80600', 'consume_points': '80456', 'create_time': '1596075344', 'update_time': '1598339812', 'merchant_type': '1001', 'update_date': '2020-08-25 15:16:52'}, 'car': None, 'card_password': False}, 'vip_info': None, 'point_info': {'id': '571866', 'user_id': '1691198', 'merchant_id': '10002', 'remain_points': '25467', 'issue_points': '30334', 'consume_points': '4867', 'create_time': '1593708940', 'update_time': '1603994311', 'merchant_type': '1001', 'update_date': '2020-10-30 01:58:31'}, 'card_password': True, 'car': None}, 'request_id': 'c5180f3dabd6eeda0ca510d565d5bd31'}</t>
         </is>
       </c>
-      <c r="O22" s="67" t="inlineStr">
+      <c r="O22" s="46" t="inlineStr">
         <is>
           <t>0.538</t>
         </is>
       </c>
-      <c r="P22" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q22" s="65" t="inlineStr"/>
-      <c r="R22" s="65" t="inlineStr">
+      <c r="P22" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q22" s="44" t="n"/>
+      <c r="R22" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2543,23 +2460,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N23" s="66" t="inlineStr">
+      <c r="N23" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'id': '741', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '跨站消费加油卡', 'type': 3, 'card_type': '1', 'style_type': '3', 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '604', 'energy_number': '可兰素'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '131', 'energy_number': 'CNG'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '100', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '200', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '500', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1593742898', 'update_time': '1607065289', 'status': '0', 'is_del': '0', 'update_date': '2020-12-04 15:01:29', 'customer_id': '0', 'type_name': '混合卡', 'user_card': {'id': '65812', 'card_id': '741', 'code': '2010286988418590', 'user_id': '1691198', 'union_id': '', 'left_amount': 2010.56, 'gift_amount': 400, 'create_time': '1603869884', 'update_time': '1608309626', 'status': '0', 'cancel_account_by': '4241', 'cancel_account_time': '1603869884', 'is_del': '0', 'update_date': '2020-12-19 00:27:42', 'balance_type': '0', 'v_card_code': 'WH123123', 'amount': 0, 'quota': 0, 'mount': 0, 'cars': [{'car_number': '苏FR78988'}]}, 'merchant_ids': ['10002', '20091']}, {'id': '717', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '新卡多赠', 'type': 3, 'card_type': '1', 'style_type': '3', 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '605', 'energy_number': '车用尿素'}, {'energy_id': '604', 'energy_number': '可兰素'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '6', 'energy_number': '89'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '0.5', 'discount': '0.1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1593412927', 'update_time': '1607065289', 'status': '0', 'is_del': '0', 'update_date': '2020-12-04 15:01:29', 'customer_id': '0', 'type_name': '混合卡', 'user_card': {'id': '16054', 'card_id': '717', 'code': '2007309069442589', 'user_id': '1691198', 'union_id': '', 'left_amount': 8612, 'gift_amount': 61.1, 'create_time': '1596090694', 'update_time': '1608313285', 'status': '0', 'cancel_account_by': '0', 'cancel_account_time': '0', 'is_del': '0', 'update_date': '2020-09-08 23:23:36', 'balance_type': '0', 'amount': 0, 'quota': 0, 'mount': 0, 'cars': []}, 'merchant_ids': ['10002']}, {'id': '53', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '加油卡卡', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '3', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '4', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '100', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '101', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '102', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '105', 'energy_number': '(高标)92', 'energy_type': '1'}, {'energy_id': '108', 'energy_number': '(高标)0', 'energy_type': '2'}, {'energy_id': '130', 'energy_number': 'LNG', 'energy_type': '3'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '10000', 'min': '1'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '100000000', 'discount': '0'}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1581564798', 'update_time': '1582083794', 'status': '0', 'is_del': '0', 'update_date': '2020-02-13 11:33:18', 'customer_id': '0', 'type_name': '混合卡', 'user_card': {'id': '66715', 'card_id': '53', 'code': '2010309558171416', 'user_id': '1691198', 'union_id': '', 'left_amount': 2719.67, 'gift_amount': 0, 'create_time': '1603995581', 'update_time': '1604919066', 'status': '0', 'cancel_account_by': '4241', 'cancel_account_time': '1603995581', 'is_del': '0', 'update_date': '2020-10-30 02:21:47', 'balance_type': '0', 'v_card_code': 'WH001522', 'amount': 0, 'quota': 0, 'mount': 0, 'cars': []}, 'merchant_ids': ['10002']}], 'request_id': '7ff6f68ad6a733fe6ee033cf73bf5077'}</t>
         </is>
       </c>
-      <c r="O23" s="67" t="inlineStr">
+      <c r="O23" s="46" t="inlineStr">
         <is>
           <t>0.511</t>
         </is>
       </c>
-      <c r="P23" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q23" s="65" t="inlineStr"/>
-      <c r="R23" s="65" t="inlineStr">
+      <c r="P23" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q23" s="44" t="n"/>
+      <c r="R23" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2615,23 +2532,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N24" s="66" t="inlineStr">
+      <c r="N24" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': '操作成功', 'reason': '', 'data': {'order_type': 50, 'order_code': '50202012194551042473', 'order_code_reversal': '37424015549121020205', 'is_master': 1, 'suborder_num': 0, 'is_suborder': 1, 'related_order': '', 'user_id': 1691198, 'mobile': '15672655599', 'company_id': 0, 'merchant_type': 1001, 'merchant_id': 10002, 'user_level_id': 0, 'user_level_type': 0, 'user_level_name': '', 'user_identity_type': 0, 'user_identity_id': 0, 'invoice_title': '', 'order_status': 1010, 'cancel_status': 0, 'pay_status': 1, 'shipping_status': 0, 'goods_amount': 1000, 'order_amount': 1000, 'pay_money': 0, 'balance': 0, 'credit': 0, 'credit_fee': 0, 'coupon_fee': 0, 'platform_coupon_fee': 0, 'bonus_fee': 0, 'discount': 0, 'surplus': 1000, 'remark': '加油卡充值', 'has_refund': 0, 'refund_fee': 0, 'pay_time': 1608313455, 'platform': 4100, 'admin_id': 0, 'update_time': 1608313455, 'create_time': 1608313455, 'order_id': '20854489', 'items': [{'goods_type': 50, 'goods_id': 0, 'category_id': 50, 'goods_name': '加油卡充值', 'goods_number': 1, 'market_price': '1000', 'goods_price': '1000'}]}, 'request_id': '8636751d42cf9543f4c98a45cb550928'}</t>
         </is>
       </c>
-      <c r="O24" s="67" t="inlineStr">
+      <c r="O24" s="46" t="inlineStr">
         <is>
           <t>0.605</t>
         </is>
       </c>
-      <c r="P24" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q24" s="65" t="inlineStr"/>
-      <c r="R24" s="65" t="inlineStr">
+      <c r="P24" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q24" s="44" t="n"/>
+      <c r="R24" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2687,23 +2604,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N25" s="66" t="inlineStr">
+      <c r="N25" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '20854489', 'order_type': '50', 'order_code': '50202012194551042473', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '1691198', 'mobile': '15672655599', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '1000', 'order_amount': '1000', 'pay_money': '1000', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '加油卡充值', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1608313456', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1608313456', 'create_time': '1608313455', 'recommand_id': 0, 'items': [{'item_id': '20854583', 'order_id': '20854489', 'goods_type': '50', 'category_id': '50', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '1000', 'goods_price': '1000', 'actual_price': '0', 'contract_price': '0', 'subtotal': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': ''}], 'payment_info': [{'id': '19979243', 'order_id': '19979243', 'order_code': '50202012194551042473', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '50202012194551042473', 'out_trade_no': '', 'total_fee': '1000', 'pay_fee': '1000', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1608313456', 'notify_time': '1608313456', 'platform': '4100', 'other': ''}]}], 'request_id': 'aa50006fa1cae95dd12a5cb6c375dd63'}</t>
         </is>
       </c>
-      <c r="O25" s="67" t="inlineStr">
+      <c r="O25" s="46" t="inlineStr">
         <is>
           <t>0.989</t>
         </is>
       </c>
-      <c r="P25" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q25" s="65" t="inlineStr"/>
-      <c r="R25" s="65" t="inlineStr">
+      <c r="P25" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q25" s="44" t="n"/>
+      <c r="R25" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2763,23 +2680,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N26" s="66" t="inlineStr">
+      <c r="N26" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '20854490', 'order_type': '16', 'order_code': '16202012194578163912', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1608313457', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1608313457', 'create_time': '1608313457', 'recommand_id': 0, 'items': [{'item_id': '20854584', 'order_id': '20854490', 'goods_type': '10', 'category_id': '2', 'goods_id': '4', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '0.190000', 'market_price': '31900', 'goods_price': '31900', 'actual_price': '31900', 'contract_price': '31900', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': '', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '2', 'energy_number': '0', 'gun_type': '0', 'gun_id': '429', 'gun_number': '2', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '20468397'}], 'payment_info': [{'id': '19979244', 'order_id': '19979244', 'order_code': '16202012194578163912', 'payment_id': '41', 'channel_id': '41', 'card_type': '0', 'card_number': '', 'trade_no': '16202012194578163912', 'out_trade_no': '', 'total_fee': '100', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1608313457', 'notify_time': '1608313457', 'platform': '4100', 'other': ''}]}], 'request_id': '95de30283194953ce4d41f43f6df674a'}</t>
         </is>
       </c>
-      <c r="O26" s="67" t="inlineStr">
+      <c r="O26" s="46" t="inlineStr">
         <is>
           <t>0.760</t>
         </is>
       </c>
-      <c r="P26" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q26" s="65" t="inlineStr"/>
-      <c r="R26" s="65" t="inlineStr">
+      <c r="P26" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q26" s="44" t="n"/>
+      <c r="R26" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2835,23 +2752,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N27" s="66" t="inlineStr">
+      <c r="N27" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1608313457', 'pay_time': '1608313457', 'order_time': '1608313448', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '18680686691', 'pay_type': ['现金支付'], 'user_id': '355139', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': {'user_id': '355139', 'user_name': '', 'full_name': '苏海燕', 'nickname': 'Liam', 'img_url': 'https://wx.qlogo.cn/mmopen/vi_32/DYAIOgq83eqJtSEjYSMYc9t6TWIaTia3nt49XwUTyDsEd65jBVcg9IsCmOm6sO7nJ3ZbjVZbiapuVXdXccvke8Vw/132', 'gender': '1', 'mobile': '18680686691', 'status': '1', 'create_time': '1584870381', 'update_time': '1607237317', 'bind_uid': '355139', 'bind_time': '1603469805'}, 'goods_amount': '50100', 'order_amount': '50100', 'pay_money': '50000', 'discount': 100, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '50202012194480252918', 'master_order_code': '50202012194480252918', 'order_id': '20854487', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012194480252918&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '50100', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '20854581', 'order_id': '20854487', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '50100', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1608313456', 'pay_time': '1608313456', 'order_time': '1608313455', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '1691198', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': {'user_id': '1691198', 'user_name': '', 'full_name': '谢', 'nickname': '、杭', 'img_url': 'https://thirdwx.qlogo.cn/mmopen/vi_32/77xQM5WFqKjXaNsCUk3hnWyZsRTRwTE5CLYrxsNz4k0snWILEn8WfjW0lWCpVqMhrt0ib6rzliaibiaCF2hTpLG3uw/132', 'gender': '1', 'mobile': '15672655599', 'status': '1', 'create_time': '1593340812', 'update_time': '1605630889', 'bind_uid': '366128', 'bind_time': '1605630889'}, 'goods_amount': '1000', 'order_amount': '1000', 'pay_money': '1000', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '50202012194551042473', 'master_order_code': '50202012194551042473', 'order_id': '20854489', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012194551042473&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '1000', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '20854583', 'order_id': '20854489', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '1000', 'goods_price': '1000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1608313285', 'pay_time': '1608313285', 'order_time': '1608313281', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '1691198', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': {'user_id': '1691198', 'user_name': '', 'full_name': '谢', 'nickname': '、杭', 'img_url': 'https://thirdwx.qlogo.cn/mmopen/vi_32/77xQM5WFqKjXaNsCUk3hnWyZsRTRwTE5CLYrxsNz4k0snWILEn8WfjW0lWCpVqMhrt0ib6rzliaibiaCF2hTpLG3uw/132', 'gender': '1', 'mobile': '15672655599', 'status': '1', 'create_time': '1593340812', 'update_time': '1605630889', 'bind_uid': '366128', 'bind_time': '1605630889'}, 'goods_amount': '50010', 'order_amount': '50010', 'pay_money': '50000', 'discount': 10, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '50202012192817287309', 'master_order_code': '50202012192817287309', 'order_id': '20854431', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012192817287309&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '50010', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '20854525', 'order_id': '20854431', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '50010', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1608310988', 'pay_time': '1608310988', 'order_time': '1608310988', 'pay_status': '1', 'pay_status_name': '未支付', 'mobile': '15672655599', 'pay_type': [], 'user_id': '1691198', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': {'user_id': '1691198', 'user_name': '', 'full_name': '谢', 'nickname': '、杭', 'img_url': 'https://thirdwx.qlogo.cn/mmopen/vi_32/77xQM5WFqKjXaNsCUk3hnWyZsRTRwTE5CLYrxsNz4k0snWILEn8WfjW0lWCpVqMhrt0ib6rzliaibiaCF2hTpLG3uw/132', 'gender': '1', 'mobile': '15672655599', 'status': '1', 'create_time': '1593340812', 'update_time': '1605630889', 'bind_uid': '366128', 'bind_time': '1605630889'}, 'goods_amount': '50010', 'order_amount': '50010', 'pay_money': '0', 'discount': 50010, 'coupon_fee': '0', 'surplus': '50000', 'order_status': '1010', 'order_status_name': '待支付', 'order_code': '50202012199880951512', 'master_order_code': '50202012199880951512', 'order_id': '20853790', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012199880951512&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '50010', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '20853884', 'order_id': '20853790', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '50010', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1608309626', 'pay_time': '1608309626', 'order_time': '1608309616', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '1691198', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': {'user_id': '1691198', 'user_name': '', 'full_name': '谢', 'nickname': '、杭', 'img_url': 'https://thirdwx.qlogo.cn/mmopen/vi_32/77xQM5WFqKjXaNsCUk3hnWyZsRTRwTE5CLYrxsNz4k0snWILEn8WfjW0lWCpVqMhrt0ib6rzliaibiaCF2hTpLG3uw/132', 'gender': '1', 'mobile': '15672655599', 'status': '1', 'create_time': '1593340812', 'update_time': '1605630889', 'bind_uid': '366128', 'bind_time': '1605630889'}, 'goods_amount': '60000', 'order_amount': '60000', 'pay_money': '50000', 'discount': 10000, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '50202012196164116776', 'master_order_code': '50202012196164116776', 'order_id': '20853300', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012196164116776&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '60000', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '20853394', 'order_id': '20853300', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '60000', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1608308855', 'pay_time': '1608308855', 'order_time': '1608308854', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '1691198', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': {'user_id': '1691198', 'user_name': '', 'full_name': '谢', 'nickname': '、杭', 'img_url': 'https://thirdwx.qlogo.cn/mmopen/vi_32/77xQM5WFqKjXaNsCUk3hnWyZsRTRwTE5CLYrxsNz4k0snWILEn8WfjW0lWCpVqMhrt0ib6rzliaibiaCF2hTpLG3uw/132', 'gender': '1', 'mobile': '15672655599', 'status': '1', 'create_time': '1593340812', 'update_time': '1605630889', 'bind_uid': '366128', 'bind_time': '1605630889'}, 'goods_amount': '1000', 'order_amount': '1000', 'pay_money': '1000', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012198549021657', 'master_order_code': '50202012198549021657', 'order_id': '20853064', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012198549021657&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '1000', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '20853158', 'order_id': '20853064', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '1000', 'goods_price': '1000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}], 'request_id': '8572cc80dab98968001826c0186827d3'}</t>
         </is>
       </c>
-      <c r="O27" s="67" t="inlineStr">
+      <c r="O27" s="46" t="inlineStr">
         <is>
           <t>0.519</t>
         </is>
       </c>
-      <c r="P27" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q27" s="65" t="inlineStr"/>
-      <c r="R27" s="65" t="inlineStr">
+      <c r="P27" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q27" s="44" t="n"/>
+      <c r="R27" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2911,23 +2828,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N28" s="66" t="inlineStr">
+      <c r="N28" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': {'order_id': '20854487', 'order_type': '50', 'order_code': '50202012194480252918', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '355139', 'mobile': '18680686691', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '3020', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '50100', 'order_amount': '50100', 'pay_money': '50000', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '100', 'remark': '加油卡充值', 'has_refund': '1', 'refund_fee': '50000', 'platform': '4100', 'admin_id': '0', 'pay_time': '1608313457', 'cancel_time': '0', 'refund_time': '1608313462', 'update_time': '1608313462', 'create_time': '1608313448', 'recommand_id': 0, 'items': [{'item_id': '20854581', 'order_id': '20854487', 'goods_type': '50', 'category_id': '50', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '50100', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'subtotal': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': ''}], 'payment_info': [{'id': '19979245', 'order_id': '19979245', 'order_code': '50202012194480252918', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '50202012194480252918', 'out_trade_no': '', 'total_fee': '50000', 'pay_fee': '50000', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1608313457', 'notify_time': '1608313457', 'platform': '4100', 'other': ''}], 'refund_info': [{'refund_id': '27107', 'refund_type': '11', 'refund_no': '11202012194628158613', 'out_refund_no': '', 'refund_fee': '50000', 'reason': '双屏机接口冒烟测试-退款', 'remark': 'TestAuto双屏机申请退款', 'refund_status': '16', 'platform': '0', 'operator_name': 'TestAuto', 'update_time': '1608313462', 'create_time': '1608313462'}]}, 'request_id': '6e946afb21d0f30d47c473e2d8b2ecb5'}</t>
         </is>
       </c>
-      <c r="O28" s="70" t="inlineStr">
+      <c r="O28" s="49" t="inlineStr">
         <is>
           <t>1.390</t>
         </is>
       </c>
-      <c r="P28" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q28" s="65" t="inlineStr"/>
-      <c r="R28" s="65" t="inlineStr">
+      <c r="P28" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q28" s="44" t="n"/>
+      <c r="R28" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2987,23 +2904,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N29" s="66" t="inlineStr">
+      <c r="N29" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': {'order_id': 342816, 'only_id': None}, 'request_id': 'f65bfe4907f954c4a224896a93b3f2aa'}</t>
         </is>
       </c>
-      <c r="O29" s="67" t="inlineStr">
+      <c r="O29" s="46" t="inlineStr">
         <is>
           <t>0.375</t>
         </is>
       </c>
-      <c r="P29" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q29" s="65" t="inlineStr"/>
-      <c r="R29" s="65" t="inlineStr">
+      <c r="P29" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q29" s="44" t="n"/>
+      <c r="R29" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -3063,23 +2980,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N30" s="66" t="inlineStr">
+      <c r="N30" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': {'order_id': 342815, 'only_id': None}, 'request_id': 'fa640112a68c32e04f94c10a80dc9ba7'}</t>
         </is>
       </c>
-      <c r="O30" s="67" t="inlineStr">
+      <c r="O30" s="46" t="inlineStr">
         <is>
           <t>0.390</t>
         </is>
       </c>
-      <c r="P30" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q30" s="65" t="inlineStr"/>
-      <c r="R30" s="65" t="inlineStr">
+      <c r="P30" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q30" s="44" t="n"/>
+      <c r="R30" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -3123,7 +3040,7 @@
       </c>
       <c r="H31" s="14" t="n"/>
       <c r="I31" s="8" t="n"/>
-      <c r="J31" s="45" t="inlineStr">
+      <c r="J31" s="34" t="inlineStr">
         <is>
           <t>merchant_id=10001&amp;merchant_type=1001&amp;order_id=29867&amp;source=5</t>
         </is>
@@ -3139,23 +3056,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N31" s="66" t="inlineStr">
+      <c r="N31" s="45" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': {'lock_status': False}, 'request_id': '7b66d9d840650675b94b8a3e9cdbf899'}</t>
         </is>
       </c>
-      <c r="O31" s="67" t="inlineStr">
+      <c r="O31" s="46" t="inlineStr">
         <is>
           <t>0.289</t>
         </is>
       </c>
-      <c r="P31" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q31" s="65" t="inlineStr"/>
-      <c r="R31" s="65" t="inlineStr">
+      <c r="P31" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q31" s="44" t="n"/>
+      <c r="R31" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -3199,7 +3116,7 @@
       </c>
       <c r="H32" s="14" t="n"/>
       <c r="I32" s="9" t="n"/>
-      <c r="J32" s="45" t="inlineStr">
+      <c r="J32" s="34" t="inlineStr">
         <is>
           <t>merchant_id=10001&amp;merchant_type=1001&amp;order_id=29867&amp;source=5</t>
         </is>
@@ -3211,23 +3128,23 @@
           <t>500</t>
         </is>
       </c>
-      <c r="N32" s="69" t="inlineStr">
+      <c r="N32" s="48" t="inlineStr">
         <is>
           <t>{'status': 500, 'info': '该订单正在小程序支付中，请确认后重试', 'reason': 500, 'request_id': '3c9ccd0d049f65769d8383ac9dc69f99'}</t>
         </is>
       </c>
-      <c r="O32" s="67" t="inlineStr">
+      <c r="O32" s="46" t="inlineStr">
         <is>
           <t>0.295</t>
         </is>
       </c>
-      <c r="P32" s="68" t="inlineStr">
+      <c r="P32" s="47" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="Q32" s="65" t="inlineStr"/>
-      <c r="R32" s="65" t="inlineStr">
+      <c r="Q32" s="44" t="n"/>
+      <c r="R32" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -3283,23 +3200,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N33" s="66" t="inlineStr">
+      <c r="N33" s="45" t="inlineStr">
         <is>
           <t>{'info': 'Success', 'status': 200, 'data': None, 'request_id': 'f5db41bd67fd3e47d87c58842a86c535'}</t>
         </is>
       </c>
-      <c r="O33" s="67" t="inlineStr">
+      <c r="O33" s="46" t="inlineStr">
         <is>
           <t>0.295</t>
         </is>
       </c>
-      <c r="P33" s="65" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q33" s="65" t="inlineStr"/>
-      <c r="R33" s="65" t="inlineStr">
+      <c r="P33" s="44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q33" s="44" t="n"/>
+      <c r="R33" s="44" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -3367,8 +3284,8 @@
     <col width="15.33203125" bestFit="1" customWidth="1" style="8" min="16" max="16"/>
     <col width="17" customWidth="1" style="8" min="17" max="17"/>
     <col width="11.83203125" customWidth="1" style="8" min="18" max="18"/>
-    <col width="10.83203125" customWidth="1" style="8" min="19" max="87"/>
-    <col width="10.83203125" customWidth="1" style="8" min="88" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="8" min="19" max="88"/>
+    <col width="10.83203125" customWidth="1" style="8" min="89" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" s="17">
@@ -3377,13 +3294,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="61" t="inlineStr">
+      <c r="B1" s="50" t="inlineStr">
         <is>
           <t>双屏机接口冒烟测试</t>
         </is>
       </c>
-      <c r="C1" s="62" t="n"/>
-      <c r="D1" s="62" t="n"/>
+      <c r="C1" s="51" t="n"/>
+      <c r="D1" s="51" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="16" t="n"/>
@@ -3405,9 +3322,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="63" t="n"/>
-      <c r="C2" s="64" t="n"/>
-      <c r="D2" s="64" t="n"/>
+      <c r="B2" s="52" t="n"/>
+      <c r="C2" s="53" t="n"/>
+      <c r="D2" s="53" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="16" t="n"/>
@@ -3567,23 +3484,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N4" s="57" t="inlineStr">
+      <c r="N4" s="40" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': {'id': '1421', 'admin_name': 'TestAuto', 'real_name': '自动化测试账号-测试环境', 'admin_type': '2', 'mobile': '15672755599', 'head_img': '', 'qr_img': '', 'introduce': '', 'last_login_time': '1607431927', 'create_time': '1606974578', 'update_time': '1607431927', 'role_list': [{'id': '598', 'type': '2', 'merchant_type': '1001', 'merchant_id': '10001', 'name': '单站-管理员', 'parent_id': '0', 'description': '权限说明：拥有油站下的全部数据查看权限及功能修改权限', 'status': '1', 'sort_num': '1', 'left_key': '0', 'level': '0', 'icon_url': 'role-card-station-management', 'default_id': '41', 'create_time': '1605681900', 'menu_list': [{'menu_id': '194', 'menu_type': '5', 'parent_id': '144', 'menu_name': 'OS', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '195', 'menu_type': '5', 'parent_id': '194', 'menu_name': '数据', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '196', 'menu_type': '5', 'parent_id': '194', 'menu_name': '收银', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '197', 'menu_type': '5', 'parent_id': '194', 'menu_name': '订单', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '198', 'menu_type': '5', 'parent_id': '194', 'menu_name': '班结', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '199', 'menu_type': '5', 'parent_id': '194', 'menu_name': '油品', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '200', 'menu_type': '5', 'parent_id': '194', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '201', 'menu_type': '5', 'parent_id': '194', 'menu_name': '设置', 'menu_path': '', 'vue_path': '', 'is_show': '1'}]}], 'handle_password': 'b08b487bd16300519a3342b67de00aba', 'merchant_info': {'merchant_id': '10001', 'merchant_type': '1001', 'company_id': '10001', 'company_name': '智慧加油集团', 'full_name': '智慧第一加油站智慧第一加油站智慧第一加油站智慧第一加油站11', 'group_id': '5', 'merchant_name': '智慧第一加油站（零管专用）', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/10/12/17/334ec0abb599668f6ba1bb67c1de.png', 'banner_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/10/12/17/334ec0abb599668f6ba1bb67c1de.png', 'contact_name': 'ying', 'contact_tel': '18617121378', 'province_id': '19', 'city_id': '289', 'region_id': '3038', 'status': '1', 'open_status': '1', 'address': '北京西城区', 'longitude': '113.3217910', 'latitude': '23.6184120', 'distance': 0, 'business_hours': '00:00:00 - 23:59:59', 'user_id': '10005', 'etc_registration': 1, 'create_time': '1533806679', 'online_time': '11110', 'update_time': '1607326773', 'other': 'null', 'all_app_id': ['fb1de4489b67b8cb', 'wx6c6693a2df6265b8', 'wx73a8de5287159207', '2019112069300474'], 'mini_app_id': 'wx73a8de5287159207', 'qrcode_url': [{'type': 1, 'qrcode_url': 'http://mmbiz.qpic.cn/mmbiz_jpg/bqZlAHxBlo8gH5xzicnJmibhQnACiaMvHvY7wpWjlo2EAWKfpTVKhkRE7svQtiaoZB8Pial2RXbGqZGRxu10cY41IBA/0'}, {'type': 2, 'qrcode_url': 'http://mmbiz.qpic.cn/mmbiz_jpg/LWyOkPJVI8ibZwVSsb0n2ga6kFpwmBjISJiaw3RDAJd19iakNREVv2VQvfSQHMjMQvic6jLF9nDcOn0FHEI4Lg1AeA/0'}], 'group': {'id': '1', 'group_name': '鹰眼集团', 'company_id': '1', 'parent_id': '0', 'root_id': '1', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191014/15/6682c9a78cfb431e759c817d7710.png', 'description': '', 'contact_name': ''}}, 'token': '3A4296AE3833701343366A3336E97A83', 'merchant_status': '1', 'invoice': {'id': '28', 'merchant_id': '10001', 'legal_person_name': '张三', 'valid_day': '70', 'entrance': '1,2,3', 'ticket_type': '1', 'amount_type': '2', 'paper_stock': '0', 'card_id': 'pkOfe58sK_w-V7MST5B9hhf0O5A8', 'is_register': '0', 'recharge_product': '10#车用柴油', 'license_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20190711/19/83f0da35200a2d20851b4181069c.png', 's_pappid': '', 'create_time': '1605514186', 'update_time': '1605582520', 'invoice_balance': '1'}, 'pay_url': 'https://api.shylwlkj.com'}, 'request_id': '7961dab81ecd2ebd107eec5d4ff68df4'}</t>
         </is>
       </c>
-      <c r="O4" s="58" t="inlineStr">
+      <c r="O4" s="41" t="inlineStr">
         <is>
           <t>0.381</t>
         </is>
       </c>
-      <c r="P4" s="56" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q4" s="56" t="n"/>
-      <c r="R4" s="56" t="inlineStr">
+      <c r="P4" s="39" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q4" s="39" t="n"/>
+      <c r="R4" s="39" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -3639,23 +3556,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N5" s="57" t="inlineStr">
+      <c r="N5" s="40" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'password': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'bind_uid': '67605', 'email': '', 'card_id': '0', 'user_auth_id': '67094', 'auth_type_id': '2', 'app_id': 'wx73a8de5287159207', 'open_id': 'oW7by5LziMh21Uh0cDkM2HmTB8qI', 'master_id': 'ooSm91UB61zF7aMrm5Y-5L26EwVA', 'vip_info': {'id': '15122', 'uid': '67611', 'level_id': '1', 'type': '1', 'expire_time': '1609591964', 'wx_card_id': '0', 'wx_card_code': '0', 'is_active': '1', 'is_delete': '0', 'create_time': '2020-12-03 20:52:44', 'station_id': '0', 'appid': 'wx73a8de5287159207', 'merchant_id': '1', 'merchant_type': '1003', 'source': '6', 'is_first': '0', 'update_date': '2020-12-03 20:52:44', 'is_bind': '1', 'min_growth_value': '0', 'max_growth_value': '249', 'level_name': '铜卡会员', 'discount': {'400': 0.2, '401': 0.2, '402': 0.2, '403': 0.2, '1401': 0.2, '1402': 0.2, '1403': 0.2, '1404': 0.2, '1405': 0.2, '1406': 0.2, '1444': 0.2, '1501': 0.2, '1502': 0.2, '1503': 0.2, '1504': 0.2, '1505': 0.2, '1506': 0.2, '1601': 0.2, '1602': 0.2, '1603': 0.2, '1604': 0.2, '1605': 0.2, '1606': 0.2, '2001': 0.2, '2002': 0.2, '2003': 0.2, '2004': 0.2, '2005': 0.2, '2006': 0.2, '2007': 0.2, '2009': 0.2, '2013': 0.2, '2022': 0.2, '2024': 0.2, '2025': 0.2, '2026': 0.2}, 'growth_value': '0', 'real_level_id': '20001', 'discount_type': 1}, 'point_info': {'id': '19313', 'user_id': '67611', 'merchant_id': '10001', 'remain_points': '620', 'issue_points': '620', 'consume_points': '0', 'create_time': '1607392739', 'update_time': '1607418973', 'merchant_type': '1001', 'update_date': '2020-12-08 17:16:13'}, 'car': None, 'card_password': True, 'bind_nl_user': {'user_id': '67605', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'password': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'bind_uid': '67605', 'email': '', 'card_id': '0', 'user_auth_id': '67088', 'auth_type_id': '4', 'app_id': 'fb1de4489b67b8cb', 'open_id': '', 'master_id': ''}, 'bind_ali_user': None}, 'request_id': '3777304caa9ea01283897cc7c1fb32b3'}</t>
         </is>
       </c>
-      <c r="O5" s="58" t="inlineStr">
+      <c r="O5" s="41" t="inlineStr">
         <is>
           <t>0.270</t>
         </is>
       </c>
-      <c r="P5" s="56" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q5" s="56" t="n"/>
-      <c r="R5" s="56" t="inlineStr">
+      <c r="P5" s="39" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q5" s="39" t="n"/>
+      <c r="R5" s="39" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -3711,23 +3628,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N6" s="57" t="inlineStr">
+      <c r="N6" s="40" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'id': '543', 'merchant_type': '1001', 'merchant_id': '10001', 'name': 'h5页面重构', 'type': 3, 'card_type': '1', 'style_type': '2', 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/2143f30c32366b5fb6d899f2d828.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '2025', 'energy_number': 'LNG'}, {'energy_id': '2026', 'energy_number': 'CNG'}, {'energy_id': '2013', 'energy_number': '99'}, {'energy_id': '2005', 'energy_number': '98'}, {'energy_id': '2002', 'energy_number': '97'}, {'energy_id': '2004', 'energy_number': '95'}, {'energy_id': '2007', 'energy_number': '95'}, {'energy_id': '2001', 'energy_number': '93'}, {'energy_id': '2003', 'energy_number': '92'}, {'energy_id': '2022', 'energy_number': '12'}, {'energy_id': '1601', 'energy_number': '10'}, {'energy_id': '1402', 'energy_number': '1'}, {'energy_id': '1502', 'energy_number': '0'}, {'energy_id': '1602', 'energy_number': '0'}, {'energy_id': '1606', 'energy_number': '-50'}, {'energy_id': '1406', 'energy_number': '-50'}, {'energy_id': '1506', 'energy_number': '-50'}, {'energy_id': '1405', 'energy_number': '-35'}, {'energy_id': '1505', 'energy_number': '-35'}, {'energy_id': '1605', 'energy_number': '-35'}, {'energy_id': '1404', 'energy_number': '-20'}, {'energy_id': '1504', 'energy_number': '-20'}, {'energy_id': '1604', 'energy_number': '-20'}, {'energy_id': '1503', 'energy_number': '-10'}, {'energy_id': '1603', 'energy_number': '-10'}], 'carrier': '1', 'invoice_type': '4', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '300', 'min': '1'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '100', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '200', 'discount': '2', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '300', 'discount': '3', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1606717809', 'update_time': '0', 'status': '0', 'is_del': '0', 'update_date': '2020-11-30 14:30:09', 'customer_id': '0', 'type_name': '混合卡', 'user_card': {'id': '1842', 'card_id': '543', 'code': '2012082047481869', 'user_id': '67611', 'union_id': '', 'left_amount': 0, 'gift_amount': 0, 'create_time': '1607420474', 'update_time': '1607420474', 'status': '0', 'cancel_account_by': '0', 'cancel_account_time': '0', 'is_del': '0', 'update_date': '2020-12-08 17:41:14', 'balance_type': '0', 'amount': 0, 'quota': 0, 'mount': 0, 'cars': []}, 'merchant_ids': ['10001'], 'self': 1}, {'id': '510', 'merchant_type': '1001', 'merchant_id': '10001', 'name': 'pos云端看', 'type': 3, 'card_type': '1', 'style_type': '3', 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '2025', 'energy_number': 'LNG'}, {'energy_id': '2026', 'energy_number': 'CNG'}, {'energy_id': '2013', 'energy_number': '99'}, {'energy_id': '2005', 'energy_number': '98'}, {'energy_id': '2002', 'energy_number': '97'}, {'energy_id': '2004', 'energy_number': '95'}, {'energy_id': '2007', 'energy_number': '95'}, {'energy_id': '2001', 'energy_number': '93'}, {'energy_id': '2003', 'energy_number': '92'}, {'energy_id': '2022', 'energy_number': '12'}, {'energy_id': '1601', 'energy_number': '10'}, {'energy_id': '1402', 'energy_number': '1'}, {'energy_id': '1502', 'energy_number': '0'}, {'energy_id': '1602', 'energy_number': '0'}, {'energy_id': '1606', 'energy_number': '-50'}, {'energy_id': '1406', 'energy_number': '-50'}, {'energy_id': '1506', 'energy_number': '-50'}, {'energy_id': '1405', 'energy_number': '-35'}, {'energy_id': '1505', 'energy_number': '-35'}, {'energy_id': '1605', 'energy_number': '-35'}, {'energy_id': '1404', 'energy_number': '-20'}, {'energy_id': '1504', 'energy_number': '-20'}, {'energy_id': '1604', 'energy_number': '-20'}, {'energy_id': '1503', 'energy_number': '-10'}, {'energy_id': '1603', 'energy_number': '-10'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '1000', 'min': '100'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '100', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '300', 'discount': '3', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '500', 'discount': '5', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1603072743', 'update_time': '1606821455', 'status': '0', 'is_del': '0', 'update_date': '2020-11-25 09:58:07', 'customer_id': '0', 'type_name': '混合卡', 'user_card': {'id': '1820', 'card_id': '510', 'code': '2012039041212556', 'user_id': '67605', 'union_id': '', 'left_amount': 500, 'gift_amount': 15, 'create_time': '1606990412', 'update_time': '1607406347', 'status': '0', 'cancel_account_by': '0', 'cancel_account_time': '0', 'is_del': '0', 'update_date': '2020-12-08 13:45:52', 'balance_type': '0', 'amount': 0, 'quota': 0, 'mount': 0, 'cars': []}, 'merchant_ids': ['10001'], 'self': 1}], 'request_id': 'a1e44d261f6abf9121c2b588825ec7cf'}</t>
         </is>
       </c>
-      <c r="O6" s="58" t="inlineStr">
+      <c r="O6" s="41" t="inlineStr">
         <is>
           <t>0.252</t>
         </is>
       </c>
-      <c r="P6" s="56" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q6" s="56" t="n"/>
-      <c r="R6" s="56" t="inlineStr">
+      <c r="P6" s="39" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q6" s="39" t="n"/>
+      <c r="R6" s="39" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -3788,18 +3705,18 @@
           <t>{'status': 200, 'info': '操作成功', 'reason': '', 'data': {'order_type': 50, 'order_code': '50202012083459247325', 'order_code_reversal': '52374295438021020205', 'is_master': 1, 'suborder_num': 0, 'is_suborder': 1, 'related_order': '', 'user_id': 1691198, 'mobile': '15672655599', 'company_id': 0, 'merchant_type': 1001, 'merchant_id': 10002, 'user_level_id': 0, 'user_level_type': 0, 'user_level_name': '', 'user_identity_type': 0, 'user_identity_id': 0, 'invoice_title': '', 'order_status': 1010, 'cancel_status': 0, 'pay_status': 1, 'shipping_status': 0, 'goods_amount': 60000, 'order_amount': 60000, 'pay_money': 0, 'balance': 0, 'credit': 0, 'credit_fee': 0, 'coupon_fee': 0, 'platform_coupon_fee': 0, 'bonus_fee': 0, 'discount': 10000, 'surplus': 50000, 'remark': '加油卡充值', 'has_refund': 0, 'refund_fee': 0, 'pay_time': 1607426345, 'platform': 4100, 'admin_id': 0, 'update_time': 1607426345, 'create_time': 1607426345, 'order_id': '5950117', 'items': [{'goods_type': 50, 'goods_id': 0, 'category_id': 50, 'goods_name': '加油卡充值', 'goods_number': 1, 'market_price': 60000, 'goods_price': '50000'}]}, 'request_id': '03c1aabcbe73f35605197a200ce6d8a8'}</t>
         </is>
       </c>
-      <c r="O7" s="48" t="inlineStr">
+      <c r="O7" s="37" t="inlineStr">
         <is>
           <t>0.625</t>
         </is>
       </c>
-      <c r="P7" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q7" s="46" t="n"/>
-      <c r="R7" s="46" t="inlineStr">
+      <c r="P7" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q7" s="35" t="n"/>
+      <c r="R7" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -3855,27 +3772,27 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N8" s="60" t="inlineStr">
+      <c r="N8" s="43" t="inlineStr">
         <is>
           <t>{'status': 500, 'info': '未找到订单，请检查订单号', 'reason': 500, 'request_id': '2af9f3ce842c772ffb0dd40b9fa52ea5'}</t>
         </is>
       </c>
-      <c r="O8" s="58" t="inlineStr">
+      <c r="O8" s="41" t="inlineStr">
         <is>
           <t>0.331</t>
         </is>
       </c>
-      <c r="P8" s="59" t="inlineStr">
+      <c r="P8" s="42" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="Q8" s="59" t="inlineStr">
+      <c r="Q8" s="42" t="inlineStr">
         <is>
           <t>{"status":500,"info":"\u672a\u627e\u5230\u8ba2\u5355\uff0c\u8bf7\u68c0\u67e5\u8ba2\u5355\u53f7","reason":500,"request_id":"2af9f3ce842c772ffb0dd40b9fa52ea5"}</t>
         </is>
       </c>
-      <c r="R8" s="59" t="inlineStr">
+      <c r="R8" s="42" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
@@ -3935,23 +3852,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N9" s="57" t="inlineStr">
+      <c r="N9" s="40" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8344164', 'order_type': '16', 'order_code': '16202012082407115291', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '27003', 'order_amount': '27003', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '27002', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607432240', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607432240', 'create_time': '1607432240', 'recommand_id': 0, 'items': [{'item_id': '8344827', 'order_id': '8344164', 'goods_type': '10', 'category_id': '3', 'goods_id': '2026', 'goods_name': 'CNG', 'goods_sn': '', 'goods_number': '51.920000', 'market_price': '34500', 'goods_price': '34500', 'actual_price': '34500', 'contract_price': '34500', 'subtotal': '27003', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': '', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '3', 'energy_number': 'CNG', 'gun_type': '0', 'gun_id': '2952', 'gun_number': '14', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189562'}], 'payment_info': [{'id': '8011564', 'order_id': '8011564', 'order_code': '16202012082407115291', 'payment_id': '41', 'channel_id': '41', 'card_type': '0', 'card_number': '', 'trade_no': '16202012082407115291', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607432240', 'notify_time': '1607432240', 'platform': '4100', 'other': ''}]}], 'request_id': '5d2fc4dfde393031243c1facdf49a596'}</t>
         </is>
       </c>
-      <c r="O9" s="58" t="inlineStr">
+      <c r="O9" s="41" t="inlineStr">
         <is>
           <t>0.580</t>
         </is>
       </c>
-      <c r="P9" s="56" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q9" s="56" t="n"/>
-      <c r="R9" s="56" t="inlineStr">
+      <c r="P9" s="39" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q9" s="39" t="n"/>
+      <c r="R9" s="39" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -4051,13 +3968,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="61" t="inlineStr">
+      <c r="B1" s="50" t="inlineStr">
         <is>
           <t>POS机接口冒烟测试</t>
         </is>
       </c>
-      <c r="C1" s="62" t="n"/>
-      <c r="D1" s="62" t="n"/>
+      <c r="C1" s="51" t="n"/>
+      <c r="D1" s="51" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="16" t="n"/>
@@ -4079,9 +3996,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="63" t="n"/>
-      <c r="C2" s="64" t="n"/>
-      <c r="D2" s="64" t="n"/>
+      <c r="B2" s="52" t="n"/>
+      <c r="C2" s="53" t="n"/>
+      <c r="D2" s="53" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="16" t="n"/>
@@ -4242,23 +4159,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N4" s="47" t="inlineStr">
+      <c r="N4" s="36" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'st_name': '南山第二加油站（零管专用）', 'st_logo': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/01/10/a8204cd6ce348fab2856fd7b2b4e.png', 'address': '高新南十一道28滨福世纪广场', 'contact_tel': '13812342783', 'group_id': 1, 'role': 0, 'gun_oil_arr': [{'gun_id': 10307, 'gun_no': 1, 'oil_number': '(高标)0', 'oil_name': '0#车用柴油（高标）', 'oil_type': '2', 'oil_id': '108', 'price': '21000'}, {'gun_id': 10289, 'gun_no': 10, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 1526, 'gun_no': 11, 'oil_number': '95', 'oil_name': '95#车用汽油', 'oil_type': '1', 'oil_id': '2', 'price': '87000'}, {'gun_id': 1518, 'gun_no': 12, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 10351, 'gun_no': 123, 'oil_number': '95', 'oil_name': '95#车用汽油', 'oil_type': '1', 'oil_id': '2', 'price': '87000'}, {'gun_id': 9053, 'gun_no': 13, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 10290, 'gun_no': 14, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 10291, 'gun_no': 15, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 10292, 'gun_no': 16, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 429, 'gun_no': 2, 'oil_number': '92', 'oil_name': '92#车用汽油', 'oil_type': '1', 'oil_id': '1', 'price': '56700'}, {'gun_id': 1516, 'gun_no': 3, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 1517, 'gun_no': 4, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 10281, 'gun_no': 5, 'oil_number': '可兰素', 'oil_name': '可兰素', 'oil_type': '6', 'oil_id': '604', 'price': '90000'}, {'gun_id': 10282, 'gun_no': 6, 'oil_number': '车用尿素', 'oil_name': '车用尿素', 'oil_type': '6', 'oil_id': '605', 'price': '10000'}, {'gun_id': 10288, 'gun_no': 7, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 1525, 'gun_no': 8, 'oil_number': 'LNG', 'oil_name': 'LNG', 'oil_type': '3', 'oil_id': '130', 'price': '40000'}, {'gun_id': 1523, 'gun_no': 9, 'oil_number': '(高标)92', 'oil_name': '92#车用汽油（高标）', 'oil_type': '1', 'oil_id': '105', 'price': '110000'}], 'guns': ['1', '2', '3', '4', '5', '6', '7', '8', '9', '10', '11', '12', '13', '14', '15', '16', '123'], 'oils': [], 'is_gun': True, 'pub_code_url': 'http://mmbiz.qpic.cn/mmbiz_jpg/bqZlAHxBlo8gH5xzicnJmibhQnACiaMvHvY7wpWjlo2EAWKfpTVKhkRE7svQtiaoZB8Pial2RXbGqZGRxu10cY41IBA/0', 'small_app_code': 'http://mmbiz.qpic.cn/mmbiz_jpg/LWyOkPJVI8ibZwVSsb0n2ga6kFpwmBjISJiaw3RDAJd19iakNREVv2VQvfSQHMjMQvic6jLF9nDcOn0FHEI4Lg1AeA/0', 'tips': '', 'visitor_type': '0', 'is_admin': True, 'cash_switch': '1', 'role_name': '管理员', 'token': 'd746116f-1186-7789-3ef7-34ec4dab6c85', 'st_id': '10002', 'u_id': '5365', 'name': 'TestAuto', 'real_name': '自动化测试账号-预发布环境', 'mobile': '15672855599', 'merchant_type': '1001', 'per_info': [{'menu_name': 'POS收银', 'menu_path': 'pos_collect'}, {'menu_name': 'ETC加油', 'menu_path': 'etc_plate_pay'}, {'menu_name': '切换油站', 'menu_path': 'search_st'}, {'menu_name': '查看班结记录', 'menu_path': 'summary_record'}, {'menu_name': '查看班结统计', 'menu_path': 'summary_details'}, {'menu_name': '班结打印', 'menu_path': 'summary_print'}, {'menu_name': '一键班结', 'menu_path': 'summary'}, {'menu_name': '订单新增', 'menu_path': 'add_order'}, {'menu_name': '待开发票', 'menu_path': 'open_bill'}, {'menu_name': '查看订单详情', 'menu_path': 'oil_details'}, {'menu_name': '订单申请退款', 'menu_path': 'oil_refund'}, {'menu_name': '订单补打', 'menu_path': 'oil_print'}, {'menu_name': '订单搜索', 'menu_path': 'search_order'}, {'menu_name': '查看订单详情', 'menu_path': 'inspay_details'}, {'menu_name': '订单申请退款', 'menu_path': 'inspay_refund'}, {'menu_name': '订单补打', 'menu_path': 'inspay_print'}, {'menu_name': '查看订单详情', 'menu_path': 'quick_details'}, {'menu_name': '订单申请退款', 'menu_path': 'quick_refund'}, {'menu_name': '订单补打', 'menu_path': 'quick_print'}, {'menu_name': '查看订单详情', 'menu_path': 'store_details'}, {'menu_name': '订单申请退款', 'menu_path': 'store_refund'}, {'menu_name': '订单补打', 'menu_path': 'store_print'}, {'menu_name': '查看订单详情', 'menu_path': 'czb_details'}, {'menu_name': '订单补打', 'menu_path': 'czb_print'}, {'menu_name': '查看订单详情', 'menu_path': 'offline_details'}, {'menu_name': '订单补打', 'menu_path': 'offline_print'}, {'menu_name': '加油卡充值订单详情', 'menu_path': 'card_recharge_details'}, {'menu_name': '加油卡充值订单退款', 'menu_path': 'card_recharge_refund'}, {'menu_name': '加油卡充值订单补打', 'menu_path': 'card_recharge_print'}, {'menu_name': '加油卡开卡', 'menu_path': 'open_card'}, {'menu_name': '加油卡充值', 'menu_path': 'recharge'}, {'menu_name': '修改加油卡密码', 'menu_path': 'card_change_pwd'}, {'menu_name': '加油卡消费订单补打', 'menu_path': 'card_trade_print'}, {'menu_name': '加油卡消费订单退款', 'menu_path': 'card_trade_refund'}, {'menu_name': '车牌支付详情', 'menu_path': 'car_plate_details'}, {'menu_name': '车牌支付补打', 'menu_path': 'car_plate_print'}, {'menu_name': '车牌支付申请退款', 'menu_path': 'car_plate_refund'}, {'menu_name': 'ETC订单详情', 'menu_path': 'etc_details'}, {'menu_name': 'ETC订单申请退款', 'menu_path': 'etc_refund'}, {'menu_name': 'ETC订单补打', 'menu_path': 'etc_print'}, {'menu_name': 'ETC加油', 'menu_path': 'etc_pay'}, {'menu_name': '订单搜索详情', 'menu_path': 'search_details'}, {'menu_name': '查看小票相关信息', 'menu_path': 'bill_check'}, {'menu_name': '编辑小票相关信息', 'menu_path': 'bill_edit'}, {'menu_name': '语音播报', 'menu_path': 'voice_set'}, {'menu_name': '查看语音播报', 'menu_path': 'voice_check'}, {'menu_name': '编辑语音播报', 'menu_path': 'voice_edit'}, {'menu_name': '新增语音播报', 'menu_path': 'add_voice'}, {'menu_name': '删除语音播报', 'menu_path': 'del_voice'}, {'menu_name': '密码设置', 'menu_path': 'pwd_set'}, {'menu_name': '班结设置', 'menu_path': 'summary_set'}, {'menu_name': '车牌付', 'menu_path': 'car_pay'}], 'station_role': 1}, 'request_id': 'a6c0e4f5868840469d0e67844e79e4e6'}</t>
         </is>
       </c>
-      <c r="O4" s="49" t="inlineStr">
+      <c r="O4" s="38" t="inlineStr">
         <is>
           <t>2.026</t>
         </is>
       </c>
-      <c r="P4" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q4" s="46" t="n"/>
-      <c r="R4" s="46" t="inlineStr">
+      <c r="P4" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q4" s="35" t="n"/>
+      <c r="R4" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -4313,23 +4230,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N5" s="47" t="inlineStr">
+      <c r="N5" s="36" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '5365', 'admin_name': 'TestAuto', 'real_name': '自动化测试账号-预发布环境', 'admin_type': '2', 'mobile': '15672855599', 'last_login_time': '1607426302', 'status': '1', 'create_time': '1606974646', 'update_time': '1607426302', 'token': '0ecb112408b2bd8577712ca1312182865a608e00', 'theme_config': {'platform_name': '能链SaaS', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 430, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '761', 'menu_type': '2', 'parent_id': '283', 'menu_name': '车队卡客户', 'menu_path': '', 'vue_path': 'fleet', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet', 'leve': 4}, {'menu_id': '768', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '769', 'menu_type': '2', 'parent_id': '761', 'menu_name': '分配子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '770', 'menu_type': '2', 'parent_id': '761', 'menu_name': '新增车队卡客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '771', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '772', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '773', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看充值消费分配记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '774', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '775', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '762', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '763', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '764', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '765', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '766', 'menu_type': '2', 'parent_id': '761', 'menu_name': '添加子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '767', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395'</t>
         </is>
       </c>
-      <c r="O5" s="48" t="inlineStr">
+      <c r="O5" s="37" t="inlineStr">
         <is>
           <t>0.719</t>
         </is>
       </c>
-      <c r="P5" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q5" s="46" t="n"/>
-      <c r="R5" s="46" t="inlineStr">
+      <c r="P5" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q5" s="35" t="n"/>
+      <c r="R5" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -4385,23 +4302,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N6" s="47" t="inlineStr">
+      <c r="N6" s="36" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'id': '10307', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '1号枪', 'gun_number': '1', 'gun_type': '1001', 'energy_id': '108', 'group_num': '', 'status': '1', 'price': '21000', 'admin_id': '181', 'start_time': '1578542039', 'energy_name': '0#车用柴油（高标）', 'energy_number': '(高标)0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '429', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '2号枪', 'gun_number': '2', 'gun_type': '1001', 'energy_id': '1', 'group_num': 'test', 'status': '1', 'price': '56700', 'admin_id': '820', 'start_time': '1603462476', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1516', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '3号枪', 'gun_number': '3', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1517', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '4号枪', 'gun_number': '4', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10281', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '5号枪', 'gun_number': '5', 'gun_type': '1001', 'energy_id': '604', 'group_num': '测试001', 'status': '1', 'price': '90000', 'admin_id': '4241', 'start_time': '1603941050', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '10282', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '6号枪', 'gun_number': '6', 'gun_type': '1001', 'energy_id': '605', 'group_num': '测试001', 'status': '1', 'price': '10000', 'admin_id': '820', 'start_time': '1596706130', 'energy_name': '车用尿素', 'energy_number': '车用尿素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '10288', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '7号枪', 'gun_number': '7', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1525', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '8号枪', 'gun_number': '8', 'gun_type': '1001', 'energy_id': '130', 'group_num': 'test', 'status': '1', 'price': '40000', 'admin_id': '820', 'start_time': '1603447689', 'energy_name': 'LNG', 'energy_number': 'LNG', 'energy_type': '3', 'unit': 'kg', 'standard_name': '天然气', 'icon_url': '', 'type_name': '天然气', 'type_id': '3', 'retail_status': 1}, {'id': '1523', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '9号枪', 'gun_number': '9', 'gun_type': '1001', 'energy_id': '105', 'group_num': '测试001', 'status': '1', 'price': '110000', 'admin_id': '820', 'start_time': '1603461458', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10289', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '10号枪', 'gun_number': '10', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1526', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '11号枪', 'gun_number': '11', 'gun_type': '1001', 'energy_id': '2', 'group_num': '测试001', 'status': '1', 'price': '87000', 'admin_id': '820', 'start_time': '1603451928', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1518', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '12号枪', 'gun_number': '12', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '9053', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '13号枪', 'gun_number': '13', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10290', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '14号枪', 'gun_number': '14', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10291', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '15号枪', 'gun_number': '15', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10292', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '16号枪', 'gun_number': '16', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10351', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '123号枪', 'gun_number': '123', 'gun_type': '1001', 'energy_id': '2', 'group_num': '', 'status': '1', 'price': '87000', 'admin_id': '820', 'start_time': '1603451928', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 2}], 'request_id': '5669d4085a4a1c2f98516f3979784a9e'}</t>
         </is>
       </c>
-      <c r="O6" s="49" t="inlineStr">
+      <c r="O6" s="38" t="inlineStr">
         <is>
           <t>1.067</t>
         </is>
       </c>
-      <c r="P6" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q6" s="46" t="n"/>
-      <c r="R6" s="46" t="inlineStr">
+      <c r="P6" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q6" s="35" t="n"/>
+      <c r="R6" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -4457,23 +4374,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N7" s="47" t="inlineStr">
+      <c r="N7" s="36" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'items': [{'is_refunded': 0, 'pay_type': '', 'goods_type': '10', 'oil_type': '可兰素', 'oil_gun': '5', 'oil_amount': '0.000000', 'car_no': '', 'pay_time': '2020-11-26 16:45:16', 'order_price': 0.01, 'order_type': '17', 'order_code': '17202011263147742172', 'credit': 0, 'mobile': '17722829341', 'admin_id': '0', 'op_user': '', 'status_str': '已支付'}, {'is_refunded': 0, 'pay_type': '', 'goods_type': '10', 'oil_type': '(高标)0', 'oil_gun': '1', 'oil_amount': '0.150000', 'car_no': '', 'pay_time': '2020-11-23 14:57:20', 'order_price': 2, 'order_type': '16', 'order_code': '16202011236409148569', 'credit': 0, 'admin_id': '0', 'op_user': '', 'status_str': '已支付'}, {'is_refunded': 0, 'pay_type': '', 'goods_type': '10', 'oil_type': '(高标)0', 'oil_gun': '1', 'oil_amount': '0.320000', 'car_no': '', 'pay_time': '2020-11-23 14:57:02', 'order_price': 2, 'order_type': '16', 'order_code': '16202011236225827187', 'credit': 0, 'admin_id': '0', 'op_user': '', 'status_str': '已支付'}, {'is_refunded': 0, 'pay_type': '', 'goods_type': '10', 'oil_type': '(高标)0', 'oil_gun': '1', 'oil_amount': '0.160000', 'car_no': '', 'pay_time': '2020-11-23 14:56:53', 'order_price': 1, 'order_type': '16', 'order_code': '16202011236135551468', 'credit': 0, 'admin_id': '0', 'op_user': '', 'status_str': '已支付'}]}, 'request_id': '4d0c700fabc80e468c93838279038b30'}</t>
         </is>
       </c>
-      <c r="O7" s="48" t="inlineStr">
+      <c r="O7" s="37" t="inlineStr">
         <is>
           <t>0.546</t>
         </is>
       </c>
-      <c r="P7" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q7" s="46" t="n"/>
-      <c r="R7" s="46" t="inlineStr">
+      <c r="P7" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q7" s="35" t="n"/>
+      <c r="R7" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -4529,23 +4446,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N8" s="47" t="inlineStr">
+      <c r="N8" s="36" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'gun_oil_arr': [{'gun_id': 10307, 'gun_no': 1, 'oil_number': '(高标)0', 'oil_name': '0#车用柴油（高标）', 'oil_type': '2', 'oil_id': '108', 'price': '21000', 'market_price': '21000', 'real_price': 21000, 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 10289, 'gun_no': 10, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 1526, 'gun_no': 11, 'oil_number': '95', 'oil_name': '95#车用汽油', 'oil_type': '1', 'oil_id': '2', 'price': '87000', 'market_price': '87000', 'real_price': 87000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 1518, 'gun_no': 12, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 10351, 'gun_no': 123, 'oil_number': '95', 'oil_name': '95#车用汽油', 'oil_type': '1', 'oil_id': '2', 'price': '87000', 'market_price': '87000', 'real_price': 87000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 9053, 'gun_no': 13, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 10290, 'gun_no': 14, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 10291, 'gun_no': 15, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 10292, 'gun_no': 16, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 429, 'gun_no': 2, 'oil_number': '92', 'oil_name': '92#车用汽油', 'oil_type': '1', 'oil_id': '1', 'price': '56700', 'market_price': '56700', 'real_price': 56700, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 1516, 'gun_no': 3, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 1517, 'gun_no': 4, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 10281, 'gun_no': 5, 'oil_number': '可兰素', 'oil_name': '可兰素', 'oil_type': '6', 'oil_id': '604', 'price': '90000', 'market_price': '90000', 'real_price': 90000, 'standard_name': '尿素', 'icon_url': ''}, {'gun_id': 10282, 'gun_no': 6, 'oil_number': '车用尿素', 'oil_name': '车用尿素', 'oil_type': '6', 'oil_id': '605', 'price': '10000', 'market_price': '10000', 'real_price': 10000, 'standard_name': '尿素', 'icon_url': ''}, {'gun_id': 10288, 'gun_no': 7, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 1525, 'gun_no': 8, 'oil_number': 'LNG', 'oil_name': 'LNG', 'oil_type': '3', 'oil_id': '130', 'price': '40000', 'market_price': '40000', 'real_price': 40000, 'standard_name': '天然气', 'icon_url': ''}, {'gun_id': 1523, 'gun_no': 9, 'oil_number': '(高标)92', 'oil_name': '92#车用汽油（高标）', 'oil_type': '1', 'oil_id': '105', 'price': '110000', 'market_price': '110000', 'real_price': 110000, 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}]}, 'request_id': '365376acc0ea7ffb49add361248cab74'}</t>
         </is>
       </c>
-      <c r="O8" s="48" t="inlineStr">
+      <c r="O8" s="37" t="inlineStr">
         <is>
           <t>0.293</t>
         </is>
       </c>
-      <c r="P8" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q8" s="46" t="n"/>
-      <c r="R8" s="46" t="inlineStr">
+      <c r="P8" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q8" s="35" t="n"/>
+      <c r="R8" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -4601,23 +4518,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N9" s="47" t="inlineStr">
+      <c r="N9" s="36" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'count': 0, 'list': []}, 'request_id': 'c127c20b6e88f8d4dbfa18e32b22d2c2'}</t>
         </is>
       </c>
-      <c r="O9" s="48" t="inlineStr">
+      <c r="O9" s="37" t="inlineStr">
         <is>
           <t>0.216</t>
         </is>
       </c>
-      <c r="P9" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q9" s="46" t="n"/>
-      <c r="R9" s="46" t="inlineStr">
+      <c r="P9" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q9" s="35" t="n"/>
+      <c r="R9" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -4673,23 +4590,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N10" s="47" t="inlineStr">
+      <c r="N10" s="36" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'pay_type': '现金支付', 'pay_status': 4, 'order_code': '110202012083095167524', 'out_trade_no': '110202012083095167524', 'user_info': '', 'oil_code': '110202012083095167524', 'master_code': '110202012083095167524', 'pay_time': '2020-12-08 19:18:29', 'create_time': '2020-12-08 19:18:29', 'cancel_status': 0, 'st_id': 10002, 'order_price': 10, 'pay_amt': 10, 'coupon_fee': 0, 'order_type': 110, 'discount': 0, 'extra_favor': 0, 'market_info': [], 'goods_type': 10, 'oil_type': '(高标)0', 'gun_no': '1', 'oil_gun': '1', 'oil_name': '0#车用柴油（高标）', 'orig_sell_price': 2.1, 'yy_sell_price': 21000, 'oil_amount': 4.76}, 'request_id': '92940dc4f49bfe3c8ba8b87860f04217'}</t>
         </is>
       </c>
-      <c r="O10" s="49" t="inlineStr">
+      <c r="O10" s="38" t="inlineStr">
         <is>
           <t>1.437</t>
         </is>
       </c>
-      <c r="P10" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q10" s="46" t="n"/>
-      <c r="R10" s="46" t="inlineStr">
+      <c r="P10" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q10" s="35" t="n"/>
+      <c r="R10" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -4745,23 +4662,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N11" s="47" t="inlineStr">
+      <c r="N11" s="36" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'pay_type': '现金支付', 'pay_status': 4, 'order_code': '110202012083120701946', 'out_trade_no': '110202012083120701946', 'user_info': '', 'oil_code': '110202012083120701946', 'master_code': '110202012083120701946', 'pay_time': '2020-12-08 19:18:32', 'create_time': '2020-12-08 19:18:32', 'cancel_status': 0, 'st_id': 10002, 'order_price': 10, 'pay_amt': 10, 'coupon_fee': 0, 'order_type': 110, 'discount': 0, 'extra_favor': 0, 'market_info': [], 'goods_type': 10, 'oil_type': '95', 'gun_no': '123', 'oil_gun': '123', 'oil_name': '95#车用汽油', 'orig_sell_price': 8.7, 'yy_sell_price': 87000, 'oil_amount': 1.15}, 'request_id': '37296e4a1eaf3ee41deefdfa08057ca2'}</t>
         </is>
       </c>
-      <c r="O11" s="49" t="inlineStr">
+      <c r="O11" s="38" t="inlineStr">
         <is>
           <t>1.832</t>
         </is>
       </c>
-      <c r="P11" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q11" s="46" t="n"/>
-      <c r="R11" s="46" t="inlineStr">
+      <c r="P11" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q11" s="35" t="n"/>
+      <c r="R11" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -4810,8 +4727,8 @@
     <col width="15" bestFit="1" customWidth="1" style="17" min="16" max="16"/>
     <col width="10.6640625" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
     <col width="6.83203125" bestFit="1" customWidth="1" style="17" min="18" max="18"/>
-    <col width="10.83203125" customWidth="1" style="8" min="19" max="27"/>
-    <col width="10.83203125" customWidth="1" style="8" min="28" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="8" min="19" max="28"/>
+    <col width="10.83203125" customWidth="1" style="8" min="29" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" s="17">
@@ -4820,13 +4737,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="61" t="inlineStr">
+      <c r="B1" s="50" t="inlineStr">
         <is>
           <t>POS机接口冒烟测试</t>
         </is>
       </c>
-      <c r="C1" s="62" t="n"/>
-      <c r="D1" s="62" t="n"/>
+      <c r="C1" s="51" t="n"/>
+      <c r="D1" s="51" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="16" t="n"/>
@@ -4848,9 +4765,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="63" t="n"/>
-      <c r="C2" s="64" t="n"/>
-      <c r="D2" s="64" t="n"/>
+      <c r="B2" s="52" t="n"/>
+      <c r="C2" s="53" t="n"/>
+      <c r="D2" s="53" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="16" t="n"/>
@@ -5114,8 +5031,8 @@
     <col width="15" bestFit="1" customWidth="1" style="17" min="16" max="16"/>
     <col width="10.6640625" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
     <col width="6.83203125" bestFit="1" customWidth="1" style="17" min="18" max="18"/>
-    <col width="10.83203125" customWidth="1" style="8" min="19" max="41"/>
-    <col width="10.83203125" customWidth="1" style="8" min="42" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="8" min="19" max="42"/>
+    <col width="10.83203125" customWidth="1" style="8" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" s="17">
@@ -5124,13 +5041,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="61" t="inlineStr">
+      <c r="B1" s="50" t="inlineStr">
         <is>
           <t>商户后台接口冒烟测试</t>
         </is>
       </c>
-      <c r="C1" s="62" t="n"/>
-      <c r="D1" s="62" t="n"/>
+      <c r="C1" s="51" t="n"/>
+      <c r="D1" s="51" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="16" t="n"/>
@@ -5152,9 +5069,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="63" t="n"/>
-      <c r="C2" s="64" t="n"/>
-      <c r="D2" s="64" t="n"/>
+      <c r="B2" s="52" t="n"/>
+      <c r="C2" s="53" t="n"/>
+      <c r="D2" s="53" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="16" t="n"/>
@@ -5316,23 +5233,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N4" s="47" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '5365', 'admin_name': 'TestAuto', 'real_name': '自动化测试账号-预发布环境', 'admin_type': '2', 'mobile': '15672855599', 'last_login_time': '1607426316', 'status': '1', 'create_time': '1606974646', 'update_time': '1607426316', 'token': '0b5bd6bde27c9c659891df632b9b06d1ae2eb994', 'theme_config': {'platform_name': '能链SaaS', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 430, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '761', 'menu_type': '2', 'parent_id': '283', 'menu_name': '车队卡客户', 'menu_path': '', 'vue_path': 'fleet', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet', 'leve': 4}, {'menu_id': '768', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '769', 'menu_type': '2', 'parent_id': '761', 'menu_name': '分配子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '770', 'menu_type': '2', 'parent_id': '761', 'menu_name': '新增车队卡客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '771', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '772', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '773', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看充值消费分配记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '774', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '775', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '762', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '763', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '764', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '765', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '766', 'menu_type': '2', 'parent_id': '761', 'menu_name': '添加子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '767', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395'</t>
-        </is>
-      </c>
-      <c r="O4" s="49" t="inlineStr">
-        <is>
-          <t>1.298</t>
-        </is>
-      </c>
-      <c r="P4" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q4" s="46" t="n"/>
-      <c r="R4" s="46" t="inlineStr">
+      <c r="N4" s="55" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '9228', 'admin_name': 'TestAuto', 'real_name': '自动化测试账号-线上环境', 'admin_type': '2', 'mobile': '15672955599', 'last_login_time': '1608975259', 'status': '1', 'create_time': '1606974814', 'update_time': '1608975259', 'token': 'c94671a73000cf2c7559529442f2504e8fdf9543', 'theme_config': {'platform_name': '能链云', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 421, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395', 'menu_name': '创建优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add-', 'leve': 5}, {'menu_id': '401', 'menu_type': '2', 'parent_id': '297', 'menu_name': '营销工具', 'menu_path': '', 'vue_path': 'activity_add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add', 'leve': 4}, {'menu_id': '301', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建价立减', 'menu_path': '', 'vue_path': 'cut', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-cut', 'leve': 5}, {'menu_id': '302', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建满额送', 'menu_path': '', 'vue_path': 'reward', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-reward', 'leve': 5}, {'menu_id': '303', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建幸运抽奖', 'menu_path': '', 'vue_path': 'lucky', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-lucky', 'leve': 5}, {'menu_id': '304', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建免单', 'menu_path': '', 'vue_path': 'free', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-free', 'leve': 5}, {'menu_id': '305', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建好友邀请', 'menu_path': '', 'vue_path': 'invite', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-invite', 'leve': 5}, {'menu_id': '562', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建红包', 'menu_path': '', 'vue_path': 'redpacketadd', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-redpacketadd', 'leve': 5}, {'menu_id': '672', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建手动发券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '712', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建满额减', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '758', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建充值送券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '560', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list', 'leve': 3}, {'menu_id': '402', 'menu_type': '2', 'parent_id': '560', 'menu_name': '活动列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list-list', 'leve': 4}, {'menu_id': '578', 'menu_type': '2', 'parent_id': '402', 'menu_name': '查看详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list-list-', 'leve': 5}, {'menu_id': '887', 'menu_type': '2', 'parent_id': '402', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path':</t>
+        </is>
+      </c>
+      <c r="O4" s="56" t="inlineStr">
+        <is>
+          <t>0.739</t>
+        </is>
+      </c>
+      <c r="P4" s="54" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q4" s="54" t="inlineStr"/>
+      <c r="R4" s="54" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -5388,25 +5305,29 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N5" s="47" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': [{'id': '15471', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '604', 'price': '9.00', 'admin_id': '4241', 'start_time': '2020-10-29 11:10:50', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15464', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '1', 'price': '5.67', 'admin_id': '820', 'start_time': '2020-10-23 22:14:36', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15461', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '105', 'price': '11.00', 'admin_id': '820', 'start_time': '2020-10-23 21:57:38', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15458', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '3', 'price': '8.00', 'admin_id': '820', 'start_time': '2020-10-23 21:29:29', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15442', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '2', 'price': '8.70', 'admin_id': '820', 'start_time': '2020-10-23 19:18:48', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15432', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '130', 'price': '4.00', 'admin_id': '820', 'start_time': '2020-10-23 18:08:09', 'energy_name': 'LNG', 'energy_number': 'LNG', 'energy_type': '3', 'standard_name': '天然气', 'icon_url': '', 'type_name': '天然气', 'type_id': '3', 'unit': 'kg', 'status': 1, 'admin_name': ''}, {'id': '15409', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '6', 'price': '1.00', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '89#车用汽油', 'energy_number': '89', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15411', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '4', 'price': '0.98', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15410', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '5', 'price': '0.95', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '-10#车用柴油', 'energy_number': '-10', 'energy_type': '2', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15389', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '605', 'price': '1.00', 'admin_id': '820', 'start_time': '2020-08-06 17:28:50', 'energy_name': '车用尿素', 'energy_number': '车用尿素', 'energy_type': '6', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '13807', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '102', 'price': '1.00', 'admin_id': '1072', 'start_time': '2020-07-17 10:33:23', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '8586', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '402', 'price': '2.32', 'admin_id': '927', 'start_time': '2020-06-01 17:29:51', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '京VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_jing.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '8579', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '602', 'price': '0.56', 'admin_id': '927', 'start_time': '2020-06-01 17:29:37', 'energy_name': '98#车用乙醇汽油', 'energy_number': '98(乙醇)', 'energy_type': '5', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '乙醇汽油', 'type_id': '5', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '1763', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '108', 'price': '2.10', 'admin_id': '181', 'start_time': '2020-01-09 11:53:59', 'energy_name': '0#车用柴油（高标）', 'energy_number': '(高标)0', 'energy_type': '2', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}], 'request_id': '143ceaf349f54895ed9c843f9f7416a2'}</t>
-        </is>
-      </c>
-      <c r="O5" s="48" t="inlineStr">
-        <is>
-          <t>0.392</t>
-        </is>
-      </c>
-      <c r="P5" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q5" s="46" t="n"/>
-      <c r="R5" s="46" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="N5" s="55" t="inlineStr">
+        <is>
+          <t>{'status': 10007, 'info': 'token已过期!', 'reason': '', 'data': [], 'request_id': 'a18380ad35e8a2c3b03018cc12ea4cf6'}</t>
+        </is>
+      </c>
+      <c r="O5" s="56" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
+      </c>
+      <c r="P5" s="54" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q5" s="57" t="inlineStr">
+        <is>
+          <t>{"status":10007,"info":"token\u5df2\u8fc7\u671f!","reason":"","data":[],"request_id":"a18380ad35e8a2c3b03018cc12ea4cf6"}</t>
+        </is>
+      </c>
+      <c r="R5" s="57" t="inlineStr">
+        <is>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -5460,25 +5381,29 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N6" s="47" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'id': '10307', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '1号枪', 'gun_number': '1', 'gun_type': '1001', 'energy_id': '108', 'group_num': '', 'status': '1', 'price': '21000', 'admin_id': '181', 'start_time': '1578542039', 'energy_name': '0#车用柴油（高标）', 'energy_number': '(高标)0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '429', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '2号枪', 'gun_number': '2', 'gun_type': '1001', 'energy_id': '1', 'group_num': 'test', 'status': '1', 'price': '56700', 'admin_id': '820', 'start_time': '1603462476', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1516', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '3号枪', 'gun_number': '3', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1517', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '4号枪', 'gun_number': '4', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10281', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '5号枪', 'gun_number': '5', 'gun_type': '1001', 'energy_id': '604', 'group_num': '测试001', 'status': '1', 'price': '90000', 'admin_id': '4241', 'start_time': '1603941050', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '10282', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '6号枪', 'gun_number': '6', 'gun_type': '1001', 'energy_id': '605', 'group_num': '测试001', 'status': '1', 'price': '10000', 'admin_id': '820', 'start_time': '1596706130', 'energy_name': '车用尿素', 'energy_number': '车用尿素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '10288', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '7号枪', 'gun_number': '7', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1525', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '8号枪', 'gun_number': '8', 'gun_type': '1001', 'energy_id': '130', 'group_num': 'test', 'status': '1', 'price': '40000', 'admin_id': '820', 'start_time': '1603447689', 'energy_name': 'LNG', 'energy_number': 'LNG', 'energy_type': '3', 'unit': 'kg', 'standard_name': '天然气', 'icon_url': '', 'type_name': '天然气', 'type_id': '3', 'retail_status': 1}, {'id': '1523', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '9号枪', 'gun_number': '9', 'gun_type': '1001', 'energy_id': '105', 'group_num': '测试001', 'status': '1', 'price': '110000', 'admin_id': '820', 'start_time': '1603461458', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10289', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '10号枪', 'gun_number': '10', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1526', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '11号枪', 'gun_number': '11', 'gun_type': '1001', 'energy_id': '2', 'group_num': '测试001', 'status': '1', 'price': '87000', 'admin_id': '820', 'start_time': '1603451928', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1518', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '12号枪', 'gun_number': '12', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '9053', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '13号枪', 'gun_number': '13', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10290', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '14号枪', 'gun_number': '14', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10291', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '15号枪', 'gun_number': '15', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10292', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '16号枪', 'gun_number': '16', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10351', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '123号枪', 'gun_number': '123', 'gun_type': '1001', 'energy_id': '2', 'group_num': '', 'status': '1', 'price': '87000', 'admin_id': '820', 'start_time': '1603451928', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 2}], 'request_id': 'f936fce7e0e63f7834bfb32a103ea324'}</t>
-        </is>
-      </c>
-      <c r="O6" s="48" t="inlineStr">
-        <is>
-          <t>0.386</t>
-        </is>
-      </c>
-      <c r="P6" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q6" s="46" t="n"/>
-      <c r="R6" s="46" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="N6" s="55" t="inlineStr">
+        <is>
+          <t>{'status': 10007, 'info': 'token已过期!', 'reason': '', 'data': [], 'request_id': '5de1829230032c5c0fecb07708b94acb'}</t>
+        </is>
+      </c>
+      <c r="O6" s="56" t="inlineStr">
+        <is>
+          <t>0.032</t>
+        </is>
+      </c>
+      <c r="P6" s="54" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q6" s="57" t="inlineStr">
+        <is>
+          <t>{"status":10007,"info":"token\u5df2\u8fc7\u671f!","reason":"","data":[],"request_id":"5de1829230032c5c0fecb07708b94acb"}</t>
+        </is>
+      </c>
+      <c r="R6" s="57" t="inlineStr">
+        <is>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -5532,25 +5457,29 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N7" s="47" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': '操作成功', 'reason': '', 'data': [{'id': '741', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '跨站消费加油卡', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '110', 'energy_number': '柴油'}, {'energy_id': '604', 'energy_number': '可兰素'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '131', 'energy_number': 'CNG'}, {'energy_id': '118', 'energy_number': '98(开票)'}, {'energy_id': '162', 'energy_number': '98(周末价)'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '405', 'energy_number': '95(会员)'}, {'energy_id': '601', 'energy_number': '95(乙醇)'}, {'energy_id': '2', 'energy_number': '95'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '401', 'energy_number': '95'}, {'energy_id': '109', 'energy_number': '93'}, {'energy_id': '404', 'energy_number': '92(会员)'}, {'energy_id': '600', 'energy_number': '92(乙醇)'}, {'energy_id': '1', 'energy_number': '92'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '400', 'energy_number': '92'}, {'energy_id': '104', 'energy_number': '101'}, {'energy_id': '150', 'energy_number': '0#会员价'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '103', 'energy_number': '0'}, {'energy_id': '403', 'energy_number': '0'}, {'energy_id': '107', 'energy_number': '-20'}, {'energy_id': '151', 'energy_number': '-10#会员价'}, {'energy_id': '5', 'energy_number': '-10'}, {'energy_id': '106', 'energy_number': '-10'}, {'energy_id': '111', 'energy_number': '(高标)95'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '100', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '200', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '500', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1593742898', 'update_time': '0', 'status': '0', 'is_del': '0', 'update_date': '2020-07-03 10:21:38', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002', '10001', '10010', '10011', '10004', '10012', '20091'], 'merchant_names': {'10002': '南山第二加油站（零管专用）', '10001': '能链第一加油站', '10010': '测试验收第二加油站', '10011': '测试验收第一加油站', '10004': '由连网络测试加油站', '10012': '费率专用', '20091': '南山第四加油站'}}, {'id': '717', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '新卡多赠', 'type': 3, 'card_type': '1', 'style_type': '3', 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '10', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 1, 'send_money_of_first_recharge': 20, 'create_time': '1593412927', 'update_time': '1606975999', 'status': '0', 'is_del': '0', 'update_date': '2020-12-03 14:13:19', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}], 'request_id': '9c968602cb3e5ac4a31900150cffc25b'}</t>
-        </is>
-      </c>
-      <c r="O7" s="48" t="inlineStr">
-        <is>
-          <t>0.308</t>
-        </is>
-      </c>
-      <c r="P7" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q7" s="46" t="n"/>
-      <c r="R7" s="46" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="N7" s="55" t="inlineStr">
+        <is>
+          <t>{'status': 10007, 'info': 'token已过期!', 'reason': '', 'data': [], 'request_id': '7a0ba508af53a49a94f9222ff0b9f4e8'}</t>
+        </is>
+      </c>
+      <c r="O7" s="56" t="inlineStr">
+        <is>
+          <t>0.037</t>
+        </is>
+      </c>
+      <c r="P7" s="54" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q7" s="57" t="inlineStr">
+        <is>
+          <t>{"status":10007,"info":"token\u5df2\u8fc7\u671f!","reason":"","data":[],"request_id":"7a0ba508af53a49a94f9222ff0b9f4e8"}</t>
+        </is>
+      </c>
+      <c r="R7" s="57" t="inlineStr">
+        <is>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -5604,25 +5533,29 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N8" s="47" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'title': '固定等级', 'value': 'fixed_list', 'key': '1', 'children': [{'title': '测试1', 'value': '306', 'key': '1-306'}, {'title': '兼容性测试等级', 'value': '643', 'key': '1-643'}, {'title': '预发布免审核金额2222', 'value': '799', 'key': '1-799'}, {'title': '固定等级1', 'value': '805', 'key': '1-805'}, {'title': '固定等级2', 'value': '806', 'key': '1-806'}, {'title': '固定等级3', 'value': '807', 'key': '1-807'}, {'title': '固定等级4', 'value': '808', 'key': '1-808'}, {'title': '固定等级5', 'value': '809', 'key': '1-809'}, {'title': '固定等级6', 'value': '810', 'key': '1-810'}, {'title': '固定等级7', 'value': '811', 'key': '1-811'}, {'title': '固定等级8', 'value': '812', 'key': '1-812'}, {'title': '固定等级9', 'value': '813', 'key': '1-813'}, {'title': '固定等级10', 'value': '814', 'key': '1-814'}, {'title': '固定等级11', 'value': '815', 'key': '1-815'}, {'title': '固定等级12', 'value': '816', 'key': '1-816'}, {'title': '固定等级13', 'value': '817', 'key': '1-817'}, {'title': '固定等级14', 'value': '818', 'key': '1-818'}, {'title': '固定等级15', 'value': '819', 'key': '1-819'}, {'title': '固定等级16', 'value': '820', 'key': '1-820'}, {'title': '固定等级17', 'value': '821', 'key': '1-821'}, {'title': '固定等级18', 'value': '822', 'key': '1-822'}, {'title': '固定等级19', 'value': '823', 'key': '1-823'}, {'title': '固定等级20', 'value': '824', 'key': '1-824'}, {'title': '固定等级21', 'value': '825', 'key': '1-825'}, {'title': '固定等级22', 'value': '826', 'key': '1-826'}, {'title': '固定等级23', 'value': '827', 'key': '1-827'}, {'title': '固定等级24', 'value': '828', 'key': '1-828'}, {'title': '固定等级25', 'value': '829', 'key': '1-829'}, {'title': '固定等级26', 'value': '830', 'key': '1-830'}, {'title': '固定等级27', 'value': '831', 'key': '1-831'}, {'title': '固定等级28', 'value': '832', 'key': '1-832'}, {'title': '固定等级29', 'value': '833', 'key': '1-833'}, {'title': '固定等级30', 'value': '834', 'key': '1-834'}, {'title': '固定等级31', 'value': '835', 'key': '1-835'}, {'title': '固定等级32', 'value': '836', 'key': '1-836'}, {'title': '固定等级33', 'value': '837', 'key': '1-837'}, {'title': '固定等级34', 'value': '838', 'key': '1-838'}, {'title': '固定等级35', 'value': '839', 'key': '1-839'}, {'title': '固定等级36', 'value': '840', 'key': '1-840'}, {'title': '固定等级37', 'value': '841', 'key': '1-841'}, {'title': '固定等级38', 'value': '842', 'key': '1-842'}, {'title': '固定等级39', 'value': '843', 'key': '1-843'}, {'title': '固定等级40', 'value': '844', 'key': '1-844'}, {'title': '固定等级41', 'value': '845', 'key': '1-845'}, {'title': '固定等级42', 'value': '846', 'key': '1-846'}, {'title': '固定等级43', 'value': '847', 'key': '1-847'}, {'title': '固定等级44', 'value': '848', 'key': '1-848'}, {'title': '固定等级45', 'value': '849', 'key': '1-849'}, {'title': '固定等级46', 'value': '850', 'key': '1-850'}, {'title': '固定等级47', 'value': '851', 'key': '1-851'}, {'title': '固定等级48', 'value': '852', 'key': '1-852'}, {'title': '固定等级49', 'value': '853', 'key': '1-853'}, {'title': '固定等级50', 'value': '854', 'key': '1-854'}, {'title': '固定等级51', 'value': '855', 'key': '1-855'}, {'title': '固定等级52', 'value': '856', 'key': '1-856'}, {'title': '固定等级53', 'value': '857', 'key': '1-857'}, {'title': '固定等级54', 'value': '858', 'key': '1-858'}, {'title': '固定等级55', 'value': '859', 'key': '1-859'}, {'title': '固定等级56', 'value': '860', 'key': '1-860'}, {'title': '固定等级57', 'value': '861', 'key': '1-861'}, {'title': '固定等级58', 'value': '862', 'key': '1-862'}, {'title': '固定等级59', 'value': '863', 'key': '1-863'}, {'title': '固定等级60', 'value': '864', 'key': '1-864'}, {'title': '固定等级61', 'value': '865', 'key': '1-865'}, {'title': '固定等级62', 'value': '866', 'key': '1-866'}, {'title': '固定等级63', 'value': '867', 'key': '1-867'}, {'title': '固定等级64', 'value': '868', 'key': '1-868'}, {'title': '固定等级65', 'value': '869', 'key': '1-869'}, {'title': '固定等级66', 'value': '870', 'key': '1-870'}, {'title': '固定等级67', 'value': '871', 'key': '1-871'}, {'title': '固定等级68', 'value': '872', 'key': '1-872'}, {'title': '固定等级69', 'value': '873', 'key': '1-873'}, {'title': '固定等级70', 'value': '874', 'key': '1-874'}, {'title': '固定等级71', 'value': '875', 'key': '1-875'}, {'title': '固定等级72', 'value': '876', 'key': '1-876'}, {'title': '固定等级73', 'value': '877', 'key': '1-877'}, {'title': '固定等级74', 'value': '878', 'key': '1-878'}, {'title': '固定等级75', 'value': '879', 'key': '1-879'}, {'title': '固定等级76', 'value': '880', 'key': '1-880'}, {'title': '固定等级77', 'value': '881', 'key': '1-881'}, {'title': '固定等级78', 'value': '882', 'key': '1-882'}, {'title': '固定等级79', 'value': '883', 'key': '1-883'}, {'title': '固定等级80', 'value': '884', 'key': '1-884'}, {'title': '固定等级81', 'value': '885', 'key': '1-885'}, {'title': '固定等级82', 'value': '886', 'key': '1-886'}, {'title': '固定等级83', 'value': '887', 'key': '1-887'}, {'title': '固定等级84', 'value': '888', 'key': '1-888'}, {'title': '固定等级85', 'value': '889', 'key': '1-889'}, {'title': '固定等级86', 'value': '890', 'key': '1-890'}, {'title': '固定等级87', 'value': '891', 'key': '1-891'}, {'title': '固定等级88', 'value': '892', 'key': '1-892'}, {'title': '固定等级89', 'value': '893', 'key': '1-893'}, {'title': '固定等级90', 'value': '894', 'key': '1-894'}, {'title': '固定等级91', 'value': '895', 'key': '1-895'}, {'title': '固定等级92', 'value': '896', 'key': '1-896'}, {'title': '固定等级93', 'value': '897', 'key': '1-897'}, {'title': '等级98', 'value': '898', 'key': '1-898'}, {'title': '等级99', 'value': '899', 'key': '1-899'}, {'title': '等级100', 'value': '900', 'key': '1-900'}]}, {'title': '动态等级', 'value': 'growth_list', 'key': '2', 'children': [{'title': '铜卡会员', 'value': '1', 'key': '2-1'}, {'title': '银卡会员', 'value': '2', 'key': '2-2'}, {'title': '金卡会员', 'value': '3', 'key': '2-3'}, {'title': '白金会员', 'value': '4', 'key': '2-4'}, {'title': '钻石会员', 'value': '5', 'key': '2-5'}]}, {'title': '客户分群', 'value': 'user_group', 'key': '3', 'children': [{'title': '剩余金额条件', 'value': '802', 'key': '3-802'}, {'title': '南山', 'value': '784', 'key': '3-784'}, {'title': '加油卡维度01', 'value': '783', 'key': '3-783'}, {'title': '固定人数', 'value': '780', 'key': '3-780'}, {'title': '条件手机号为无', 'value': '705', 'key': '3-705'}, {'title': '客群创建发券', 'value': '74', 'key': '3-74'}, {'title': '加油卡维度', 'value': '767', 'key': '3-767'}, {'title': '01', 'value': '649', 'key': '3-649'}, {'title': '动态铜卡会员', 'value': '281', 'key': '3-281'}, {'title': '消费油品类型', 'value': '781', 'key': '3-781'}]}, {'title': '客户标签', 'value': 'user_tag', 'key': '4', 'children': [{'title': '测试111', 'value': 3, 'key': '4-3'}]}], 'request_id': 'f575f806713179f616c6630968e0b3b1'}</t>
-        </is>
-      </c>
-      <c r="O8" s="48" t="inlineStr">
-        <is>
-          <t>0.474</t>
-        </is>
-      </c>
-      <c r="P8" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q8" s="46" t="n"/>
-      <c r="R8" s="46" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="N8" s="55" t="inlineStr">
+        <is>
+          <t>{'status': 10007, 'info': 'token已过期!', 'reason': '', 'data': [], 'request_id': '2210cc90096f6802e3b90e3717b9f93c'}</t>
+        </is>
+      </c>
+      <c r="O8" s="56" t="inlineStr">
+        <is>
+          <t>0.030</t>
+        </is>
+      </c>
+      <c r="P8" s="54" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q8" s="57" t="inlineStr">
+        <is>
+          <t>{"status":10007,"info":"token\u5df2\u8fc7\u671f!","reason":"","data":[],"request_id":"2210cc90096f6802e3b90e3717b9f93c"}</t>
+        </is>
+      </c>
+      <c r="R8" s="57" t="inlineStr">
+        <is>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -5680,23 +5613,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N9" s="47" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': {'coupon_id': '10424', 'coupon_name': '日常回归-优惠券', 'merchant_type': 1001, 'merchant_id': 10002, 'price_type': 1, 'price_rule': '{"price":10}', 'date_time_rule_id': 0, 'amount_rule_id': 196, 'identify_rule_id': 0, 'region_rule_id': 197, 'channel_id': 0, 'type': 1, 'settle_type': 0, 'settle_rule': '[]', 'platform': 3, 'is_settle': 0, 'validate_days': 0, 'card_id': '', 'remark': '日常回归点-优惠券创建', 'desc': '{"amount_rule":"\\u53ef\\u5170\\u7d20\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n92#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n92#\\u8f66\\u7528\\u6c7d\\u6cb9\\uff08\\u9ad8\\u6807\\uff09\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n95#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\nLNG\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n89#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n0#\\u8f66\\u7528\\u67f4\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n-10#\\u8f66\\u7528\\u67f4\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n\\u8f66\\u7528\\u5c3f\\u7d20\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u4e59\\u9187\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n0#\\u8f66\\u7528\\u67f4\\u6cb9\\uff08\\u9ad8\\u6807\\uff09\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n","date_time_rule":"","region_rule":"\\u5357\\u5c71\\u7b2c\\u4e8c\\u52a0\\u6cb9\\u7ad9\\uff08\\u96f6\\u7ba1\\u4e13\\u7528\\uff09\\u53ef\\u7528\\n","identify_rule":""}', 'create_time': 1607426365, 'update_time': 1607426365, 'status': 0, 'activation_time': None, 'delete_time': 0, 'coupon_source': 0, 'start_time': 1607426383, 'end_time': 1607426545, 'valid_day': 0, 'limit_count': 0, 'is_open_wx_coupon': 2, 'update_date': None}, 'request_id': '6faee48d01c90cc84515f36e95be292a'}</t>
-        </is>
-      </c>
-      <c r="O9" s="48" t="inlineStr">
-        <is>
-          <t>0.521</t>
-        </is>
-      </c>
-      <c r="P9" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q9" s="46" t="n"/>
-      <c r="R9" s="46" t="inlineStr">
+      <c r="N9" s="55" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': {'coupon_id': '23604', 'coupon_name': '日常回归-优惠券', 'merchant_type': 1001, 'merchant_id': 10002, 'price_type': 1, 'price_rule': '{"price":10}', 'date_time_rule_id': 0, 'amount_rule_id': 51156, 'identify_rule_id': 0, 'region_rule_id': 51157, 'channel_id': 0, 'type': 1, 'settle_type': 0, 'settle_rule': '[]', 'platform': 3, 'is_settle': 0, 'validate_days': 0, 'card_id': '', 'remark': '日常回归点-优惠券创建', 'desc': '{"amount_rule":"CNG\\uff08\\u5145\\u503c\\uff09\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n\\u8f66\\u7528\\u5c3f\\u7d20\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n\\u53ef\\u5170\\u7d20\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n92#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n89#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n0#\\u8f66\\u7528\\u67f4\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n-10#\\u8f66\\u7528\\u67f4\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n92#\\u8f66\\u7528\\u6c7d\\u6cb9\\uff08\\u9ad8\\u6807\\uff09\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u4e59\\u9187\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n95#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n0#\\u8f66\\u7528\\u67f4\\u6cb9\\uff08\\u9ad8\\u6807\\uff09\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n","date_time_rule":"","region_rule":"\\u5357\\u5c71\\u7b2c\\u4e8c\\u52a0\\u6cb9\\u7ad9\\uff08\\u96f6\\u7ba1\\u4e13\\u7528\\uff09\\u53ef\\u7528\\n","identify_rule":""}', 'create_time': 1609157427, 'update_time': 1609157427, 'status': 0, 'activation_time': None, 'delete_time': 0, 'coupon_source': 0, 'start_time': 1609157444, 'end_time': 1609157606, 'valid_day': 0, 'limit_count': 0, 'is_open_wx_coupon': 2, 'update_date': None}, 'request_id': '21e068660e6f68929292bb0dc9f537a1'}</t>
+        </is>
+      </c>
+      <c r="O9" s="56" t="inlineStr">
+        <is>
+          <t>0.447</t>
+        </is>
+      </c>
+      <c r="P9" s="54" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q9" s="54" t="inlineStr"/>
+      <c r="R9" s="54" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -5752,25 +5685,29 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N10" s="47" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': True, 'request_id': '2610b86d9d5ad4df9979598c4b75018a'}</t>
-        </is>
-      </c>
-      <c r="O10" s="48" t="inlineStr">
-        <is>
-          <t>0.267</t>
-        </is>
-      </c>
-      <c r="P10" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q10" s="46" t="n"/>
-      <c r="R10" s="46" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="N10" s="55" t="inlineStr">
+        <is>
+          <t>{'status': 10007, 'info': 'token已过期!', 'reason': '', 'data': [], 'request_id': '61df8adb766faa59718fd35bd148a4d3'}</t>
+        </is>
+      </c>
+      <c r="O10" s="56" t="inlineStr">
+        <is>
+          <t>0.037</t>
+        </is>
+      </c>
+      <c r="P10" s="54" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q10" s="57" t="inlineStr">
+        <is>
+          <t>{"status":10007,"info":"token\u5df2\u8fc7\u671f!","reason":"","data":[],"request_id":"61df8adb766faa59718fd35bd148a4d3"}</t>
+        </is>
+      </c>
+      <c r="R10" s="57" t="inlineStr">
+        <is>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -5828,25 +5765,29 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N11" s="47" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '2429'}, 'request_id': '6045c1b0c4e004d30b9ec97fbcffabef'}</t>
-        </is>
-      </c>
-      <c r="O11" s="48" t="inlineStr">
-        <is>
-          <t>0.356</t>
-        </is>
-      </c>
-      <c r="P11" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q11" s="46" t="n"/>
-      <c r="R11" s="46" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="N11" s="55" t="inlineStr">
+        <is>
+          <t>{'status': 10007, 'info': 'token已过期!', 'reason': '', 'data': [], 'request_id': '7c2692d8ae164e4936c503786f6fffef'}</t>
+        </is>
+      </c>
+      <c r="O11" s="56" t="inlineStr">
+        <is>
+          <t>0.054</t>
+        </is>
+      </c>
+      <c r="P11" s="54" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q11" s="57" t="inlineStr">
+        <is>
+          <t>{"status":10007,"info":"token\u5df2\u8fc7\u671f!","reason":"","data":[],"request_id":"7c2692d8ae164e4936c503786f6fffef"}</t>
+        </is>
+      </c>
+      <c r="R11" s="57" t="inlineStr">
+        <is>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -5904,25 +5845,29 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N12" s="47" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '6050'}, 'request_id': 'ac52542e4435d9fd29f99359e446af4a'}</t>
-        </is>
-      </c>
-      <c r="O12" s="48" t="inlineStr">
-        <is>
-          <t>0.417</t>
-        </is>
-      </c>
-      <c r="P12" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q12" s="46" t="n"/>
-      <c r="R12" s="46" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="N12" s="55" t="inlineStr">
+        <is>
+          <t>{'status': 10007, 'info': 'token已过期!', 'reason': '', 'data': [], 'request_id': '63560aa97d1eb7fef23ea3285c0d9f9a'}</t>
+        </is>
+      </c>
+      <c r="O12" s="56" t="inlineStr">
+        <is>
+          <t>0.036</t>
+        </is>
+      </c>
+      <c r="P12" s="54" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q12" s="57" t="inlineStr">
+        <is>
+          <t>{"status":10007,"info":"token\u5df2\u8fc7\u671f!","reason":"","data":[],"request_id":"63560aa97d1eb7fef23ea3285c0d9f9a"}</t>
+        </is>
+      </c>
+      <c r="R12" s="57" t="inlineStr">
+        <is>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -5980,25 +5925,29 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N13" s="47" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '1413'}, 'request_id': '6fa5d4c35990cd2146602b77e8fff5a3'}</t>
-        </is>
-      </c>
-      <c r="O13" s="48" t="inlineStr">
-        <is>
-          <t>0.302</t>
-        </is>
-      </c>
-      <c r="P13" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q13" s="46" t="n"/>
-      <c r="R13" s="46" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="N13" s="55" t="inlineStr">
+        <is>
+          <t>{'status': 10007, 'info': 'token已过期!', 'reason': '', 'data': [], 'request_id': 'ef7bae2214f6145d03a654e852186d39'}</t>
+        </is>
+      </c>
+      <c r="O13" s="56" t="inlineStr">
+        <is>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="P13" s="54" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q13" s="57" t="inlineStr">
+        <is>
+          <t>{"status":10007,"info":"token\u5df2\u8fc7\u671f!","reason":"","data":[],"request_id":"ef7bae2214f6145d03a654e852186d39"}</t>
+        </is>
+      </c>
+      <c r="R13" s="57" t="inlineStr">
+        <is>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -6056,25 +6005,29 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N14" s="47" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'appid': 'wx73a8de5287159207', 'stationName': '南山第二加油站（零管专用）', 'pathInfo': {'qr_url': 'https://api.shylwlkj.com/q/?r=1&amp;a=game&amp;c=5fcf61411ba53', 'path': '/activityPackage/redpacketActivity/redpacket/redpacket?q=c%3D5fcf61411ba53'}}], 'request_id': '9be17721322fc0e44e03d096a4a6542d'}</t>
-        </is>
-      </c>
-      <c r="O14" s="48" t="inlineStr">
-        <is>
-          <t>0.671</t>
-        </is>
-      </c>
-      <c r="P14" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q14" s="46" t="n"/>
-      <c r="R14" s="46" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="N14" s="55" t="inlineStr">
+        <is>
+          <t>{'status': 10007, 'info': 'token已过期!', 'reason': '', 'data': [], 'request_id': '4a5077fd0ed75871809822b2b41170bd'}</t>
+        </is>
+      </c>
+      <c r="O14" s="56" t="inlineStr">
+        <is>
+          <t>0.033</t>
+        </is>
+      </c>
+      <c r="P14" s="54" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q14" s="57" t="inlineStr">
+        <is>
+          <t>{"status":10007,"info":"token\u5df2\u8fc7\u671f!","reason":"","data":[],"request_id":"4a5077fd0ed75871809822b2b41170bd"}</t>
+        </is>
+      </c>
+      <c r="R14" s="57" t="inlineStr">
+        <is>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -6132,25 +6085,29 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N15" s="47" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '256'}, 'request_id': '52533f75424677e30613e6d6319f92f2'}</t>
-        </is>
-      </c>
-      <c r="O15" s="48" t="inlineStr">
-        <is>
-          <t>0.379</t>
-        </is>
-      </c>
-      <c r="P15" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q15" s="46" t="n"/>
-      <c r="R15" s="46" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="N15" s="55" t="inlineStr">
+        <is>
+          <t>{'status': 10007, 'info': 'token已过期!', 'reason': '', 'data': [], 'request_id': 'f52b1d50132e9c1d37db8bbf1c1953f0'}</t>
+        </is>
+      </c>
+      <c r="O15" s="56" t="inlineStr">
+        <is>
+          <t>0.191</t>
+        </is>
+      </c>
+      <c r="P15" s="54" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q15" s="57" t="inlineStr">
+        <is>
+          <t>{"status":10007,"info":"token\u5df2\u8fc7\u671f!","reason":"","data":[],"request_id":"f52b1d50132e9c1d37db8bbf1c1953f0"}</t>
+        </is>
+      </c>
+      <c r="R15" s="57" t="inlineStr">
+        <is>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -6208,25 +6165,29 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N16" s="47" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': {'id': '535'}, 'request_id': 'dcdf0c367be0dc61f13c3ad295b581e6'}</t>
-        </is>
-      </c>
-      <c r="O16" s="48" t="inlineStr">
-        <is>
-          <t>0.531</t>
-        </is>
-      </c>
-      <c r="P16" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q16" s="46" t="n"/>
-      <c r="R16" s="46" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="N16" s="55" t="inlineStr">
+        <is>
+          <t>{'status': 10007, 'info': 'token已过期!', 'reason': '', 'data': [], 'request_id': '9244b8c5348bb8e40b57d82a3d90127e'}</t>
+        </is>
+      </c>
+      <c r="O16" s="56" t="inlineStr">
+        <is>
+          <t>0.073</t>
+        </is>
+      </c>
+      <c r="P16" s="54" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q16" s="57" t="inlineStr">
+        <is>
+          <t>{"status":10007,"info":"token\u5df2\u8fc7\u671f!","reason":"","data":[],"request_id":"9244b8c5348bb8e40b57d82a3d90127e"}</t>
+        </is>
+      </c>
+      <c r="R16" s="57" t="inlineStr">
+        <is>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -6284,25 +6245,29 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N17" s="47" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'activity_id': '606', 'activity_name': '日常回归-幸运抽奖', 'start_time': '2020-12-08 19:19:49', 'end_time': '2020-12-08 19:22:31', 'merchant_data': {'wx73a8de5287159207': {'app_id': 'wx73a8de5287159207', 'app_type': 2, 'appid_name': None, 'activity_code': '8a627d9680de6d9712f29f8e0951c73f', 'qr_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;p=game&amp;a=dzp&amp;id=606', 'path': '/activityPackage/turntableActivity/index/index?id=606', 'merchant_list': [{'merchant_type': 1001, 'merchant_id': 10002, 'merchant_name': '--'}]}}}, 'request_id': '1f44c632a859360652c49dcb5bbc3cb1'}</t>
-        </is>
-      </c>
-      <c r="O17" s="48" t="inlineStr">
-        <is>
-          <t>0.339</t>
-        </is>
-      </c>
-      <c r="P17" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q17" s="46" t="n"/>
-      <c r="R17" s="46" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="N17" s="55" t="inlineStr">
+        <is>
+          <t>{'status': 10007, 'info': 'token已过期!', 'reason': '', 'data': [], 'request_id': 'c06ff63e72ca0c2f12764587ad7adf26'}</t>
+        </is>
+      </c>
+      <c r="O17" s="56" t="inlineStr">
+        <is>
+          <t>0.072</t>
+        </is>
+      </c>
+      <c r="P17" s="54" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q17" s="57" t="inlineStr">
+        <is>
+          <t>{"status":10007,"info":"token\u5df2\u8fc7\u671f!","reason":"","data":[],"request_id":"c06ff63e72ca0c2f12764587ad7adf26"}</t>
+        </is>
+      </c>
+      <c r="R17" s="57" t="inlineStr">
+        <is>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -6360,25 +6325,29 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N18" s="47" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': [{'activity_url': '/activityPackage/inviteFriends/index/index?activity_id=1059', 'qr_code': 'https://uat-authentication-1258898587.cos.ap-beijing.myqcloud.com/public/activity/invite/1059/22519d13d94b70239d62c3c90247.png', 'appid': 'wx73a8de5287159207', 'merchant_names': '南山第二加油站（零管专用）'}], 'request_id': '123458b4470125e58f9f2e38519ccdce'}</t>
-        </is>
-      </c>
-      <c r="O18" s="49" t="inlineStr">
-        <is>
-          <t>1.169</t>
-        </is>
-      </c>
-      <c r="P18" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q18" s="46" t="n"/>
-      <c r="R18" s="46" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="N18" s="55" t="inlineStr">
+        <is>
+          <t>{'status': 10007, 'info': 'token已过期!', 'reason': '', 'data': [], 'request_id': '40bf513355824efda3931e51d36a3557'}</t>
+        </is>
+      </c>
+      <c r="O18" s="56" t="inlineStr">
+        <is>
+          <t>0.207</t>
+        </is>
+      </c>
+      <c r="P18" s="54" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q18" s="57" t="inlineStr">
+        <is>
+          <t>{"status":10007,"info":"token\u5df2\u8fc7\u671f!","reason":"","data":[],"request_id":"40bf513355824efda3931e51d36a3557"}</t>
+        </is>
+      </c>
+      <c r="R18" s="57" t="inlineStr">
+        <is>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -6432,25 +6401,29 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N19" s="47" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': '退出成功!', 'reason': '', 'data': [], 'request_id': 'e0edf7a843abf7296780cd9849de7076'}</t>
-        </is>
-      </c>
-      <c r="O19" s="48" t="inlineStr">
-        <is>
-          <t>0.091</t>
-        </is>
-      </c>
-      <c r="P19" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q19" s="46" t="n"/>
-      <c r="R19" s="46" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="N19" s="55" t="inlineStr">
+        <is>
+          <t>{'status': 10007, 'info': 'token已过期!', 'reason': '', 'data': [], 'request_id': '1ebd4f340c0dc5b0fd013d22ffdb6224'}</t>
+        </is>
+      </c>
+      <c r="O19" s="56" t="inlineStr">
+        <is>
+          <t>0.310</t>
+        </is>
+      </c>
+      <c r="P19" s="54" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q19" s="57" t="inlineStr">
+        <is>
+          <t>{"status":10007,"info":"token已过期!","reason":"","data":[],"request_id":"1ebd4f340c0dc5b0fd013d22ffdb6224"}</t>
+        </is>
+      </c>
+      <c r="R19" s="57" t="inlineStr">
+        <is>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -6473,10 +6446,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A5" sqref="A5:XFD235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelCol="0"/>
@@ -6487,7 +6460,7 @@
     <col width="44.6640625" customWidth="1" style="17" min="5" max="5"/>
     <col width="8.83203125" bestFit="1" customWidth="1" style="17" min="6" max="6"/>
     <col width="55.6640625" bestFit="1" customWidth="1" style="17" min="7" max="7"/>
-    <col width="97.1640625" bestFit="1" customWidth="1" style="34" min="8" max="8"/>
+    <col width="97.1640625" bestFit="1" customWidth="1" style="31" min="8" max="8"/>
     <col width="52" customWidth="1" style="17" min="9" max="9"/>
     <col width="39.83203125" customWidth="1" style="17" min="10" max="10"/>
     <col width="9.6640625" bestFit="1" customWidth="1" style="17" min="11" max="11"/>
@@ -6498,8 +6471,8 @@
     <col width="15" bestFit="1" customWidth="1" style="17" min="16" max="16"/>
     <col width="10.6640625" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
     <col width="6.83203125" bestFit="1" customWidth="1" style="17" min="18" max="18"/>
-    <col width="10.83203125" customWidth="1" style="8" min="19" max="41"/>
-    <col width="10.83203125" customWidth="1" style="8" min="42" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="8" min="19" max="42"/>
+    <col width="10.83203125" customWidth="1" style="8" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" s="17">
@@ -6508,13 +6481,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="61" t="inlineStr">
+      <c r="B1" s="50" t="inlineStr">
         <is>
           <t>商户后台接口冒烟测试</t>
         </is>
       </c>
-      <c r="C1" s="62" t="n"/>
-      <c r="D1" s="62" t="n"/>
+      <c r="C1" s="51" t="n"/>
+      <c r="D1" s="51" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="16" t="n"/>
@@ -6536,9 +6509,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="63" t="n"/>
-      <c r="C2" s="64" t="n"/>
-      <c r="D2" s="64" t="n"/>
+      <c r="B2" s="52" t="n"/>
+      <c r="C2" s="53" t="n"/>
+      <c r="D2" s="53" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="16" t="n"/>
@@ -6701,130 +6674,10 @@
         </is>
       </c>
       <c r="N4" s="27" t="n"/>
-      <c r="O4" s="44" t="n"/>
-      <c r="P4" s="42" t="n"/>
-      <c r="Q4" s="42" t="n"/>
-      <c r="R4" s="42" t="n"/>
-    </row>
-    <row r="5" ht="36" customHeight="1" s="17">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="10" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="18" t="n"/>
-      <c r="H5" s="6" t="n"/>
-      <c r="I5" s="14" t="n"/>
-      <c r="J5" s="14" t="n"/>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="n"/>
-      <c r="M5" s="3" t="n"/>
-      <c r="N5" s="43" t="n"/>
-      <c r="O5" s="44" t="n"/>
-      <c r="P5" s="42" t="n"/>
-      <c r="Q5" s="42" t="n"/>
-      <c r="R5" s="42" t="n"/>
-    </row>
-    <row r="6" ht="36" customHeight="1" s="17">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="10" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="18" t="n"/>
-      <c r="H6" s="6" t="n"/>
-      <c r="I6" s="14" t="n"/>
-      <c r="J6" s="14" t="n"/>
-      <c r="K6" s="3" t="n"/>
-      <c r="L6" s="3" t="n"/>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="43" t="n"/>
-      <c r="O6" s="44" t="n"/>
-      <c r="P6" s="42" t="n"/>
-      <c r="Q6" s="42" t="n"/>
-      <c r="R6" s="42" t="n"/>
-    </row>
-    <row r="7" ht="36" customHeight="1" s="17">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="10" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="18" t="n"/>
-      <c r="H7" s="6" t="n"/>
-      <c r="I7" s="14" t="n"/>
-      <c r="J7" s="14" t="n"/>
-      <c r="K7" s="3" t="n"/>
-      <c r="L7" s="3" t="n"/>
-      <c r="M7" s="3" t="n"/>
-      <c r="N7" s="40" t="n"/>
-      <c r="O7" s="41" t="n"/>
-      <c r="P7" s="39" t="n"/>
-      <c r="Q7" s="39" t="n"/>
-      <c r="R7" s="39" t="n"/>
-    </row>
-    <row r="8" ht="36" customHeight="1" s="17">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="10" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="18" t="n"/>
-      <c r="H8" s="6" t="n"/>
-      <c r="I8" s="14" t="n"/>
-      <c r="J8" s="14" t="n"/>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="3" t="n"/>
-      <c r="M8" s="3" t="n"/>
-      <c r="N8" s="40" t="n"/>
-      <c r="O8" s="41" t="n"/>
-      <c r="P8" s="39" t="n"/>
-      <c r="Q8" s="39" t="n"/>
-      <c r="R8" s="39" t="n"/>
-    </row>
-    <row r="9" ht="36" customHeight="1" s="17">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="10" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="18" t="n"/>
-      <c r="H9" s="6" t="n"/>
-      <c r="I9" s="14" t="n"/>
-      <c r="J9" s="14" t="n"/>
-      <c r="K9" s="3" t="n"/>
-      <c r="L9" s="3" t="n"/>
-      <c r="M9" s="3" t="n"/>
-      <c r="N9" s="36" t="n"/>
-      <c r="O9" s="37" t="n"/>
-      <c r="P9" s="35" t="n"/>
-      <c r="Q9" s="38" t="n"/>
-      <c r="R9" s="38" t="n"/>
-    </row>
-    <row r="10" ht="36" customHeight="1" s="17">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="10" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="18" t="n"/>
-      <c r="H10" s="6" t="n"/>
-      <c r="I10" s="14" t="n"/>
-      <c r="J10" s="14" t="n"/>
-      <c r="K10" s="3" t="n"/>
-      <c r="L10" s="3" t="n"/>
-      <c r="M10" s="3" t="n"/>
-      <c r="N10" s="32" t="n"/>
-      <c r="O10" s="33" t="n"/>
-      <c r="P10" s="31" t="n"/>
-      <c r="Q10" s="31" t="n"/>
-      <c r="R10" s="31" t="n"/>
+      <c r="O4" s="33" t="n"/>
+      <c r="P4" s="32" t="n"/>
+      <c r="Q4" s="32" t="n"/>
+      <c r="R4" s="32" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6845,10 +6698,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelCol="0"/>
@@ -6870,8 +6723,8 @@
     <col width="15" bestFit="1" customWidth="1" style="17" min="16" max="16"/>
     <col width="10.6640625" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
     <col width="6.83203125" bestFit="1" customWidth="1" style="17" min="18" max="18"/>
-    <col width="10.83203125" customWidth="1" style="8" min="19" max="20"/>
-    <col width="10.83203125" customWidth="1" style="8" min="21" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="8" min="19" max="21"/>
+    <col width="10.83203125" customWidth="1" style="8" min="22" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" s="17">
@@ -6880,13 +6733,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="61" t="inlineStr">
+      <c r="B1" s="50" t="inlineStr">
         <is>
           <t>POS机接口冒烟测试</t>
         </is>
       </c>
-      <c r="C1" s="62" t="n"/>
-      <c r="D1" s="62" t="n"/>
+      <c r="C1" s="51" t="n"/>
+      <c r="D1" s="51" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="16" t="n"/>
@@ -6908,9 +6761,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="63" t="n"/>
-      <c r="C2" s="64" t="n"/>
-      <c r="D2" s="64" t="n"/>
+      <c r="B2" s="52" t="n"/>
+      <c r="C2" s="53" t="n"/>
+      <c r="D2" s="53" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="16" t="n"/>
@@ -7072,19 +6925,19 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N4" s="47" t="n"/>
-      <c r="O4" s="49" t="inlineStr">
+      <c r="N4" s="36" t="n"/>
+      <c r="O4" s="38" t="inlineStr">
         <is>
           <t>2.026</t>
         </is>
       </c>
-      <c r="P4" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q4" s="46" t="n"/>
-      <c r="R4" s="46" t="inlineStr">
+      <c r="P4" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q4" s="35" t="n"/>
+      <c r="R4" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7140,19 +6993,19 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N5" s="47" t="n"/>
-      <c r="O5" s="48" t="inlineStr">
+      <c r="N5" s="36" t="n"/>
+      <c r="O5" s="37" t="inlineStr">
         <is>
           <t>0.719</t>
         </is>
       </c>
-      <c r="P5" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q5" s="46" t="n"/>
-      <c r="R5" s="46" t="inlineStr">
+      <c r="P5" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q5" s="35" t="n"/>
+      <c r="R5" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7208,19 +7061,19 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N6" s="47" t="n"/>
-      <c r="O6" s="49" t="inlineStr">
+      <c r="N6" s="36" t="n"/>
+      <c r="O6" s="38" t="inlineStr">
         <is>
           <t>1.067</t>
         </is>
       </c>
-      <c r="P6" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q6" s="46" t="n"/>
-      <c r="R6" s="46" t="inlineStr">
+      <c r="P6" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q6" s="35" t="n"/>
+      <c r="R6" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7276,19 +7129,19 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N7" s="47" t="n"/>
-      <c r="O7" s="48" t="inlineStr">
+      <c r="N7" s="36" t="n"/>
+      <c r="O7" s="37" t="inlineStr">
         <is>
           <t>0.546</t>
         </is>
       </c>
-      <c r="P7" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q7" s="46" t="n"/>
-      <c r="R7" s="46" t="inlineStr">
+      <c r="P7" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q7" s="35" t="n"/>
+      <c r="R7" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7344,19 +7197,19 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N8" s="47" t="n"/>
-      <c r="O8" s="48" t="inlineStr">
+      <c r="N8" s="36" t="n"/>
+      <c r="O8" s="37" t="inlineStr">
         <is>
           <t>0.293</t>
         </is>
       </c>
-      <c r="P8" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q8" s="46" t="n"/>
-      <c r="R8" s="46" t="inlineStr">
+      <c r="P8" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q8" s="35" t="n"/>
+      <c r="R8" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7412,19 +7265,19 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N9" s="47" t="n"/>
-      <c r="O9" s="48" t="inlineStr">
+      <c r="N9" s="36" t="n"/>
+      <c r="O9" s="37" t="inlineStr">
         <is>
           <t>0.216</t>
         </is>
       </c>
-      <c r="P9" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q9" s="46" t="n"/>
-      <c r="R9" s="46" t="inlineStr">
+      <c r="P9" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q9" s="35" t="n"/>
+      <c r="R9" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7480,19 +7333,19 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N10" s="47" t="n"/>
-      <c r="O10" s="49" t="inlineStr">
+      <c r="N10" s="36" t="n"/>
+      <c r="O10" s="38" t="inlineStr">
         <is>
           <t>1.437</t>
         </is>
       </c>
-      <c r="P10" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q10" s="46" t="n"/>
-      <c r="R10" s="46" t="inlineStr">
+      <c r="P10" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q10" s="35" t="n"/>
+      <c r="R10" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7548,19 +7401,87 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N11" s="47" t="n"/>
-      <c r="O11" s="49" t="inlineStr">
+      <c r="N11" s="36" t="n"/>
+      <c r="O11" s="38" t="inlineStr">
         <is>
           <t>1.832</t>
         </is>
       </c>
-      <c r="P11" s="46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q11" s="46" t="n"/>
-      <c r="R11" s="46" t="inlineStr">
+      <c r="P11" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q11" s="35" t="n"/>
+      <c r="R11" s="35" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="36" customHeight="1" s="17">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>POS机</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>POS机收银</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>非零管-输入金额-现金支付</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>/order/codeOrder</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="G12" s="18" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/x-www-form-urlencoded'}</t>
+        </is>
+      </c>
+      <c r="H12" s="25" t="n"/>
+      <c r="I12" s="14" t="n"/>
+      <c r="J12" s="14" t="inlineStr">
+        <is>
+          <t>token=5ca68c3b-4cb5-483d-2251-7bf2e5cff83e&amp;data=%7B%22gun_number%22%3A%22123%22%2C%22gun_id%22%3A3073%2C%22oil_name%22%3A%220%23%E8%BD%A6%E7%94%A8%E6%9F%B4%E6%B2%B9%22%2C%22energy_type%22%3A%222%22%2C%22energy_number%22%3A%221%22%2C%22oil_id%22%3A%221402%22%2C%22price%22%3A%2245800%22%2C%22code%22%3A%22%22%2C%22amount%22%3A%2210%22%2C%22volume%22%3A%22%22%2C%22retail_order_id%22%3A%22%22%2C%22pay_way%22%3A%222%22%2C%22st_id%22%3A10001%7D&amp;device_sn=V203198K00506&amp;app_version=1.7.7&amp;device_id=869438031513486&amp;role=0&amp;user_id=1344</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N12" s="36" t="n"/>
+      <c r="O12" s="38" t="inlineStr">
+        <is>
+          <t>1.832</t>
+        </is>
+      </c>
+      <c r="P12" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q12" s="35" t="n"/>
+      <c r="R12" s="35" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7576,4 +7497,344 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelCol="0"/>
+  <cols>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="17" min="1" max="2"/>
+    <col width="11.1640625" bestFit="1" customWidth="1" style="17" min="3" max="3"/>
+    <col width="40.5" bestFit="1" customWidth="1" style="17" min="4" max="4"/>
+    <col width="26.1640625" customWidth="1" style="17" min="5" max="5"/>
+    <col width="8.83203125" bestFit="1" customWidth="1" style="17" min="6" max="6"/>
+    <col width="55.6640625" bestFit="1" customWidth="1" style="17" min="7" max="7"/>
+    <col width="97.1640625" bestFit="1" customWidth="1" style="17" min="8" max="8"/>
+    <col width="52" customWidth="1" style="17" min="9" max="9"/>
+    <col width="39.83203125" customWidth="1" style="17" min="10" max="10"/>
+    <col width="9.6640625" bestFit="1" customWidth="1" style="17" min="11" max="11"/>
+    <col width="41.1640625" customWidth="1" style="17" min="12" max="12"/>
+    <col width="12.33203125" bestFit="1" customWidth="1" style="17" min="13" max="13"/>
+    <col width="86.5" customWidth="1" style="17" min="14" max="14"/>
+    <col width="6.6640625" bestFit="1" customWidth="1" style="17" min="15" max="15"/>
+    <col width="15" bestFit="1" customWidth="1" style="17" min="16" max="16"/>
+    <col width="10.6640625" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
+    <col width="6.83203125" bestFit="1" customWidth="1" style="17" min="18" max="18"/>
+    <col width="10.83203125" customWidth="1" style="8" min="19" max="42"/>
+    <col width="10.83203125" customWidth="1" style="8" min="43" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33" customHeight="1" s="17">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>用例名称</t>
+        </is>
+      </c>
+      <c r="B1" s="50" t="inlineStr">
+        <is>
+          <t>商户后台接口冒烟测试</t>
+        </is>
+      </c>
+      <c r="C1" s="51" t="n"/>
+      <c r="D1" s="51" t="n"/>
+      <c r="E1" s="4" t="n"/>
+      <c r="F1" s="4" t="n"/>
+      <c r="G1" s="16" t="n"/>
+      <c r="H1" s="16" t="n"/>
+      <c r="I1" s="4" t="n"/>
+      <c r="J1" s="14" t="n"/>
+      <c r="K1" s="16" t="n"/>
+      <c r="L1" s="22" t="n"/>
+      <c r="M1" s="4" t="n"/>
+      <c r="N1" s="15" t="n"/>
+      <c r="O1" s="4" t="n"/>
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="5" t="n"/>
+      <c r="R1" s="5" t="n"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" s="17">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>用例说明</t>
+        </is>
+      </c>
+      <c r="B2" s="52" t="n"/>
+      <c r="C2" s="53" t="n"/>
+      <c r="D2" s="53" t="n"/>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="13" t="n"/>
+      <c r="I2" s="7" t="inlineStr">
+        <is>
+          <t>{"admin_name":"hang0813002","password":"wh0813"}</t>
+        </is>
+      </c>
+      <c r="J2" s="14" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="22" t="n"/>
+      <c r="M2" s="4" t="n"/>
+      <c r="N2" s="20" t="n"/>
+      <c r="O2" s="4" t="n"/>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="5" t="n"/>
+      <c r="R2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="17" customHeight="1" s="17">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>接口名称</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>headers</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>updatadict</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>timedata</t>
+        </is>
+      </c>
+      <c r="L3" s="11" t="inlineStr">
+        <is>
+          <t>associateid</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>checkstatus</t>
+        </is>
+      </c>
+      <c r="N3" s="21" t="inlineStr">
+        <is>
+          <t>response</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>times</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>httpcoderesult</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>error_msg</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="36" customHeight="1" s="17">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>商户后台登录</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>正常登录</t>
+        </is>
+      </c>
+      <c r="E4" s="10" t="inlineStr">
+        <is>
+          <t>/api/user/Login/login_admin</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G4" s="18" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H4" s="25" t="inlineStr">
+        <is>
+          <t>{"admin_name":"TestAuto","password":"testauto6","admin_type":2,"login_type":1,"token":""}</t>
+        </is>
+      </c>
+      <c r="I4" s="8" t="n"/>
+      <c r="J4" s="14" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N4" s="36" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '5365', 'admin_name': 'TestAuto', 'real_name': '自动化测试账号-预发布环境', 'admin_type': '2', 'mobile': '15672855599', 'last_login_time': '1607426316', 'status': '1', 'create_time': '1606974646', 'update_time': '1607426316', 'token': '0b5bd6bde27c9c659891df632b9b06d1ae2eb994', 'theme_config': {'platform_name': '能链SaaS', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 430, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '761', 'menu_type': '2', 'parent_id': '283', 'menu_name': '车队卡客户', 'menu_path': '', 'vue_path': 'fleet', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet', 'leve': 4}, {'menu_id': '768', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '769', 'menu_type': '2', 'parent_id': '761', 'menu_name': '分配子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '770', 'menu_type': '2', 'parent_id': '761', 'menu_name': '新增车队卡客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '771', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '772', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '773', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看充值消费分配记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '774', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '775', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '762', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '763', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '764', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '765', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '766', 'menu_type': '2', 'parent_id': '761', 'menu_name': '添加子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '767', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395'</t>
+        </is>
+      </c>
+      <c r="O4" s="38" t="inlineStr">
+        <is>
+          <t>1.298</t>
+        </is>
+      </c>
+      <c r="P4" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q4" s="35" t="n"/>
+      <c r="R4" s="35" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="36" customHeight="1" s="17">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>油品</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>获取油品信息</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t>/api/energy/energy/get_energy_price_list</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G5" s="18" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H5" s="25" t="inlineStr">
+        <is>
+          <t>{"merchant_type":1001,"token":"eab780255b736c0e0eb7c272146c125ff6b566d0","merchant_id":"10002"}</t>
+        </is>
+      </c>
+      <c r="I5" s="14" t="n"/>
+      <c r="J5" s="14" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N5" s="36" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': [{'id': '15471', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '604', 'price': '9.00', 'admin_id': '4241', 'start_time': '2020-10-29 11:10:50', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15464', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '1', 'price': '5.67', 'admin_id': '820', 'start_time': '2020-10-23 22:14:36', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15461', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '105', 'price': '11.00', 'admin_id': '820', 'start_time': '2020-10-23 21:57:38', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15458', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '3', 'price': '8.00', 'admin_id': '820', 'start_time': '2020-10-23 21:29:29', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15442', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '2', 'price': '8.70', 'admin_id': '820', 'start_time': '2020-10-23 19:18:48', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15432', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '130', 'price': '4.00', 'admin_id': '820', 'start_time': '2020-10-23 18:08:09', 'energy_name': 'LNG', 'energy_number': 'LNG', 'energy_type': '3', 'standard_name': '天然气', 'icon_url': '', 'type_name': '天然气', 'type_id': '3', 'unit': 'kg', 'status': 1, 'admin_name': ''}, {'id': '15409', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '6', 'price': '1.00', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '89#车用汽油', 'energy_number': '89', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15411', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '4', 'price': '0.98', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15410', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '5', 'price': '0.95', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '-10#车用柴油', 'energy_number': '-10', 'energy_type': '2', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15389', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '605', 'price': '1.00', 'admin_id': '820', 'start_time': '2020-08-06 17:28:50', 'energy_name': '车用尿素', 'energy_number': '车用尿素', 'energy_type': '6', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '13807', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '102', 'price': '1.00', 'admin_id': '1072', 'start_time': '2020-07-17 10:33:23', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '8586', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '402', 'price': '2.32', 'admin_id': '927', 'start_time': '2020-06-01 17:29:51', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '京VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_jing.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '8579', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '602', 'price': '0.56', 'admin_id': '927', 'start_time': '2020-06-01 17:29:37', 'energy_name': '98#车用乙醇汽油', 'energy_number': '98(乙醇)', 'energy_type': '5', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '乙醇汽油', 'type_id': '5', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '1763', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '108', 'price': '2.10', 'admin_id': '181', 'start_time': '2020-01-09 11:53:59', 'energy_name': '0#车用柴油（高标）', 'energy_number': '(高标)0', 'energy_type': '2', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}], 'request_id': '143ceaf349f54895ed9c843f9f7416a2'}</t>
+        </is>
+      </c>
+      <c r="O5" s="37" t="inlineStr">
+        <is>
+          <t>0.392</t>
+        </is>
+      </c>
+      <c r="P5" s="35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q5" s="35" t="n"/>
+      <c r="R5" s="35" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" display="http://106.52.206.103:30020/api/user/Login/login_admin" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>